--- a/MC_code/MC_score_weighting.xlsx
+++ b/MC_code/MC_score_weighting.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\userfs\yc1489\w2k\Desktop\ARX1 model\Ch3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Dynamic-Linear-Models-for-Heterogenous-Panels\MC_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE9CEEF-D222-4B4D-8453-3DEF18EAD5CD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15420" windowHeight="9120"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>T\N</t>
   </si>
@@ -51,18 +52,29 @@
   </si>
   <si>
     <t>TN25\25</t>
+  </si>
+  <si>
+    <t>TN200\200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -91,7 +103,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -368,16 +380,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:W24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A4:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="14" max="14" width="11.09765625" customWidth="1"/>
+    <col min="20" max="20" width="11.3984375" customWidth="1"/>
+    <col min="21" max="21" width="11.69921875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -391,7 +408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -453,73 +470,69 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>25</v>
       </c>
       <c r="B6" s="1">
-        <v>7.7257687637275404E-6</v>
+        <v>8.0941881164196697E-4</v>
       </c>
       <c r="G6">
         <v>25</v>
       </c>
       <c r="H6" s="1">
-        <v>1.3998744995416499E-6</v>
+        <v>9.6463309211309699E-4</v>
       </c>
       <c r="M6">
         <v>25</v>
       </c>
       <c r="N6" s="1">
-        <v>-1.9723583094339602E-6</v>
+        <v>8.44489309662786E-4</v>
       </c>
       <c r="S6">
         <v>25</v>
       </c>
       <c r="T6" s="1">
-        <v>-4.4273536509637104E-6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+        <v>6.2576855852479701E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>50</v>
       </c>
-      <c r="C7" s="1">
-        <v>1.28073428002471E-6</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="G7">
         <v>50</v>
       </c>
-      <c r="I7" s="1">
-        <v>4.8552196214037601E-7</v>
-      </c>
+      <c r="I7" s="1"/>
       <c r="M7">
         <v>50</v>
       </c>
-      <c r="O7" s="1">
-        <v>1.3749047253273101E-7</v>
-      </c>
+      <c r="O7" s="1"/>
       <c r="S7">
         <v>50</v>
       </c>
-      <c r="U7" s="1">
-        <v>-7.3179747416702298E-8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>100</v>
       </c>
+      <c r="D8" s="1"/>
       <c r="G8">
         <v>100</v>
       </c>
+      <c r="J8" s="1"/>
       <c r="M8">
         <v>100</v>
       </c>
+      <c r="P8" s="1"/>
       <c r="S8">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>200</v>
       </c>
@@ -537,12 +550,12 @@
       </c>
       <c r="W9" s="1"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -550,62 +563,62 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>0.200328219690701</v>
+        <v>0.84849004029051001</v>
       </c>
       <c r="B14">
-        <v>0.13794057427879899</v>
+        <v>0.84494401105082495</v>
       </c>
       <c r="C14">
-        <v>0.11222983204827899</v>
+        <v>0.84225360573495101</v>
       </c>
       <c r="D14">
-        <v>9.6024335203720099E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0.84003572236789903</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>0.79967178030929897</v>
+        <v>0.15150995970949099</v>
       </c>
       <c r="B15">
-        <v>0.24163110494687301</v>
+        <v>0.144308889066637</v>
       </c>
       <c r="C15">
-        <v>0.15992346675297001</v>
+        <v>0.14168886790627599</v>
       </c>
       <c r="D15">
-        <v>0.12364871781318</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0.13983871115115901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B16">
-        <v>0.62042832077432797</v>
+        <v>1.0747099882538301E-2</v>
       </c>
       <c r="C16">
-        <v>0.24848905203140301</v>
+        <v>9.6253832319604209E-3</v>
       </c>
       <c r="D16">
-        <v>0.162340030826474</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.0836784531004699E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C17">
-        <v>0.47935764916734902</v>
+        <v>6.4321431268134898E-3</v>
       </c>
       <c r="D17">
-        <v>0.224844074083</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.6971965312828101E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="D18">
-        <v>0.39314284207362599</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.3446914965589402E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -613,59 +626,35 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>0.34645198366709101</v>
-      </c>
-      <c r="B20">
-        <v>0.23771567319999401</v>
-      </c>
-      <c r="C20">
-        <v>0.186413266006905</v>
-      </c>
-      <c r="D20">
-        <v>0.156170115471642</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>0.65354801633290904</v>
-      </c>
-      <c r="B21">
-        <v>0.315572289084177</v>
-      </c>
-      <c r="C21">
-        <v>0.22584350768669101</v>
-      </c>
-      <c r="D21">
-        <v>0.177928278948736</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>0.44671203771582901</v>
-      </c>
-      <c r="C22">
-        <v>0.27156131584024701</v>
-      </c>
-      <c r="D22">
-        <v>0.20193459833747399</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <v>0.31618191046615701</v>
-      </c>
-      <c r="D23">
-        <v>0.222352637867749</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D24">
-        <v>0.24161436937439801</v>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MC_code/MC_score_weighting.xlsx
+++ b/MC_code/MC_score_weighting.xlsx
@@ -430,7 +430,7 @@
   <dimension ref="A4:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,23 +837,35 @@
       <c r="B24">
         <v>-3.6604228880347E-3</v>
       </c>
+      <c r="C24">
+        <v>-2.9582284413961499E-3</v>
+      </c>
       <c r="E24">
         <v>50</v>
       </c>
       <c r="F24">
         <v>1.3404044009424101E-2</v>
       </c>
+      <c r="G24">
+        <v>4.5997845199119398E-4</v>
+      </c>
       <c r="K24">
         <v>50</v>
       </c>
       <c r="L24">
         <v>-8.5652428270241998E-3</v>
       </c>
+      <c r="M24">
+        <v>2.6158845577430902E-3</v>
+      </c>
       <c r="O24">
         <v>50</v>
       </c>
       <c r="P24">
         <v>4.7861784016319797E-3</v>
+      </c>
+      <c r="Q24">
+        <v>3.51612042193583E-4</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -953,23 +965,35 @@
       <c r="B29">
         <v>2.7838259648544399E-2</v>
       </c>
+      <c r="C29">
+        <v>1.83828636207338E-2</v>
+      </c>
       <c r="E29">
         <v>50</v>
       </c>
       <c r="F29">
         <v>5.9620182272939297E-2</v>
       </c>
+      <c r="G29">
+        <v>4.4656907664969499E-2</v>
+      </c>
       <c r="K29">
         <v>50</v>
       </c>
       <c r="L29">
         <v>0.103550282436353</v>
       </c>
+      <c r="M29">
+        <v>8.1465857699443603E-2</v>
+      </c>
       <c r="O29">
         <v>50</v>
       </c>
       <c r="P29">
         <v>0.162303128850672</v>
+      </c>
+      <c r="Q29">
+        <v>0.13805586968779399</v>
       </c>
     </row>
   </sheetData>
@@ -1450,7 +1474,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="I25" sqref="I25:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1567,28 +1591,36 @@
       <c r="B6">
         <v>-7.7587062334099602E-4</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>-8.4378625272419107E-3</v>
+      </c>
       <c r="E6">
         <v>50</v>
       </c>
       <c r="F6">
         <v>-3.56984637498117E-3</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1">
+        <v>-8.2502944399616404E-2</v>
+      </c>
       <c r="I6">
         <v>50</v>
       </c>
       <c r="J6">
         <v>-6.5366395804735602E-3</v>
       </c>
-      <c r="K6" s="1"/>
+      <c r="K6" s="1">
+        <v>-0.165285866646039</v>
+      </c>
       <c r="M6">
         <v>50</v>
       </c>
       <c r="N6" s="3">
         <v>-9.8113695778844594E-3</v>
       </c>
-      <c r="O6" s="1"/>
+      <c r="O6" s="2">
+        <v>-0.24300811730917901</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E8" s="1"/>
@@ -1693,7 +1725,7 @@
       <c r="G19">
         <v>0.63130124452263803</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="3">
         <v>0.60052260338771302</v>
       </c>
       <c r="I19">
@@ -1710,7 +1742,7 @@
       <c r="G20">
         <v>0.24058699293278399</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="3">
         <v>0.21524181720694899</v>
       </c>
       <c r="I20">
@@ -1724,7 +1756,7 @@
       <c r="G21">
         <v>0.12811176254457801</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="3">
         <v>8.0377871947186E-2</v>
       </c>
       <c r="I21">
@@ -1735,7 +1767,7 @@
       <c r="E22" t="s">
         <v>20</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="3">
         <v>0.103857707458152</v>
       </c>
       <c r="I22">
@@ -1771,7 +1803,7 @@
       <c r="H25">
         <v>0.60304738329147001</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="3">
         <v>0.590221425239151</v>
       </c>
     </row>
@@ -1788,7 +1820,7 @@
       <c r="H26">
         <v>0.238588583578841</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="3">
         <v>0.22784747175102399</v>
       </c>
     </row>
@@ -1802,7 +1834,7 @@
       <c r="H27">
         <v>7.5314581566550007E-2</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="3">
         <v>6.16876566081596E-2</v>
       </c>
     </row>
@@ -1813,7 +1845,7 @@
       <c r="H28">
         <v>8.3049451563139601E-2</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="3">
         <v>4.8187965937764803E-2</v>
       </c>
     </row>
@@ -1821,7 +1853,7 @@
       <c r="E29" t="s">
         <v>24</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="3">
         <v>7.2055480463900506E-2</v>
       </c>
     </row>
@@ -1837,25 +1869,67 @@
       <c r="E31" t="s">
         <v>17</v>
       </c>
+      <c r="F31">
+        <v>0.67196856685539497</v>
+      </c>
+      <c r="G31">
+        <v>0.62596702810201699</v>
+      </c>
+      <c r="H31">
+        <v>0.60637638971938901</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0.59358142519072998</v>
+      </c>
     </row>
     <row r="32" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>0.32803143314460498</v>
+      </c>
+      <c r="G32">
+        <v>0.26085025704788201</v>
+      </c>
+      <c r="H32">
+        <v>0.24007288591905199</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0.22978578523657101</v>
+      </c>
+    </row>
+    <row r="33" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>0.113182714850716</v>
+      </c>
+      <c r="H33">
+        <v>7.3064222921135402E-2</v>
+      </c>
+      <c r="I33" s="3">
+        <v>6.0190560364280103E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>8.0486501440424199E-2</v>
+      </c>
+      <c r="I34" s="3">
+        <v>4.5338889865347502E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>24</v>
+      </c>
+      <c r="I35" s="3">
+        <v>7.1103339343071198E-2</v>
       </c>
     </row>
   </sheetData>

--- a/MC_code/MC_score_weighting.xlsx
+++ b/MC_code/MC_score_weighting.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Dynamic-Linear-Models-for-Heterogenous-Panels\MC_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35780134-E1F2-4CFB-BDD6-8C94D3DF027E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5B0926-DD61-404E-B7AD-9BCD4C08175E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="5" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="工作表1" sheetId="4" r:id="rId4"/>
+    <sheet name="工作表2" sheetId="6" r:id="rId5"/>
+    <sheet name="工作表3" sheetId="7" r:id="rId6"/>
+    <sheet name="工作表4" sheetId="8" r:id="rId7"/>
+    <sheet name="工作表5" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="47">
   <si>
     <t>fvl2</t>
   </si>
@@ -113,26 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Objective function value </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fvl5(IV:X, X_-1,X_-2,X_-3,X_-4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fvl4(IV:X, X_-1,X_-2,X_-3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fvl3(IV:X, X_-1,X_-2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fvl2(IV:X, X_-1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>X_-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,12 +152,54 @@
     <t>rmse_beta</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>X_-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X_-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_u_0.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>independent factor loading</t>
+  </si>
+  <si>
+    <t>beta1_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beta2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phi_0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rep_500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function value </t>
+  </si>
+  <si>
+    <t>T_50, N_50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>correlated factor loading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +225,14 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="新細明體"/>
@@ -245,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -259,6 +293,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -539,20 +576,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF3FCA2-A6BC-4D68-A0A9-624538C58CA1}">
-  <dimension ref="B1:Z36"/>
+  <dimension ref="B1:AB41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="J4" sqref="J4:Z27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="14" max="14" width="10.69921875" customWidth="1"/>
+    <col min="15" max="15" width="10.296875" customWidth="1"/>
+    <col min="16" max="16" width="10.8984375" customWidth="1"/>
     <col min="17" max="17" width="10.296875" customWidth="1"/>
     <col min="20" max="20" width="6.3984375" customWidth="1"/>
     <col min="21" max="21" width="9.59765625" customWidth="1"/>
     <col min="22" max="22" width="10.19921875" customWidth="1"/>
+    <col min="23" max="23" width="9.8984375" customWidth="1"/>
+    <col min="24" max="24" width="10.59765625" customWidth="1"/>
     <col min="25" max="25" width="10.8984375" customWidth="1"/>
     <col min="26" max="26" width="9.8984375" customWidth="1"/>
+    <col min="32" max="33" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.3">
@@ -560,7 +603,7 @@
         <v>21</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>8</v>
@@ -581,6 +624,12 @@
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
+      <c r="O4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
@@ -593,6 +642,37 @@
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
+      <c r="K5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2.8886981686796199E-5</v>
+      </c>
+      <c r="N5" s="1">
+        <v>-2.0206615702739501E-4</v>
+      </c>
+      <c r="O5" s="1">
+        <v>-4.59544084903606E-4</v>
+      </c>
+      <c r="P5" s="2">
+        <v>-7.2086441046518201E-4</v>
+      </c>
+      <c r="Q5" s="4"/>
+      <c r="T5" t="s">
+        <v>44</v>
+      </c>
+      <c r="V5" s="1">
+        <v>2.5443180065933901E-5</v>
+      </c>
+      <c r="W5">
+        <v>-2.0517057031657301E-4</v>
+      </c>
+      <c r="X5">
+        <v>-4.6205475207186701E-4</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>-7.22440675882684E-4</v>
+      </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
@@ -613,11 +693,12 @@
       <c r="H6" s="7">
         <v>50</v>
       </c>
-      <c r="L6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
+      <c r="J6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B7" s="7">
@@ -638,18 +719,44 @@
       <c r="H7" s="7">
         <v>6.2480785394969395E-4</v>
       </c>
-      <c r="L7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" t="s">
-        <v>30</v>
-      </c>
-      <c r="T7" t="s">
-        <v>29</v>
-      </c>
-      <c r="X7" t="s">
+      <c r="K7" s="10" t="s">
         <v>28</v>
       </c>
+      <c r="L7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7">
+        <v>0.95411218679572996</v>
+      </c>
+      <c r="N7">
+        <v>0.95049505290695802</v>
+      </c>
+      <c r="O7">
+        <v>0.94661050632094002</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0.94316387692940296</v>
+      </c>
+      <c r="Q7" s="4"/>
+      <c r="T7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="V7">
+        <v>0.95378776101556195</v>
+      </c>
+      <c r="W7">
+        <v>0.95004978619693403</v>
+      </c>
+      <c r="X7">
+        <v>0.94589052246272498</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>0.94261125243097998</v>
+      </c>
+      <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
@@ -670,42 +777,40 @@
       <c r="H8" s="7">
         <v>3.36984833376491E-4</v>
       </c>
-      <c r="L8" t="s">
-        <v>4</v>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="M8">
-        <v>25</v>
+        <v>4.5887813204270003E-2</v>
       </c>
       <c r="N8">
-        <v>50</v>
-      </c>
-      <c r="P8" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8">
-        <v>25</v>
-      </c>
-      <c r="R8">
-        <v>50</v>
-      </c>
-      <c r="T8" t="s">
-        <v>4</v>
-      </c>
-      <c r="U8">
-        <v>25</v>
+        <v>3.9361432425717803E-2</v>
+      </c>
+      <c r="O8">
+        <v>3.6591978967677199E-2</v>
+      </c>
+      <c r="P8" s="3">
+        <v>3.4622426665622603E-2</v>
+      </c>
+      <c r="Q8" s="4"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="V8">
-        <v>50</v>
-      </c>
-      <c r="X8" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y8">
-        <v>25</v>
-      </c>
-      <c r="Z8">
-        <v>50</v>
-      </c>
+        <v>4.6212238984437402E-2</v>
+      </c>
+      <c r="W8">
+        <v>3.9435656573590203E-2</v>
+      </c>
+      <c r="X8">
+        <v>3.66891123968228E-2</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>3.4745677100490001E-2</v>
+      </c>
+      <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B9" s="7"/>
@@ -714,90 +819,68 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="L9">
-        <v>25</v>
-      </c>
-      <c r="M9" s="1">
-        <v>2.8886981686796199E-5</v>
-      </c>
-      <c r="N9" s="1">
-        <v>2.5443180065933901E-5</v>
-      </c>
-      <c r="P9">
-        <v>25</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>-2.0206615702739501E-4</v>
-      </c>
-      <c r="R9">
-        <v>-2.0517057031657301E-4</v>
-      </c>
-      <c r="T9">
-        <v>25</v>
-      </c>
-      <c r="U9" s="1">
-        <v>-4.59544084903606E-4</v>
-      </c>
-      <c r="V9">
-        <v>-4.6205475207186701E-4</v>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9">
+        <v>1.01435146673239E-2</v>
+      </c>
+      <c r="O9">
+        <v>7.9924512303584903E-3</v>
+      </c>
+      <c r="P9" s="3">
+        <v>6.8326285326070699E-3</v>
+      </c>
+      <c r="Q9" s="4"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W9">
+        <v>1.05145572294758E-2</v>
       </c>
       <c r="X9">
-        <v>25</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>-7.2086441046518201E-4</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>-7.22440675882684E-4</v>
-      </c>
+        <v>8.3186817245737305E-3</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>7.0020699263605001E-3</v>
+      </c>
+      <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="F10" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="L10">
-        <v>50</v>
-      </c>
-      <c r="M10" s="11">
-        <v>3.7362000034241001E-5</v>
-      </c>
-      <c r="N10" s="11">
-        <v>3.7083713950527798E-5</v>
-      </c>
-      <c r="P10">
-        <v>50</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>1.47574702218111E-5</v>
-      </c>
-      <c r="R10" s="1">
-        <v>1.45219553105316E-5</v>
-      </c>
-      <c r="T10">
-        <v>50</v>
-      </c>
-      <c r="U10" s="1">
-        <v>-1.3723289493722601E-5</v>
-      </c>
-      <c r="V10" s="1">
-        <v>-1.40016404227362E-5</v>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10">
+        <v>8.8050634810249908E-3</v>
+      </c>
+      <c r="P10" s="3">
+        <v>7.5202859791581103E-3</v>
+      </c>
+      <c r="Q10" s="4"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="X10">
-        <v>50</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>-4.3132968816526203E-5</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>-4.3250873664962601E-5</v>
-      </c>
+        <v>9.1016834158790007E-3</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>7.7239949463325103E-3</v>
+      </c>
+      <c r="Z10" s="11"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
@@ -818,7 +901,22 @@
       <c r="H11" s="7">
         <v>50</v>
       </c>
-      <c r="Y11" s="1"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="3">
+        <v>7.8607818932095192E-3</v>
+      </c>
+      <c r="Q11" s="4"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>7.9170055958373599E-3</v>
+      </c>
+      <c r="Z11" s="4"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B12" s="7">
@@ -839,9 +937,10 @@
       <c r="H12" s="7">
         <v>2.00936570338635E-2</v>
       </c>
-      <c r="O12" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="L12" s="10"/>
+      <c r="Q12" s="4"/>
+      <c r="U12" s="10"/>
+      <c r="Z12" s="4"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B13" s="7">
@@ -862,11 +961,10 @@
       <c r="H13" s="7">
         <v>1.7041027905982799E-2</v>
       </c>
-      <c r="N13" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="L13" s="10"/>
       <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
+      <c r="U13" s="10"/>
+      <c r="Z13" s="4"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
@@ -875,25 +973,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="L14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N14">
-        <v>0.95411218679572996</v>
-      </c>
-      <c r="O14">
-        <v>0.95049505290695802</v>
-      </c>
-      <c r="P14">
-        <v>0.94661050632094002</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0.94316387692940296</v>
-      </c>
-      <c r="R14" s="4"/>
+      <c r="Q14" s="4"/>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
@@ -902,23 +982,13 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="N15">
-        <v>4.5887813204270003E-2</v>
-      </c>
-      <c r="O15">
-        <v>3.9361432425717803E-2</v>
-      </c>
-      <c r="P15">
-        <v>3.6591978967677199E-2</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>3.4622426665622603E-2</v>
-      </c>
-      <c r="R15" s="4"/>
+      <c r="O15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="4"/>
+      <c r="X15" s="9" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
@@ -931,22 +1001,39 @@
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
+      <c r="K16" t="s">
+        <v>44</v>
+      </c>
       <c r="L16" s="10"/>
-      <c r="M16" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="O16">
-        <v>1.01435146673239E-2</v>
-      </c>
-      <c r="P16">
-        <v>7.9924512303584903E-3</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>6.8326285326070699E-3</v>
-      </c>
-      <c r="R16" s="4"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="M16" s="11">
+        <v>3.7362000034241001E-5</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1.47574702218111E-5</v>
+      </c>
+      <c r="O16" s="1">
+        <v>-1.3723289493722601E-5</v>
+      </c>
+      <c r="P16" s="2">
+        <v>-4.3132968816526203E-5</v>
+      </c>
+      <c r="T16" t="s">
+        <v>44</v>
+      </c>
+      <c r="V16" s="11">
+        <v>3.7083713950527798E-5</v>
+      </c>
+      <c r="W16" s="1">
+        <v>1.45219553105316E-5</v>
+      </c>
+      <c r="X16" s="1">
+        <v>-1.40016404227362E-5</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>-4.3250873664962601E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>23</v>
       </c>
@@ -957,19 +1044,14 @@
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="P17">
-        <v>8.8050634810249908E-3</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>7.5202859791581103E-3</v>
-      </c>
-      <c r="R17" s="4"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="J17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>4</v>
       </c>
@@ -988,16 +1070,44 @@
       <c r="H18" s="7">
         <v>50</v>
       </c>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>7.8607818932095192E-3</v>
-      </c>
-      <c r="R18" s="4"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="K18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0.94258712257937405</v>
+      </c>
+      <c r="N18">
+        <v>0.94084852936123498</v>
+      </c>
+      <c r="O18">
+        <v>0.93602825928033595</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0.93250233907901003</v>
+      </c>
+      <c r="T18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="U18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="V18" s="4">
+        <v>0.94302420048177205</v>
+      </c>
+      <c r="W18">
+        <v>0.94095469248707198</v>
+      </c>
+      <c r="X18">
+        <v>0.936555151669899</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0.93273702301780004</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B19" s="7">
         <v>25</v>
       </c>
@@ -1016,13 +1126,40 @@
       <c r="H19" s="7">
         <v>7.4085421560399201E-4</v>
       </c>
-      <c r="N19" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="K19" s="10"/>
+      <c r="L19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" s="4">
+        <v>5.7412877420625799E-2</v>
+      </c>
+      <c r="N19">
+        <v>4.5812057814182502E-2</v>
+      </c>
+      <c r="O19">
+        <v>4.19989829683593E-2</v>
+      </c>
+      <c r="P19" s="3">
+        <v>3.9160624500665597E-2</v>
+      </c>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="V19" s="4">
+        <v>5.6975799518227802E-2</v>
+      </c>
+      <c r="W19">
+        <v>4.5620949611107998E-2</v>
+      </c>
+      <c r="X19">
+        <v>4.1626061043377398E-2</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>3.8874112557944498E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B20" s="7">
         <v>50</v>
       </c>
@@ -1041,78 +1178,88 @@
       <c r="H20" s="7">
         <v>4.2582088473519498E-4</v>
       </c>
+      <c r="K20" s="10"/>
       <c r="L20" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N20">
-        <v>0.95378776101556195</v>
+        <v>1.3339412824582101E-2</v>
       </c>
       <c r="O20">
-        <v>0.95004978619693403</v>
-      </c>
-      <c r="P20">
-        <v>0.94589052246272498</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0.94261125243097998</v>
-      </c>
-      <c r="R20" s="4"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+        <v>1.08955728384885E-2</v>
+      </c>
+      <c r="P20" s="3">
+        <v>9.3108341792495393E-3</v>
+      </c>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W20">
+        <v>1.3424357901819801E-2</v>
+      </c>
+      <c r="X20">
+        <v>1.08891616520476E-2</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>9.3846172877714192E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="N21">
-        <v>4.6212238984437402E-2</v>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="O21">
-        <v>3.9435656573590203E-2</v>
-      </c>
-      <c r="P21">
-        <v>3.66891123968228E-2</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>3.4745677100490001E-2</v>
-      </c>
-      <c r="R21" s="4"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+        <v>1.10771849128159E-2</v>
+      </c>
+      <c r="P21" s="3">
+        <v>9.4804289129303606E-3</v>
+      </c>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="X21">
+        <v>1.09296256346755E-2</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>9.4430664800168092E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="F22" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="O22">
-        <v>1.05145572294758E-2</v>
-      </c>
-      <c r="P22">
-        <v>8.3186817245737305E-3</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>7.0020699263605001E-3</v>
-      </c>
-      <c r="R22" s="4"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="K22" s="10"/>
+      <c r="L22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" s="3">
+        <v>9.5457733281449492E-3</v>
+      </c>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>9.5611806564671695E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>4</v>
       </c>
@@ -1132,18 +1279,9 @@
         <v>50</v>
       </c>
       <c r="L23" s="10"/>
-      <c r="M23" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="P23">
-        <v>9.1016834158790007E-3</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>7.7239949463325103E-3</v>
-      </c>
-      <c r="R23" s="4"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="U23" s="10"/>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B24" s="7">
         <v>25</v>
       </c>
@@ -1163,15 +1301,9 @@
         <v>3.3160791180226197E-2</v>
       </c>
       <c r="L24" s="10"/>
-      <c r="M24" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>7.9170055958373599E-3</v>
-      </c>
-      <c r="R24" s="4"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="U24" s="10"/>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B25" s="7">
         <v>50</v>
       </c>
@@ -1192,168 +1324,88 @@
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
-      <c r="N25" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="L26" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M26" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N26" s="4">
-        <v>0.94258712257937405</v>
-      </c>
-      <c r="O26">
-        <v>0.94084852936123498</v>
-      </c>
-      <c r="P26">
-        <v>0.93602825928033595</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>0.93250233907901003</v>
-      </c>
-      <c r="R26" s="4"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="N25" s="9"/>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.3">
       <c r="L27" s="10"/>
-      <c r="M27" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="N27" s="4">
-        <v>5.7412877420625799E-2</v>
-      </c>
-      <c r="O27">
-        <v>4.5812057814182502E-2</v>
-      </c>
-      <c r="P27">
-        <v>4.19989829683593E-2</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>3.9160624500665597E-2</v>
-      </c>
-      <c r="R27" s="4"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="M27" s="10"/>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.3">
       <c r="L28" s="10"/>
-      <c r="M28" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="O28">
-        <v>1.3339412824582101E-2</v>
-      </c>
-      <c r="P28">
-        <v>1.08955728384885E-2</v>
-      </c>
-      <c r="Q28" s="3">
-        <v>9.3108341792495393E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="M28" s="10"/>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.3">
       <c r="L29" s="10"/>
-      <c r="M29" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="P29">
-        <v>1.10771849128159E-2</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>9.4804289129303606E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="M29" s="10"/>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.3">
       <c r="L30" s="10"/>
-      <c r="M30" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q30" s="3">
-        <v>9.5457733281449492E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="M30" s="10"/>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.3">
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
-      <c r="N31" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="L32" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M32" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N32" s="4">
-        <v>0.94302420048177205</v>
-      </c>
-      <c r="O32">
-        <v>0.94095469248707198</v>
-      </c>
-      <c r="P32">
-        <v>0.936555151669899</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0.93273702301780004</v>
-      </c>
-    </row>
-    <row r="33" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="N31" s="9"/>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="4"/>
+    </row>
+    <row r="33" spans="12:28" x14ac:dyDescent="0.3">
       <c r="L33" s="10"/>
-      <c r="M33" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="N33" s="4">
-        <v>5.6975799518227802E-2</v>
-      </c>
-      <c r="O33">
-        <v>4.5620949611107998E-2</v>
-      </c>
-      <c r="P33">
-        <v>4.1626061043377398E-2</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>3.8874112557944498E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="M33" s="10"/>
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="12:28" x14ac:dyDescent="0.3">
       <c r="L34" s="10"/>
-      <c r="M34" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="O34">
-        <v>1.3424357901819801E-2</v>
-      </c>
-      <c r="P34">
-        <v>1.08891616520476E-2</v>
-      </c>
-      <c r="Q34" s="3">
-        <v>9.3846172877714192E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="M34" s="10"/>
+    </row>
+    <row r="35" spans="12:28" x14ac:dyDescent="0.3">
       <c r="L35" s="10"/>
-      <c r="M35" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="P35">
-        <v>1.09296256346755E-2</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>9.4430664800168092E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="M35" s="10"/>
+    </row>
+    <row r="36" spans="12:28" x14ac:dyDescent="0.3">
       <c r="L36" s="10"/>
-      <c r="M36" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q36" s="3">
-        <v>9.5611806564671695E-3</v>
-      </c>
+      <c r="M36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+    </row>
+    <row r="37" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
+    </row>
+    <row r="38" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+    </row>
+    <row r="39" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+    </row>
+    <row r="40" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="S40" s="10"/>
+      <c r="AB40" s="10"/>
+    </row>
+    <row r="41" spans="12:28" x14ac:dyDescent="0.3">
+      <c r="S41" s="10"/>
+      <c r="AB41" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1363,10 +1415,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Z36"/>
+  <dimension ref="B1:AI36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="J5" sqref="J5:Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1397,6 +1449,7 @@
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
+      <c r="Z4" s="4"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
@@ -1409,6 +1462,13 @@
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
+      <c r="O5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z5" s="4"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
@@ -1429,11 +1489,38 @@
       <c r="H6" s="7">
         <v>50</v>
       </c>
-      <c r="L6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
+      <c r="K6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="1">
+        <v>8.2994617756007995E-4</v>
+      </c>
+      <c r="N6" s="1">
+        <v>9.9431954151121393E-4</v>
+      </c>
+      <c r="O6" s="1">
+        <v>8.7486042320082896E-4</v>
+      </c>
+      <c r="P6" s="2">
+        <v>6.5469775002033001E-4</v>
+      </c>
+      <c r="Q6" s="4"/>
+      <c r="T6" t="s">
+        <v>44</v>
+      </c>
+      <c r="V6">
+        <v>8.3025726266712995E-4</v>
+      </c>
+      <c r="W6">
+        <v>9.8974659527785295E-4</v>
+      </c>
+      <c r="X6">
+        <v>8.6328907585900196E-4</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>6.42040368582558E-4</v>
+      </c>
+      <c r="Z6" s="4"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B7" s="7">
@@ -1454,17 +1541,11 @@
       <c r="H7" s="7">
         <v>9.9862630443947609E-4</v>
       </c>
-      <c r="L7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" t="s">
-        <v>30</v>
-      </c>
-      <c r="T7" t="s">
-        <v>29</v>
-      </c>
-      <c r="X7" t="s">
-        <v>28</v>
+      <c r="J7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.3">
@@ -1486,41 +1567,42 @@
       <c r="H8" s="7">
         <v>4.3841097565633402E-4</v>
       </c>
-      <c r="L8" t="s">
-        <v>4</v>
+      <c r="K8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="M8">
-        <v>25</v>
+        <v>0.84907517232310303</v>
       </c>
       <c r="N8">
-        <v>50</v>
-      </c>
-      <c r="P8" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8">
-        <v>25</v>
-      </c>
-      <c r="R8">
-        <v>50</v>
-      </c>
-      <c r="T8" t="s">
-        <v>4</v>
-      </c>
-      <c r="U8">
-        <v>25</v>
+        <v>0.84549368105343303</v>
+      </c>
+      <c r="O8">
+        <v>0.84286589438216097</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0.84056205885678603</v>
+      </c>
+      <c r="Q8" s="4"/>
+      <c r="T8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="V8">
-        <v>50</v>
-      </c>
-      <c r="X8" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y8">
-        <v>25</v>
-      </c>
-      <c r="Z8">
-        <v>50</v>
+        <v>0.84902079471501102</v>
+      </c>
+      <c r="W8">
+        <v>0.84551709756066695</v>
+      </c>
+      <c r="X8">
+        <v>0.84289070974830405</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0.84069652050679899</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.3">
@@ -1530,89 +1612,77 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="L9">
-        <v>25</v>
-      </c>
-      <c r="M9" s="1">
-        <v>8.2994617756007995E-4</v>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9">
+        <v>0.15092482767689699</v>
       </c>
       <c r="N9">
-        <v>8.3025726266712995E-4</v>
-      </c>
-      <c r="P9">
-        <v>25</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>9.9431954151121393E-4</v>
-      </c>
-      <c r="R9">
-        <v>9.8974659527785295E-4</v>
-      </c>
-      <c r="T9">
-        <v>25</v>
-      </c>
-      <c r="U9" s="1">
-        <v>8.7486042320082896E-4</v>
+        <v>0.14376552349758201</v>
+      </c>
+      <c r="O9">
+        <v>0.141137091082155</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0.139130869252478</v>
+      </c>
+      <c r="Q9" s="4"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="V9">
-        <v>8.6328907585900196E-4</v>
+        <v>0.15097920528498901</v>
+      </c>
+      <c r="W9">
+        <v>0.143674296492489</v>
       </c>
       <c r="X9">
-        <v>25</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>6.5469775002033001E-4</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>6.42040368582558E-4</v>
+        <v>0.141152865982133</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0.13921937842725399</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="F10" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="L10">
-        <v>50</v>
-      </c>
-      <c r="M10" s="3">
-        <v>2.3329817637158899E-4</v>
-      </c>
-      <c r="N10" s="2">
-        <v>2.3108663377947999E-4</v>
-      </c>
-      <c r="P10">
-        <v>50</v>
-      </c>
-      <c r="Q10">
-        <v>3.091453133272E-4</v>
-      </c>
-      <c r="R10" s="1">
-        <v>3.04500243689282E-4</v>
-      </c>
-      <c r="T10">
-        <v>50</v>
-      </c>
-      <c r="U10">
-        <v>3.1613195198199799E-4</v>
-      </c>
-      <c r="V10" s="1">
-        <v>3.0988816074028097E-4</v>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10">
+        <v>1.07407954489845E-2</v>
+      </c>
+      <c r="O10">
+        <v>9.5965295739380094E-3</v>
+      </c>
+      <c r="P10" s="3">
+        <v>8.99749304834618E-3</v>
+      </c>
+      <c r="Q10" s="4"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W10">
+        <v>1.0808605946844199E-2</v>
       </c>
       <c r="X10">
-        <v>50</v>
-      </c>
-      <c r="Y10">
-        <v>2.9853344021866802E-4</v>
-      </c>
-      <c r="Z10" s="1">
-        <v>2.9236026723825602E-4</v>
+        <v>9.5528349737914395E-3</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>8.9618366356330591E-3</v>
       </c>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.3">
@@ -1634,6 +1704,27 @@
       <c r="H11" s="7">
         <v>50</v>
       </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11">
+        <v>6.4004849617453801E-3</v>
+      </c>
+      <c r="P11" s="3">
+        <v>5.7333555806102204E-3</v>
+      </c>
+      <c r="Q11" s="4"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="X11">
+        <v>6.4035892957715196E-3</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>5.7958798566508096E-3</v>
+      </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B12" s="7">
@@ -1654,8 +1745,20 @@
       <c r="H12" s="7">
         <v>2.0475805100932502E-2</v>
       </c>
-      <c r="O12" s="9" t="s">
-        <v>12</v>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" s="3">
+        <v>5.5762232617798798E-3</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>5.3263845736633902E-3</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.3">
@@ -1677,9 +1780,9 @@
       <c r="H13" s="7">
         <v>1.7141840269722802E-2</v>
       </c>
-      <c r="N13" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="L13" s="10"/>
+      <c r="Q13" s="4"/>
+      <c r="U13" s="10"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
@@ -1688,24 +1791,9 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="L14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N14">
-        <v>0.84907517232310303</v>
-      </c>
-      <c r="O14">
-        <v>0.84549368105343303</v>
-      </c>
-      <c r="P14">
-        <v>0.84286589438216097</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0.84056205885678603</v>
-      </c>
+      <c r="L14" s="10"/>
+      <c r="Q14" s="4"/>
+      <c r="U14" s="10"/>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
@@ -1714,22 +1802,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="N15">
-        <v>0.15092482767689699</v>
-      </c>
-      <c r="O15">
-        <v>0.14376552349758201</v>
-      </c>
-      <c r="P15">
-        <v>0.141137091082155</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0.139130869252478</v>
-      </c>
+      <c r="Q15" s="4"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
@@ -1742,21 +1815,15 @@
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="O16">
-        <v>1.07407954489845E-2</v>
-      </c>
-      <c r="P16">
-        <v>9.5965295739380094E-3</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>8.99749304834618E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="4"/>
+      <c r="X16" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>23</v>
       </c>
@@ -1767,18 +1834,40 @@
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
+      <c r="K17" t="s">
+        <v>44</v>
+      </c>
       <c r="L17" s="10"/>
-      <c r="M17" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="P17">
-        <v>6.4004849617453801E-3</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>5.7333555806102204E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="M17" s="3">
+        <v>2.3329817637158899E-4</v>
+      </c>
+      <c r="N17">
+        <v>3.091453133272E-4</v>
+      </c>
+      <c r="O17">
+        <v>3.1613195198199799E-4</v>
+      </c>
+      <c r="P17" s="4">
+        <v>2.9853344021866802E-4</v>
+      </c>
+      <c r="T17" t="s">
+        <v>44</v>
+      </c>
+      <c r="V17" s="2">
+        <v>2.3108663377947999E-4</v>
+      </c>
+      <c r="W17" s="1">
+        <v>3.04500243689282E-4</v>
+      </c>
+      <c r="X17" s="1">
+        <v>3.0988816074028097E-4</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>2.9236026723825602E-4</v>
+      </c>
+      <c r="AI17" s="4"/>
+    </row>
+    <row r="18" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>4</v>
       </c>
@@ -1797,15 +1886,15 @@
       <c r="H18" s="7">
         <v>50</v>
       </c>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>5.5762232617798798E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="J18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI18" s="4"/>
+    </row>
+    <row r="19" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B19" s="7">
         <v>25</v>
       </c>
@@ -1824,11 +1913,46 @@
       <c r="H19" s="7">
         <v>1.7796135305561101E-3</v>
       </c>
-      <c r="N19" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="K19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0.83575101551750597</v>
+      </c>
+      <c r="N19">
+        <v>0.83433648910117497</v>
+      </c>
+      <c r="O19">
+        <v>0.83206791162549298</v>
+      </c>
+      <c r="P19">
+        <v>0.82980234070329795</v>
+      </c>
+      <c r="Q19" s="4"/>
+      <c r="T19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="U19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="V19" s="3">
+        <v>0.83616592628823105</v>
+      </c>
+      <c r="W19">
+        <v>0.83460346813148001</v>
+      </c>
+      <c r="X19">
+        <v>0.832765609788369</v>
+      </c>
+      <c r="Y19">
+        <v>0.83037295486360996</v>
+      </c>
+      <c r="AI19" s="4"/>
+    </row>
+    <row r="20" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B20" s="7">
         <v>50</v>
       </c>
@@ -1847,75 +1971,112 @@
       <c r="H20" s="7">
         <v>6.2354338070624903E-4</v>
       </c>
+      <c r="K20" s="10"/>
       <c r="L20" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0.164248984482495</v>
       </c>
       <c r="N20">
-        <v>0.84902079471501102</v>
+        <v>0.155933861330565</v>
       </c>
       <c r="O20">
-        <v>0.84551709756066695</v>
+        <v>0.15303703918264</v>
       </c>
       <c r="P20">
-        <v>0.84289070974830405</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0.84069652050679899</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+        <v>0.15062038893569901</v>
+      </c>
+      <c r="Q20" s="4"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0.16383407371177</v>
+      </c>
+      <c r="W20">
+        <v>0.155729336806819</v>
+      </c>
+      <c r="X20">
+        <v>0.152684476108047</v>
+      </c>
+      <c r="Y20">
+        <v>0.15024495842973801</v>
+      </c>
+      <c r="AI20" s="11"/>
+    </row>
+    <row r="21" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10" t="s">
-        <v>34</v>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="N21">
-        <v>0.15097920528498901</v>
+        <v>9.7296495682600397E-3</v>
       </c>
       <c r="O21">
-        <v>0.143674296492489</v>
+        <v>8.4967669009029297E-3</v>
       </c>
       <c r="P21">
-        <v>0.141152865982133</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>0.13921937842725399</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+        <v>7.9215000630199102E-3</v>
+      </c>
+      <c r="Q21" s="4"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W21">
+        <v>9.6671950617010106E-3</v>
+      </c>
+      <c r="X21">
+        <v>8.2740343604956103E-3</v>
+      </c>
+      <c r="Y21">
+        <v>7.8032875874043299E-3</v>
+      </c>
+      <c r="AI21" s="4"/>
+    </row>
+    <row r="22" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="F22" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10" t="s">
-        <v>35</v>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="O22">
-        <v>1.0808605946844199E-2</v>
+        <v>6.3982822909645302E-3</v>
       </c>
       <c r="P22">
-        <v>9.5528349737914395E-3</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>8.9618366356330591E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+        <v>5.9359672947579597E-3</v>
+      </c>
+      <c r="Q22" s="4"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="X22">
+        <v>6.27587974308792E-3</v>
+      </c>
+      <c r="Y22">
+        <v>5.8913445113443902E-3</v>
+      </c>
+      <c r="AI22" s="4"/>
+    </row>
+    <row r="23" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>4</v>
       </c>
@@ -1934,18 +2095,24 @@
       <c r="H23" s="7">
         <v>50</v>
       </c>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10" t="s">
-        <v>36</v>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="P23">
-        <v>6.4035892957715196E-3</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>5.7958798566508096E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+        <v>5.71980300322515E-3</v>
+      </c>
+      <c r="Q23" s="4"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y23">
+        <v>5.6874546079029196E-3</v>
+      </c>
+      <c r="AI23" s="4"/>
+    </row>
+    <row r="24" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B24" s="7">
         <v>25</v>
       </c>
@@ -1965,14 +2132,12 @@
         <v>3.3521040064299297E-2</v>
       </c>
       <c r="L24" s="10"/>
-      <c r="M24" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>5.3263845736633902E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="U24" s="10"/>
+      <c r="Y24" s="4"/>
+    </row>
+    <row r="25" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B25" s="7">
         <v>50</v>
       </c>
@@ -1992,165 +2157,66 @@
         <v>2.47958111668156E-2</v>
       </c>
       <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="L26" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M26" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0.83575101551750597</v>
-      </c>
-      <c r="O26">
-        <v>0.83433648910117497</v>
-      </c>
-      <c r="P26">
-        <v>0.83206791162549298</v>
-      </c>
-      <c r="Q26">
-        <v>0.82980234070329795</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="U25" s="10"/>
+    </row>
+    <row r="26" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="9"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+    </row>
+    <row r="27" spans="2:35" x14ac:dyDescent="0.3">
       <c r="L27" s="10"/>
-      <c r="M27" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0.164248984482495</v>
-      </c>
-      <c r="O27">
-        <v>0.155933861330565</v>
-      </c>
-      <c r="P27">
-        <v>0.15303703918264</v>
-      </c>
-      <c r="Q27">
-        <v>0.15062038893569901</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="L28" s="10"/>
-      <c r="M28" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="O28">
-        <v>9.7296495682600397E-3</v>
-      </c>
-      <c r="P28">
-        <v>8.4967669009029297E-3</v>
-      </c>
-      <c r="Q28">
-        <v>7.9215000630199102E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="L29" s="10"/>
-      <c r="M29" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="P29">
-        <v>6.3982822909645302E-3</v>
-      </c>
-      <c r="Q29">
-        <v>5.9359672947579597E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="L30" s="10"/>
-      <c r="M30" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q30">
-        <v>5.71980300322515E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="L31" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="31" spans="2:35" x14ac:dyDescent="0.3">
       <c r="M31" s="10"/>
-      <c r="N31" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="L32" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M32" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0.83616592628823105</v>
-      </c>
-      <c r="O32">
-        <v>0.83460346813148001</v>
-      </c>
-      <c r="P32">
-        <v>0.832765609788369</v>
-      </c>
-      <c r="Q32">
-        <v>0.83037295486360996</v>
-      </c>
+      <c r="N31" s="10"/>
+      <c r="O31" s="4"/>
+    </row>
+    <row r="32" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="L32" s="10"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
     </row>
     <row r="33" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L33" s="10"/>
-      <c r="M33" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0.16383407371177</v>
-      </c>
-      <c r="O33">
-        <v>0.155729336806819</v>
-      </c>
-      <c r="P33">
-        <v>0.152684476108047</v>
-      </c>
-      <c r="Q33">
-        <v>0.15024495842973801</v>
-      </c>
+      <c r="M33" s="14"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
     </row>
     <row r="34" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L34" s="10"/>
-      <c r="M34" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="O34">
-        <v>9.6671950617010106E-3</v>
-      </c>
-      <c r="P34">
-        <v>8.2740343604956103E-3</v>
-      </c>
-      <c r="Q34">
-        <v>7.8032875874043299E-3</v>
-      </c>
+      <c r="M34" s="14"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
     </row>
     <row r="35" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L35" s="10"/>
-      <c r="M35" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="P35">
-        <v>6.27587974308792E-3</v>
-      </c>
-      <c r="Q35">
-        <v>5.8913445113443902E-3</v>
-      </c>
+      <c r="M35" s="14"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
     </row>
     <row r="36" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L36" s="10"/>
-      <c r="M36" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q36">
-        <v>5.6874546079029196E-3</v>
-      </c>
+      <c r="M36" s="14"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2161,10 +2227,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:Z35"/>
+  <dimension ref="B1:AH37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -2174,12 +2240,12 @@
     <col min="14" max="14" width="10.796875" customWidth="1"/>
     <col min="17" max="17" width="10" customWidth="1"/>
     <col min="18" max="18" width="10.59765625" customWidth="1"/>
-    <col min="21" max="21" width="12" customWidth="1"/>
+    <col min="21" max="21" width="10" customWidth="1"/>
     <col min="22" max="22" width="10.296875" customWidth="1"/>
     <col min="26" max="26" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:34" x14ac:dyDescent="0.3">
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -2193,15 +2259,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:34" x14ac:dyDescent="0.3">
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:34" x14ac:dyDescent="0.3">
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
@@ -2212,8 +2278,10 @@
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+    </row>
+    <row r="5" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>22</v>
       </c>
@@ -2224,13 +2292,16 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="L5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="O5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+    </row>
+    <row r="6" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2249,20 +2320,41 @@
       <c r="H6" s="5">
         <v>50</v>
       </c>
-      <c r="L6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" t="s">
-        <v>30</v>
-      </c>
+      <c r="K6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-16.991161244800502</v>
+      </c>
+      <c r="N6" s="1">
+        <v>-103.827623546344</v>
+      </c>
+      <c r="O6" s="1">
+        <v>-142.657455166364</v>
+      </c>
+      <c r="P6" s="3">
+        <v>-200.86172846256599</v>
+      </c>
+      <c r="Q6" s="4"/>
       <c r="T6" t="s">
-        <v>29</v>
-      </c>
-      <c r="X6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="V6">
+        <v>-0.22694851086784601</v>
+      </c>
+      <c r="W6">
+        <v>-1.1053392774172199</v>
+      </c>
+      <c r="X6" s="3">
+        <v>-1.6133646586039301</v>
+      </c>
+      <c r="Y6">
+        <v>-1.13175249284668</v>
+      </c>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+    </row>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>25</v>
       </c>
@@ -2281,44 +2373,24 @@
       <c r="H7" s="5">
         <v>-1.6889748279282801E-2</v>
       </c>
-      <c r="L7" t="s">
-        <v>4</v>
-      </c>
-      <c r="M7">
-        <v>25</v>
-      </c>
-      <c r="N7">
-        <v>50</v>
-      </c>
-      <c r="P7" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q7">
-        <v>25</v>
-      </c>
-      <c r="R7">
-        <v>50</v>
-      </c>
-      <c r="T7" t="s">
-        <v>4</v>
-      </c>
-      <c r="U7">
-        <v>25</v>
-      </c>
-      <c r="V7">
-        <v>50</v>
-      </c>
-      <c r="X7" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y7">
-        <v>25</v>
-      </c>
-      <c r="Z7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="J7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="S7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+    </row>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>50</v>
       </c>
@@ -2337,100 +2409,133 @@
       <c r="H8" s="5">
         <v>4.5997845199119398E-4</v>
       </c>
-      <c r="L8">
-        <v>25</v>
-      </c>
-      <c r="M8" s="1">
-        <v>-16.991161244800502</v>
+      <c r="K8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8">
+        <v>0.68697224837859505</v>
       </c>
       <c r="N8">
-        <v>-0.22694851086784601</v>
-      </c>
-      <c r="P8">
-        <v>25</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>-103.827623546344</v>
-      </c>
-      <c r="R8">
-        <v>-1.1053392774172199</v>
-      </c>
-      <c r="T8">
-        <v>25</v>
-      </c>
-      <c r="U8" s="1">
-        <v>-142.657455166364</v>
-      </c>
-      <c r="V8" s="3">
-        <v>-1.6133646586039301</v>
-      </c>
-      <c r="X8">
-        <v>25</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>-200.86172846256599</v>
-      </c>
-      <c r="Z8">
-        <v>-1.13175249284668</v>
-      </c>
-    </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.3">
+        <v>0.63039483250855499</v>
+      </c>
+      <c r="O8">
+        <v>0.59892410629354198</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0.57901511610131995</v>
+      </c>
+      <c r="Q8" s="4"/>
+      <c r="T8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="V8">
+        <v>0.686378065835343</v>
+      </c>
+      <c r="W8">
+        <v>0.63130124452263803</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0.60052260338771302</v>
+      </c>
+      <c r="Y8">
+        <v>0.58013703411289697</v>
+      </c>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+    </row>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="L9">
-        <v>50</v>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="M9">
-        <v>-7.7587062334099602E-4</v>
-      </c>
-      <c r="N9" s="1">
-        <v>-8.4378625272419107E-3</v>
-      </c>
-      <c r="P9">
-        <v>50</v>
-      </c>
-      <c r="Q9">
-        <v>-3.56984637498117E-3</v>
-      </c>
-      <c r="R9" s="1">
-        <v>-8.2502944399616404E-2</v>
-      </c>
-      <c r="T9">
-        <v>50</v>
-      </c>
-      <c r="U9">
-        <v>-6.5366395804735602E-3</v>
-      </c>
-      <c r="V9" s="1">
-        <v>-0.165285866646039</v>
-      </c>
-      <c r="X9">
-        <v>50</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>-9.8113695778844594E-3</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>-0.24300811730917901</v>
-      </c>
-    </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.3">
+        <v>0.313027751629052</v>
+      </c>
+      <c r="N9">
+        <v>0.239383131273879</v>
+      </c>
+      <c r="O9">
+        <v>0.21432902056838199</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0.201868342182319</v>
+      </c>
+      <c r="Q9" s="4"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="V9">
+        <v>0.31362193416462403</v>
+      </c>
+      <c r="W9">
+        <v>0.24058699293278399</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0.21524181720694899</v>
+      </c>
+      <c r="Y9">
+        <v>0.202395502990763</v>
+      </c>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="4"/>
+    </row>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="K10" s="10"/>
+      <c r="L10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10">
+        <v>0.13022203621769299</v>
+      </c>
+      <c r="O10">
+        <v>8.0840330670336302E-2</v>
+      </c>
+      <c r="P10" s="3">
+        <v>6.4572620965113695E-2</v>
+      </c>
+      <c r="Q10" s="4"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="V10" s="4"/>
+      <c r="W10">
+        <v>0.12811176254457801</v>
+      </c>
+      <c r="X10" s="3">
+        <v>8.0377871947186E-2</v>
+      </c>
+      <c r="Y10">
+        <v>6.45100443661418E-2</v>
+      </c>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
@@ -2449,11 +2554,33 @@
       <c r="H11" s="5">
         <v>50</v>
       </c>
-      <c r="O11" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="K11" s="10"/>
+      <c r="L11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11">
+        <v>0.10590654246774001</v>
+      </c>
+      <c r="P11" s="3">
+        <v>5.6530575627185803E-2</v>
+      </c>
+      <c r="Q11" s="4"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="3">
+        <v>0.103857707458152</v>
+      </c>
+      <c r="Y11">
+        <v>5.6967233514453403E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>25</v>
       </c>
@@ -2472,11 +2599,29 @@
       <c r="H12" s="5">
         <v>0.388991122539455</v>
       </c>
-      <c r="N12" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="K12" s="10"/>
+      <c r="L12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="3">
+        <v>9.8013345124221496E-2</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12">
+        <v>9.5990185027015201E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>50</v>
       </c>
@@ -2495,26 +2640,15 @@
       <c r="H13" s="5">
         <v>4.4656907664969499E-2</v>
       </c>
-      <c r="L13" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13">
-        <v>0.68697224837859505</v>
-      </c>
-      <c r="O13">
-        <v>0.63039483250855499</v>
-      </c>
-      <c r="P13">
-        <v>0.59892410629354198</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>0.57901511610131995</v>
-      </c>
-    </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="L13" s="10"/>
+      <c r="Q13" s="4"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+    </row>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -2522,44 +2656,25 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="L14" s="10"/>
-      <c r="M14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="N14">
-        <v>0.313027751629052</v>
-      </c>
-      <c r="O14">
-        <v>0.239383131273879</v>
-      </c>
-      <c r="P14">
-        <v>0.21432902056838199</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0.201868342182319</v>
-      </c>
-    </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="Q14" s="4"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="AH14" s="4"/>
+    </row>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="O15">
-        <v>0.13022203621769299</v>
-      </c>
-      <c r="P15">
-        <v>8.0840330670336302E-2</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>6.4572620965113695E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="Q15" s="4"/>
+      <c r="AH15" s="4"/>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>5</v>
       </c>
@@ -2570,18 +2685,16 @@
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="P16">
-        <v>0.10590654246774001</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>5.6530575627185803E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="4"/>
+      <c r="X16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH16" s="4"/>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>23</v>
       </c>
@@ -2592,15 +2705,40 @@
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
+      <c r="K17" t="s">
+        <v>44</v>
+      </c>
       <c r="L17" s="10"/>
-      <c r="M17" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>9.8013345124221496E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="M17">
+        <v>-7.7587062334099602E-4</v>
+      </c>
+      <c r="N17">
+        <v>-3.56984637498117E-3</v>
+      </c>
+      <c r="O17">
+        <v>-6.5366395804735602E-3</v>
+      </c>
+      <c r="P17" s="3">
+        <v>-9.8113695778844594E-3</v>
+      </c>
+      <c r="T17" t="s">
+        <v>44</v>
+      </c>
+      <c r="V17" s="1">
+        <v>-8.4378625272419107E-3</v>
+      </c>
+      <c r="W17" s="1">
+        <v>-8.2502944399616404E-2</v>
+      </c>
+      <c r="X17" s="1">
+        <v>-0.165285866646039</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>-0.24300811730917901</v>
+      </c>
+      <c r="AH17" s="4"/>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>4</v>
       </c>
@@ -2619,11 +2757,23 @@
       <c r="H18" s="5">
         <v>50</v>
       </c>
-      <c r="N18" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="J18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="S18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="AH18" s="4"/>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>25</v>
       </c>
@@ -2642,26 +2792,46 @@
       <c r="H19" s="5">
         <v>-3.9480545700578198E-2</v>
       </c>
+      <c r="K19" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="L19" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M19" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="M19">
+        <v>0.67201315528255601</v>
       </c>
       <c r="N19">
-        <v>0.686378065835343</v>
+        <v>0.62496146023087695</v>
       </c>
       <c r="O19">
-        <v>0.63130124452263803</v>
+        <v>0.60304738329147001</v>
       </c>
       <c r="P19" s="3">
-        <v>0.60052260338771302</v>
-      </c>
-      <c r="Q19">
-        <v>0.58013703411289697</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+        <v>0.590221425239151</v>
+      </c>
+      <c r="Q19" s="4"/>
+      <c r="T19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="U19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="V19">
+        <v>0.67196856685539497</v>
+      </c>
+      <c r="W19">
+        <v>0.62596702810201699</v>
+      </c>
+      <c r="X19">
+        <v>0.60637638971938901</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>0.59358142519072998</v>
+      </c>
+      <c r="AH19" s="4"/>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>50</v>
       </c>
@@ -2680,67 +2850,118 @@
       <c r="H20" s="5">
         <v>3.51612042193583E-4</v>
       </c>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10" t="s">
-        <v>34</v>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20">
+        <v>0.32798684471744399</v>
       </c>
       <c r="N20">
-        <v>0.31362193416462403</v>
+        <v>0.260270654907858</v>
       </c>
       <c r="O20">
-        <v>0.24058699293278399</v>
+        <v>0.238588583578841</v>
       </c>
       <c r="P20" s="3">
-        <v>0.21524181720694899</v>
-      </c>
-      <c r="Q20">
-        <v>0.202395502990763</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+        <v>0.22784747175102399</v>
+      </c>
+      <c r="Q20" s="4"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="V20">
+        <v>0.32803143314460498</v>
+      </c>
+      <c r="W20">
+        <v>0.26085025704788201</v>
+      </c>
+      <c r="X20">
+        <v>0.24007288591905199</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0.22978578523657101</v>
+      </c>
+      <c r="AH20" s="4"/>
+    </row>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10" t="s">
+      <c r="K21" s="10"/>
+      <c r="L21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21">
+        <v>0.114767884861265</v>
+      </c>
+      <c r="O21">
+        <v>7.5314581566550007E-2</v>
+      </c>
+      <c r="P21" s="3">
+        <v>6.16876566081596E-2</v>
+      </c>
+      <c r="Q21" s="4"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="V21" s="4"/>
+      <c r="W21">
+        <v>0.113182714850716</v>
+      </c>
+      <c r="X21">
+        <v>7.3064222921135402E-2</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>6.0190560364280103E-2</v>
+      </c>
+      <c r="AH21" s="4"/>
+    </row>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="O21">
-        <v>0.12811176254457801</v>
-      </c>
-      <c r="P21" s="3">
-        <v>8.0377871947186E-2</v>
-      </c>
-      <c r="Q21">
-        <v>6.45100443661418E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="F22" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10" t="s">
-        <v>36</v>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22">
+        <v>8.3049451563139601E-2</v>
       </c>
       <c r="P22" s="3">
-        <v>0.103857707458152</v>
-      </c>
-      <c r="Q22">
-        <v>5.6967233514453403E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+        <v>4.8187965937764803E-2</v>
+      </c>
+      <c r="Q22" s="4"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22">
+        <v>8.0486501440424199E-2</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>4.5338889865347502E-2</v>
+      </c>
+      <c r="AH22" s="4"/>
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
         <v>4</v>
       </c>
@@ -2759,15 +2980,29 @@
       <c r="H23" s="5">
         <v>50</v>
       </c>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q23">
-        <v>9.5990185027015201E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="K23" s="10"/>
+      <c r="L23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="3">
+        <v>7.2055480463900506E-2</v>
+      </c>
+      <c r="Q23" s="4"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="3">
+        <v>7.1103339343071198E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <v>25</v>
       </c>
@@ -2787,12 +3022,18 @@
         <v>0.85436938868637202</v>
       </c>
       <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+    </row>
+    <row r="25" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
         <v>50</v>
       </c>
@@ -2811,175 +3052,120 @@
       <c r="H25" s="5">
         <v>0.13805586968779399</v>
       </c>
-      <c r="L25" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N25">
-        <v>0.67201315528255601</v>
-      </c>
-      <c r="O25">
-        <v>0.62496146023087695</v>
-      </c>
-      <c r="P25">
-        <v>0.60304738329147001</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>0.590221425239151</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="L25" s="10"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="U25" s="10"/>
+    </row>
+    <row r="26" spans="2:34" x14ac:dyDescent="0.3">
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="N26">
-        <v>0.32798684471744399</v>
-      </c>
-      <c r="O26">
-        <v>0.260270654907858</v>
-      </c>
-      <c r="P26">
-        <v>0.238588583578841</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>0.22784747175102399</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:34" x14ac:dyDescent="0.3">
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="O27">
-        <v>0.114767884861265</v>
-      </c>
-      <c r="P27">
-        <v>7.5314581566550007E-2</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>6.16876566081596E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:34" x14ac:dyDescent="0.3">
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="P28">
-        <v>8.3049451563139601E-2</v>
-      </c>
-      <c r="Q28" s="3">
-        <v>4.8187965937764803E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="K28" s="4"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+    </row>
+    <row r="29" spans="2:34" x14ac:dyDescent="0.3">
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>7.2055480463900506E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="K29" s="4"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+    </row>
+    <row r="30" spans="2:34" x14ac:dyDescent="0.3">
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="K30" s="4"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+    </row>
+    <row r="31" spans="2:34" x14ac:dyDescent="0.3">
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="L31" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M31" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N31">
-        <v>0.67196856685539497</v>
-      </c>
-      <c r="O31">
-        <v>0.62596702810201699</v>
-      </c>
-      <c r="P31">
-        <v>0.60637638971938901</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>0.59358142519072998</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="K31" s="4"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+    </row>
+    <row r="32" spans="2:34" x14ac:dyDescent="0.3">
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="N32">
-        <v>0.32803143314460498</v>
-      </c>
-      <c r="O32">
-        <v>0.26085025704788201</v>
-      </c>
-      <c r="P32">
-        <v>0.24007288591905199</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0.22978578523657101</v>
-      </c>
+      <c r="K32" s="4"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
     </row>
     <row r="33" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="O33">
-        <v>0.113182714850716</v>
-      </c>
-      <c r="P33">
-        <v>7.3064222921135402E-2</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>6.0190560364280103E-2</v>
-      </c>
+      <c r="K33" s="4"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
     </row>
     <row r="34" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="L34" s="10"/>
-      <c r="M34" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="P34">
-        <v>8.0486501440424199E-2</v>
-      </c>
-      <c r="Q34" s="3">
-        <v>4.5338889865347502E-2</v>
-      </c>
+      <c r="K34" s="4"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="L35" s="10"/>
-      <c r="M35" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>7.1103339343071198E-2</v>
-      </c>
+      <c r="K35" s="4"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+    </row>
+    <row r="36" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+    </row>
+    <row r="37" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2991,8 +3177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B365F34-0125-44E0-9637-C9A0AE4D0DDF}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -3713,4 +3899,3112 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB347C27-138E-4008-A689-B4333822E80F}">
+  <dimension ref="B1:AA25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="13" width="9.59765625" customWidth="1"/>
+    <col min="14" max="14" width="10.19921875" customWidth="1"/>
+    <col min="15" max="15" width="10.09765625" customWidth="1"/>
+    <col min="19" max="19" width="9.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="G1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="9"/>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="F4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="F5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="O5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7">
+        <v>25</v>
+      </c>
+      <c r="D6" s="7">
+        <v>50</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="7">
+        <v>25</v>
+      </c>
+      <c r="H6" s="7">
+        <v>50</v>
+      </c>
+      <c r="K6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="3">
+        <v>25560.999339779599</v>
+      </c>
+      <c r="N6" s="1">
+        <v>93084.873128728097</v>
+      </c>
+      <c r="O6" s="1">
+        <v>252880.08476506901</v>
+      </c>
+      <c r="P6">
+        <v>600410.82209867798</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>1075535.79593792</v>
+      </c>
+      <c r="R6">
+        <v>3017565.2225717399</v>
+      </c>
+      <c r="T6" t="s">
+        <v>44</v>
+      </c>
+      <c r="V6">
+        <v>1987.5665820669501</v>
+      </c>
+      <c r="W6">
+        <v>4683.6433436570696</v>
+      </c>
+      <c r="X6">
+        <v>7734.9126918195998</v>
+      </c>
+      <c r="Y6">
+        <v>11215.9323309926</v>
+      </c>
+      <c r="Z6">
+        <v>15402.6052969294</v>
+      </c>
+      <c r="AA6">
+        <v>20570.641522094</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B7" s="7">
+        <v>25</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1.1303830418208901E-2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1.54241111057275E-2</v>
+      </c>
+      <c r="F7" s="7">
+        <v>25</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1.3544761828131699E-2</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1.6171475290782202E-2</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B8" s="7">
+        <v>50</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1.3792649143704301E-2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1.4802740955865999E-2</v>
+      </c>
+      <c r="F8" s="7">
+        <v>50</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1.74311521549795E-2</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1.6478210032198602E-2</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.69300382929612603</v>
+      </c>
+      <c r="N8">
+        <v>0.59212980688587602</v>
+      </c>
+      <c r="O8">
+        <v>0.51349614134302701</v>
+      </c>
+      <c r="P8">
+        <v>0.44448009719126902</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0.379402198555018</v>
+      </c>
+      <c r="R8">
+        <v>0.31809724621621099</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0.68577142419344905</v>
+      </c>
+      <c r="W8">
+        <v>0.58181374758725002</v>
+      </c>
+      <c r="X8">
+        <v>0.500660867322686</v>
+      </c>
+      <c r="Y8">
+        <v>0.431405569696031</v>
+      </c>
+      <c r="Z8">
+        <v>0.36831840791931603</v>
+      </c>
+      <c r="AA8">
+        <v>0.30815257968458698</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.30699617070387403</v>
+      </c>
+      <c r="N9">
+        <v>0.197526506146045</v>
+      </c>
+      <c r="O9">
+        <v>0.17348523428492801</v>
+      </c>
+      <c r="P9">
+        <v>0.156920742507829</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0.14345156485844501</v>
+      </c>
+      <c r="R9">
+        <v>0.13404443237149499</v>
+      </c>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0.31422857581713898</v>
+      </c>
+      <c r="W9">
+        <v>0.199944435189886</v>
+      </c>
+      <c r="X9">
+        <v>0.174681587126511</v>
+      </c>
+      <c r="Y9">
+        <v>0.156904209704257</v>
+      </c>
+      <c r="Z9">
+        <v>0.144108042193725</v>
+      </c>
+      <c r="AA9">
+        <v>0.134223115674938</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="F10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10">
+        <v>0.21034368707919901</v>
+      </c>
+      <c r="O10">
+        <v>0.134892924287106</v>
+      </c>
+      <c r="P10">
+        <v>0.119281343428103</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0.11115761132985</v>
+      </c>
+      <c r="R10">
+        <v>0.105797815866522</v>
+      </c>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W10">
+        <v>0.21824181727216399</v>
+      </c>
+      <c r="X10">
+        <v>0.13819509307938199</v>
+      </c>
+      <c r="Y10">
+        <v>0.12265284534524699</v>
+      </c>
+      <c r="Z10">
+        <v>0.113851553480023</v>
+      </c>
+      <c r="AA10">
+        <v>0.10801102149543799</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="7">
+        <v>25</v>
+      </c>
+      <c r="D11" s="7">
+        <v>50</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="7">
+        <v>25</v>
+      </c>
+      <c r="H11" s="7">
+        <v>50</v>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11">
+        <v>0.17812570039095299</v>
+      </c>
+      <c r="P11">
+        <v>0.113558616953602</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0.10190478091201501</v>
+      </c>
+      <c r="R11">
+        <v>9.5148095992727902E-2</v>
+      </c>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="X11">
+        <v>0.186462453019581</v>
+      </c>
+      <c r="Y11">
+        <v>0.119385102164556</v>
+      </c>
+      <c r="Z11">
+        <v>0.105910535661546</v>
+      </c>
+      <c r="AA11">
+        <v>9.9163019579977002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B12" s="7">
+        <v>25</v>
+      </c>
+      <c r="C12" s="7">
+        <v>3.9964272937986003E-2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>3.1477526738376102E-2</v>
+      </c>
+      <c r="F12" s="7">
+        <v>25</v>
+      </c>
+      <c r="G12" s="7">
+        <v>4.8729698091837803E-2</v>
+      </c>
+      <c r="H12" s="7">
+        <v>3.2711114878900001E-2</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12">
+        <v>0.16575920172594699</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0.110079090227115</v>
+      </c>
+      <c r="R12">
+        <v>9.9261837369159805E-2</v>
+      </c>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y12">
+        <v>0.16965227497551399</v>
+      </c>
+      <c r="Z12">
+        <v>0.110822298031634</v>
+      </c>
+      <c r="AA12">
+        <v>0.10099355778177101</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B13" s="7">
+        <v>50</v>
+      </c>
+      <c r="C13" s="7">
+        <v>3.2193963266873099E-2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2.4383688210624099E-2</v>
+      </c>
+      <c r="F13" s="7">
+        <v>50</v>
+      </c>
+      <c r="G13" s="7">
+        <v>3.87000311880486E-2</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2.7467541958555799E-2</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0.15400475864029201</v>
+      </c>
+      <c r="R13">
+        <v>0.101626722003876</v>
+      </c>
+      <c r="U13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z13">
+        <v>0.156989167372831</v>
+      </c>
+      <c r="AA13">
+        <v>0.103488498177887</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="L14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q14" s="4"/>
+      <c r="R14">
+        <v>0.14602386130141501</v>
+      </c>
+      <c r="U14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA14">
+        <v>0.14596821826827899</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="F16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="O16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="4"/>
+      <c r="X16" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="F17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="K17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="10"/>
+      <c r="M17" s="3">
+        <v>16781.947361342402</v>
+      </c>
+      <c r="N17">
+        <v>61282.992545336099</v>
+      </c>
+      <c r="O17">
+        <v>155274.25103352801</v>
+      </c>
+      <c r="P17">
+        <v>386399.20858347398</v>
+      </c>
+      <c r="Q17">
+        <v>1179309.68319832</v>
+      </c>
+      <c r="R17">
+        <v>2825713.8577118102</v>
+      </c>
+      <c r="T17" t="s">
+        <v>44</v>
+      </c>
+      <c r="V17" s="3">
+        <v>1937.910163389</v>
+      </c>
+      <c r="W17">
+        <v>4492.7825230702401</v>
+      </c>
+      <c r="X17" s="15">
+        <v>7298.5485445921504</v>
+      </c>
+      <c r="Y17">
+        <v>10483.208513518801</v>
+      </c>
+      <c r="Z17">
+        <v>14491.9700136386</v>
+      </c>
+      <c r="AA17">
+        <v>19719.016402622299</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="7">
+        <v>25</v>
+      </c>
+      <c r="D18" s="7">
+        <v>50</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="7">
+        <v>25</v>
+      </c>
+      <c r="H18" s="7">
+        <v>50</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B19" s="7">
+        <v>25</v>
+      </c>
+      <c r="C19" s="7">
+        <v>7.64353378539009E-2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>8.1577160185628994E-2</v>
+      </c>
+      <c r="F19" s="7">
+        <v>25</v>
+      </c>
+      <c r="G19" s="7">
+        <v>6.9824173187870403E-2</v>
+      </c>
+      <c r="H19" s="7">
+        <v>7.8519306172606801E-2</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0.73750514394871403</v>
+      </c>
+      <c r="N19">
+        <v>0.68681029999436805</v>
+      </c>
+      <c r="O19">
+        <v>0.65291281765027398</v>
+      </c>
+      <c r="P19">
+        <v>0.62532324912722403</v>
+      </c>
+      <c r="Q19">
+        <v>0.59902346751898605</v>
+      </c>
+      <c r="R19">
+        <v>0.572384628935939</v>
+      </c>
+      <c r="T19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="U19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="V19" s="3">
+        <v>0.73882580513793605</v>
+      </c>
+      <c r="W19">
+        <v>0.68754755597835404</v>
+      </c>
+      <c r="X19">
+        <v>0.65270289304972195</v>
+      </c>
+      <c r="Y19">
+        <v>0.62436480054337895</v>
+      </c>
+      <c r="Z19">
+        <v>0.59710370681004199</v>
+      </c>
+      <c r="AA19">
+        <v>0.57106539070801998</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B20" s="7">
+        <v>50</v>
+      </c>
+      <c r="C20" s="7">
+        <v>7.8928234268477795E-2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>7.1143176637996394E-2</v>
+      </c>
+      <c r="F20" s="7">
+        <v>50</v>
+      </c>
+      <c r="G20" s="7">
+        <v>7.0866114214717807E-2</v>
+      </c>
+      <c r="H20" s="7">
+        <v>6.6144859882688603E-2</v>
+      </c>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0.26249485605128597</v>
+      </c>
+      <c r="N20">
+        <v>0.17867049548095701</v>
+      </c>
+      <c r="O20">
+        <v>0.165599099659923</v>
+      </c>
+      <c r="P20">
+        <v>0.15578772986762801</v>
+      </c>
+      <c r="Q20">
+        <v>0.14836434020285499</v>
+      </c>
+      <c r="R20">
+        <v>0.141434785806268</v>
+      </c>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0.261174194862065</v>
+      </c>
+      <c r="W20">
+        <v>0.17630516130975399</v>
+      </c>
+      <c r="X20">
+        <v>0.163303884947894</v>
+      </c>
+      <c r="Y20">
+        <v>0.15346224518433499</v>
+      </c>
+      <c r="Z20">
+        <v>0.145121983740368</v>
+      </c>
+      <c r="AA20">
+        <v>0.13842348248671699</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N21">
+        <v>0.134519204524675</v>
+      </c>
+      <c r="O21">
+        <v>8.9012734147538394E-2</v>
+      </c>
+      <c r="P21">
+        <v>8.0993681401810999E-2</v>
+      </c>
+      <c r="Q21">
+        <v>7.5911574106525298E-2</v>
+      </c>
+      <c r="R21">
+        <v>7.2059458888585601E-2</v>
+      </c>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W21">
+        <v>0.136147282711893</v>
+      </c>
+      <c r="X21">
+        <v>8.9022088123792406E-2</v>
+      </c>
+      <c r="Y21">
+        <v>8.1588678064053094E-2</v>
+      </c>
+      <c r="Z21">
+        <v>7.6505744795946296E-2</v>
+      </c>
+      <c r="AA21">
+        <v>7.2530104509382895E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="F22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O22">
+        <v>9.2475348544959493E-2</v>
+      </c>
+      <c r="P22">
+        <v>5.9558169955114197E-2</v>
+      </c>
+      <c r="Q22">
+        <v>5.4102815249024397E-2</v>
+      </c>
+      <c r="R22">
+        <v>5.1045582332741E-2</v>
+      </c>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="X22">
+        <v>9.4971133878600206E-2</v>
+      </c>
+      <c r="Y22">
+        <v>6.0400426930904701E-2</v>
+      </c>
+      <c r="Z22">
+        <v>5.4828644760515501E-2</v>
+      </c>
+      <c r="AA22">
+        <v>5.1317158307596498E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="7">
+        <v>25</v>
+      </c>
+      <c r="D23" s="7">
+        <v>50</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="7">
+        <v>25</v>
+      </c>
+      <c r="H23" s="7">
+        <v>50</v>
+      </c>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P23">
+        <v>7.8337169683666996E-2</v>
+      </c>
+      <c r="Q23">
+        <v>4.9899816866105E-2</v>
+      </c>
+      <c r="R23">
+        <v>4.5553722836786298E-2</v>
+      </c>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y23">
+        <v>8.01838492773288E-2</v>
+      </c>
+      <c r="Z23">
+        <v>5.0146653821380102E-2</v>
+      </c>
+      <c r="AA23">
+        <v>4.5953439014483302E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B24" s="7">
+        <v>25</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.23740413984259101</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.21276238440564199</v>
+      </c>
+      <c r="F24" s="7">
+        <v>25</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.239482179316378</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.21241882930636799</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q24">
+        <v>7.2697986061761699E-2</v>
+      </c>
+      <c r="R24">
+        <v>4.4803158992900702E-2</v>
+      </c>
+      <c r="U24" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z24">
+        <v>7.62932660805445E-2</v>
+      </c>
+      <c r="AA24">
+        <v>4.7449867713252998E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B25" s="7">
+        <v>50</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.179654401987872</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.15533067622823399</v>
+      </c>
+      <c r="F25" s="7">
+        <v>50</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.18180770292040799</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0.160356133437172</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="R25">
+        <v>7.2718662206779097E-2</v>
+      </c>
+      <c r="U25" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA25">
+        <v>7.32605572718385E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B714EA-9BF9-4AE6-891D-770953E2ED59}">
+  <dimension ref="B1:AA31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="14" max="14" width="9.296875" customWidth="1"/>
+    <col min="15" max="15" width="10.296875" customWidth="1"/>
+    <col min="17" max="17" width="9.69921875" customWidth="1"/>
+    <col min="18" max="18" width="9.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="G1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="9"/>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="F4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="O4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7">
+        <v>50</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="7">
+        <v>25</v>
+      </c>
+      <c r="H5" s="7">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="3">
+        <v>164915.08486819599</v>
+      </c>
+      <c r="N5" s="11">
+        <v>487577.64485103003</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1188567.27338068</v>
+      </c>
+      <c r="P5">
+        <v>3177933.2479487602</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>8194994.26948353</v>
+      </c>
+      <c r="R5">
+        <v>20937732.980170202</v>
+      </c>
+      <c r="T5" t="s">
+        <v>44</v>
+      </c>
+      <c r="V5" s="4">
+        <v>786114.70196730399</v>
+      </c>
+      <c r="W5">
+        <v>2358426.5824394599</v>
+      </c>
+      <c r="X5">
+        <v>5089412.03496172</v>
+      </c>
+      <c r="Y5">
+        <v>10360140.619747199</v>
+      </c>
+      <c r="Z5">
+        <v>20842792.6494352</v>
+      </c>
+      <c r="AA5">
+        <v>64370554.747143202</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B6" s="7">
+        <v>25</v>
+      </c>
+      <c r="C6" s="7">
+        <v>5.9350428602219498E-3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>9.3610191940684002E-3</v>
+      </c>
+      <c r="F6" s="7">
+        <v>25</v>
+      </c>
+      <c r="G6" s="7">
+        <v>2.0946344951891E-3</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1.14068098758604E-2</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="S6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="4"/>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B7" s="7">
+        <v>50</v>
+      </c>
+      <c r="C7" s="7">
+        <v>9.6102136555733502E-3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>9.7450065147659509E-3</v>
+      </c>
+      <c r="F7" s="7">
+        <v>50</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1.0409250209266E-2</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1.04921136932419E-2</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.58086941960717997</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.44696437677692402</v>
+      </c>
+      <c r="O7">
+        <v>0.36059823588720302</v>
+      </c>
+      <c r="P7">
+        <v>0.296941963759</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0.246055089070146</v>
+      </c>
+      <c r="R7">
+        <v>0.20203110636444599</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0.57500711954089401</v>
+      </c>
+      <c r="W7">
+        <v>0.43703283814073102</v>
+      </c>
+      <c r="X7">
+        <v>0.34885386154715198</v>
+      </c>
+      <c r="Y7">
+        <v>0.28679326077362</v>
+      </c>
+      <c r="Z7">
+        <v>0.23609447599086</v>
+      </c>
+      <c r="AA7">
+        <v>0.19209538135721799</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.41913058034216899</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.224399846680476</v>
+      </c>
+      <c r="O8">
+        <v>0.18632642856264001</v>
+      </c>
+      <c r="P8">
+        <v>0.16197896474367501</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0.14607905477018901</v>
+      </c>
+      <c r="R8">
+        <v>0.13378605779955399</v>
+      </c>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="V8" s="4">
+        <v>0.42499288042692301</v>
+      </c>
+      <c r="W8">
+        <v>0.225062712502514</v>
+      </c>
+      <c r="X8">
+        <v>0.184347921376216</v>
+      </c>
+      <c r="Y8">
+        <v>0.158076533169629</v>
+      </c>
+      <c r="Z8">
+        <v>0.14181526271287501</v>
+      </c>
+      <c r="AA8">
+        <v>0.13062750615674901</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="F9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4">
+        <v>0.32863577665907701</v>
+      </c>
+      <c r="O9">
+        <v>0.188240501349585</v>
+      </c>
+      <c r="P9">
+        <v>0.15810160368153001</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0.13981818818594299</v>
+      </c>
+      <c r="R9">
+        <v>0.12634419709361799</v>
+      </c>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="V9" s="4"/>
+      <c r="W9">
+        <v>0.33790444964863098</v>
+      </c>
+      <c r="X9">
+        <v>0.19138256097145501</v>
+      </c>
+      <c r="Y9">
+        <v>0.15979412408128699</v>
+      </c>
+      <c r="Z9">
+        <v>0.14157953609243701</v>
+      </c>
+      <c r="AA9">
+        <v>0.13046737415207199</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="7">
+        <v>25</v>
+      </c>
+      <c r="D10" s="7">
+        <v>50</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="7">
+        <v>25</v>
+      </c>
+      <c r="H10" s="7">
+        <v>50</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10">
+        <v>0.26483483478849001</v>
+      </c>
+      <c r="P10">
+        <v>0.15392395698964301</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0.13051195468770399</v>
+      </c>
+      <c r="R10">
+        <v>0.116213864613327</v>
+      </c>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="X10">
+        <v>0.27541565672774898</v>
+      </c>
+      <c r="Y10">
+        <v>0.16189285915851001</v>
+      </c>
+      <c r="Z10">
+        <v>0.13677288661661599</v>
+      </c>
+      <c r="AA10">
+        <v>0.122165488276861</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B11" s="7">
+        <v>25</v>
+      </c>
+      <c r="C11" s="7">
+        <v>3.2142635220706497E-2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2.5213861510300702E-2</v>
+      </c>
+      <c r="F11" s="7">
+        <v>25</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.14097699171865699</v>
+      </c>
+      <c r="H11" s="7">
+        <v>3.0012756355278902E-2</v>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11">
+        <v>0.229053512791771</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0.13891048956148999</v>
+      </c>
+      <c r="R11">
+        <v>0.119146249088915</v>
+      </c>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y11">
+        <v>0.23344322500182499</v>
+      </c>
+      <c r="Z11">
+        <v>0.139857260919349</v>
+      </c>
+      <c r="AA11">
+        <v>0.119558849186155</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B12" s="7">
+        <v>50</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2.6259404845666301E-2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1.98733600360162E-2</v>
+      </c>
+      <c r="F12" s="7">
+        <v>50</v>
+      </c>
+      <c r="G12" s="7">
+        <v>2.7305482152806902E-2</v>
+      </c>
+      <c r="H12" s="7">
+        <v>2.0814292323567001E-2</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0.19862522843767</v>
+      </c>
+      <c r="R12">
+        <v>0.121898960384888</v>
+      </c>
+      <c r="U12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z12">
+        <v>0.203880583295899</v>
+      </c>
+      <c r="AA12">
+        <v>0.123747642802151</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="L13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="4"/>
+      <c r="R13">
+        <v>0.18057957570025801</v>
+      </c>
+      <c r="U13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA13">
+        <v>0.181337769176489</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="F15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="O15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="4"/>
+      <c r="X15" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="F16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="K16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="10"/>
+      <c r="M16" s="3">
+        <v>128605.588457661</v>
+      </c>
+      <c r="N16" s="4">
+        <v>236902.57891271001</v>
+      </c>
+      <c r="O16">
+        <v>764695.81540408498</v>
+      </c>
+      <c r="P16">
+        <v>1873312.5604924001</v>
+      </c>
+      <c r="Q16">
+        <v>2369236.59998025</v>
+      </c>
+      <c r="R16">
+        <v>3094105.0402377299</v>
+      </c>
+      <c r="T16" t="s">
+        <v>44</v>
+      </c>
+      <c r="U16" s="10"/>
+      <c r="V16" s="3">
+        <v>27527.827038170701</v>
+      </c>
+      <c r="W16">
+        <v>63890.838414705002</v>
+      </c>
+      <c r="X16">
+        <v>111583.88414189201</v>
+      </c>
+      <c r="Y16">
+        <v>169251.14552414001</v>
+      </c>
+      <c r="Z16">
+        <v>245179.389748874</v>
+      </c>
+      <c r="AA16">
+        <v>327641.15295736701</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="7">
+        <v>25</v>
+      </c>
+      <c r="D17" s="7">
+        <v>50</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="7">
+        <v>25</v>
+      </c>
+      <c r="H17" s="7">
+        <v>50</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="S17" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B18" s="7">
+        <v>25</v>
+      </c>
+      <c r="C18" s="7">
+        <v>5.3722665362930098E-2</v>
+      </c>
+      <c r="D18" s="7">
+        <v>6.3601897482136405E-2</v>
+      </c>
+      <c r="F18" s="7">
+        <v>25</v>
+      </c>
+      <c r="G18" s="7">
+        <v>3.4227148509080603E-2</v>
+      </c>
+      <c r="H18" s="7">
+        <v>5.3247895268300698E-2</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0.60895803759423295</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0.51075902753726499</v>
+      </c>
+      <c r="O18">
+        <v>0.45095636249943</v>
+      </c>
+      <c r="P18">
+        <v>0.411924141113442</v>
+      </c>
+      <c r="Q18">
+        <v>0.38156902804605602</v>
+      </c>
+      <c r="R18">
+        <v>0.35594434774863198</v>
+      </c>
+      <c r="T18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="U18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0.61034853759226704</v>
+      </c>
+      <c r="W18">
+        <v>0.51274093413842403</v>
+      </c>
+      <c r="X18">
+        <v>0.45275262385297399</v>
+      </c>
+      <c r="Y18">
+        <v>0.41296294806804301</v>
+      </c>
+      <c r="Z18">
+        <v>0.38166122011262499</v>
+      </c>
+      <c r="AA18">
+        <v>0.35569660781041801</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B19" s="7">
+        <v>50</v>
+      </c>
+      <c r="C19" s="7">
+        <v>6.7690820680489205E-2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>5.5808174195762103E-2</v>
+      </c>
+      <c r="F19" s="7">
+        <v>50</v>
+      </c>
+      <c r="G19" s="7">
+        <v>5.7849804498515803E-2</v>
+      </c>
+      <c r="H19" s="7">
+        <v>5.0530221449383003E-2</v>
+      </c>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0.391041962405768</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0.20169658716779901</v>
+      </c>
+      <c r="O19">
+        <v>0.17456660054970399</v>
+      </c>
+      <c r="P19">
+        <v>0.15468323509856199</v>
+      </c>
+      <c r="Q19">
+        <v>0.142095636431808</v>
+      </c>
+      <c r="R19">
+        <v>0.132135262106989</v>
+      </c>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="V19" s="3">
+        <v>0.38965146240772403</v>
+      </c>
+      <c r="W19">
+        <v>0.19785983390110101</v>
+      </c>
+      <c r="X19">
+        <v>0.171549796245793</v>
+      </c>
+      <c r="Y19">
+        <v>0.15252133298203999</v>
+      </c>
+      <c r="Z19">
+        <v>0.13952608578457201</v>
+      </c>
+      <c r="AA19">
+        <v>0.12995159847350399</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4">
+        <v>0.28754438529493598</v>
+      </c>
+      <c r="O20">
+        <v>0.16301039742901799</v>
+      </c>
+      <c r="P20">
+        <v>0.14294860817435001</v>
+      </c>
+      <c r="Q20">
+        <v>0.12879211510535599</v>
+      </c>
+      <c r="R20">
+        <v>0.118453260977799</v>
+      </c>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W20">
+        <v>0.28939923196373002</v>
+      </c>
+      <c r="X20">
+        <v>0.162379497328727</v>
+      </c>
+      <c r="Y20">
+        <v>0.14300423956397901</v>
+      </c>
+      <c r="Z20">
+        <v>0.12846132295919199</v>
+      </c>
+      <c r="AA20">
+        <v>0.118257566608411</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="F21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21">
+        <v>0.21146663953348499</v>
+      </c>
+      <c r="P21">
+        <v>0.12185492106541</v>
+      </c>
+      <c r="Q21">
+        <v>0.106844635676172</v>
+      </c>
+      <c r="R21">
+        <v>9.6012040330788403E-2</v>
+      </c>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="X21">
+        <v>0.213318082587236</v>
+      </c>
+      <c r="Y21">
+        <v>0.122160809044169</v>
+      </c>
+      <c r="Z21">
+        <v>0.107424067725874</v>
+      </c>
+      <c r="AA21">
+        <v>9.6305651771719195E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="7">
+        <v>25</v>
+      </c>
+      <c r="D22" s="7">
+        <v>50</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="7">
+        <v>25</v>
+      </c>
+      <c r="H22" s="7">
+        <v>50</v>
+      </c>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22">
+        <v>0.16858909454823501</v>
+      </c>
+      <c r="Q22">
+        <v>9.7341069726270005E-2</v>
+      </c>
+      <c r="R22">
+        <v>8.61072106932292E-2</v>
+      </c>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y22">
+        <v>0.169350670353239</v>
+      </c>
+      <c r="Z22">
+        <v>9.6356806794007405E-2</v>
+      </c>
+      <c r="AA22">
+        <v>8.5026333447958194E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B23" s="7">
+        <v>25</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.23963366341357101</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.18146955682923499</v>
+      </c>
+      <c r="F23" s="7">
+        <v>25</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.41839125357317603</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.17881677954752101</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q23">
+        <v>0.14335751503014299</v>
+      </c>
+      <c r="R23">
+        <v>8.2941567122361504E-2</v>
+      </c>
+      <c r="U23" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z23">
+        <v>0.14657049664337099</v>
+      </c>
+      <c r="AA23">
+        <v>8.4783291360046795E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B24" s="7">
+        <v>50</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.21147791060798199</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.148615504267468</v>
+      </c>
+      <c r="F24" s="7">
+        <v>50</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.2252971434271</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.14893118881032999</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="R24">
+        <v>0.12840631110589201</v>
+      </c>
+      <c r="U24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA24">
+        <v>0.129978950569058</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="K30" s="10"/>
+      <c r="T30" s="10"/>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="K31" s="10"/>
+      <c r="T31" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C68A4D-6105-4F91-AF2E-CC79968D7ED6}">
+  <dimension ref="B1:X31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="14" max="14" width="9.69921875" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="G1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="9"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="F4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="O4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7">
+        <v>50</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="7">
+        <v>25</v>
+      </c>
+      <c r="H5" s="7">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="4">
+        <v>17557.167171880399</v>
+      </c>
+      <c r="N5" s="11">
+        <v>60622.495540566502</v>
+      </c>
+      <c r="O5" s="1">
+        <v>158547.34231516</v>
+      </c>
+      <c r="P5">
+        <v>356422.482876989</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>774033.76032690704</v>
+      </c>
+      <c r="R5">
+        <v>1899774.3359147201</v>
+      </c>
+      <c r="T5" t="s">
+        <v>44</v>
+      </c>
+      <c r="V5" s="4"/>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B6" s="7">
+        <v>25</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1.0600052240974701E-2</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="F6" s="7">
+        <v>25</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1.23734498385862E-2</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="J6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="S6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="4"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B7" s="7">
+        <v>50</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="F7" s="7">
+        <v>50</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="K7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0.69431635675585401</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.59353259606101005</v>
+      </c>
+      <c r="O7">
+        <v>0.51420926627030605</v>
+      </c>
+      <c r="P7">
+        <v>0.44527392554113099</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0.380802189966433</v>
+      </c>
+      <c r="R7">
+        <v>0.31779148085570802</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="V7" s="4"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0.30568364324414599</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.19718611110279999</v>
+      </c>
+      <c r="O8">
+        <v>0.172394634622173</v>
+      </c>
+      <c r="P8">
+        <v>0.15561512679592299</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0.14307023373022501</v>
+      </c>
+      <c r="R8">
+        <v>0.13397126150725</v>
+      </c>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="V8" s="4"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="F9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4">
+        <v>0.20928129287613001</v>
+      </c>
+      <c r="O9">
+        <v>0.134222884615149</v>
+      </c>
+      <c r="P9">
+        <v>0.118985373760707</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0.111306297880824</v>
+      </c>
+      <c r="R9">
+        <v>0.106399362907013</v>
+      </c>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="V9" s="4"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="7">
+        <v>25</v>
+      </c>
+      <c r="D10" s="7">
+        <v>50</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="7">
+        <v>25</v>
+      </c>
+      <c r="H10" s="7">
+        <v>50</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10">
+        <v>0.17917321485559301</v>
+      </c>
+      <c r="P10">
+        <v>0.11478129724920599</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0.102855431326642</v>
+      </c>
+      <c r="R10">
+        <v>9.5829496809163306E-2</v>
+      </c>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B11" s="7">
+        <v>25</v>
+      </c>
+      <c r="C11" s="7">
+        <v>3.9244563947654798E-2</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="F11" s="7">
+        <v>25</v>
+      </c>
+      <c r="G11" s="7">
+        <v>4.6451390256832398E-2</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11">
+        <v>0.165344278038103</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0.10877024619303099</v>
+      </c>
+      <c r="R11">
+        <v>9.7619644804852398E-2</v>
+      </c>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B12" s="7">
+        <v>50</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="F12" s="7">
+        <v>50</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="L12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0.153195605517778</v>
+      </c>
+      <c r="R12">
+        <v>0.101555985967587</v>
+      </c>
+      <c r="U12" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="L13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="4"/>
+      <c r="R13">
+        <v>0.146832777285021</v>
+      </c>
+      <c r="U13" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="F15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="O15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="4"/>
+      <c r="X15" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="F16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="K16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="10"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="T16" t="s">
+        <v>44</v>
+      </c>
+      <c r="U16" s="10"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="7">
+        <v>25</v>
+      </c>
+      <c r="D17" s="7">
+        <v>50</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="7">
+        <v>25</v>
+      </c>
+      <c r="H17" s="7">
+        <v>50</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="S17" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B18" s="7">
+        <v>25</v>
+      </c>
+      <c r="C18" s="7">
+        <v>7.4041730214676499E-2</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="F18" s="7">
+        <v>25</v>
+      </c>
+      <c r="G18" s="7">
+        <v>7.1470116917839097E-2</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="K18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="T18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="U18" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B19" s="7">
+        <v>50</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="F19" s="7">
+        <v>50</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="F21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="7">
+        <v>25</v>
+      </c>
+      <c r="D22" s="7">
+        <v>50</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="7">
+        <v>25</v>
+      </c>
+      <c r="H22" s="7">
+        <v>50</v>
+      </c>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B23" s="7">
+        <v>25</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.236643211849001</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="F23" s="7">
+        <v>25</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.23882638182337501</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="L23" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U23" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B24" s="7">
+        <v>50</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="F24" s="7">
+        <v>50</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="L24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="U24" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="K30" s="10"/>
+      <c r="T30" s="10"/>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="K31" s="10"/>
+      <c r="T31" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370CE195-D5E9-415C-9BC6-2CFF4B1A6917}">
+  <dimension ref="B1:X31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AA31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="G1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="9"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="F4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="O4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7">
+        <v>50</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="7">
+        <v>25</v>
+      </c>
+      <c r="H5" s="7">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="1"/>
+      <c r="Q5" s="4"/>
+      <c r="T5" t="s">
+        <v>44</v>
+      </c>
+      <c r="V5" s="4"/>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B6" s="7">
+        <v>25</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="F6" s="7">
+        <v>25</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="J6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="S6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="4"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B7" s="7">
+        <v>50</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="F7" s="7">
+        <v>50</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="K7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="T7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="V7" s="4"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="V8" s="4"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="F9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="V9" s="4"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="7">
+        <v>25</v>
+      </c>
+      <c r="D10" s="7">
+        <v>50</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="7">
+        <v>25</v>
+      </c>
+      <c r="H10" s="7">
+        <v>50</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B11" s="7">
+        <v>25</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="F11" s="7">
+        <v>25</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" s="4"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B12" s="7">
+        <v>50</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="F12" s="7">
+        <v>50</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="L12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="U12" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="L13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="4"/>
+      <c r="U13" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="F15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="O15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="F16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="K16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="10"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="S16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="X16" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="7">
+        <v>25</v>
+      </c>
+      <c r="D17" s="7">
+        <v>50</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="7">
+        <v>25</v>
+      </c>
+      <c r="H17" s="7">
+        <v>50</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="T17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="U17" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B18" s="7">
+        <v>25</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="F18" s="7">
+        <v>25</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="K18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B19" s="7">
+        <v>50</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="F19" s="7">
+        <v>50</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="F21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="7">
+        <v>25</v>
+      </c>
+      <c r="D22" s="7">
+        <v>50</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="7">
+        <v>25</v>
+      </c>
+      <c r="H22" s="7">
+        <v>50</v>
+      </c>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U22" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B23" s="7">
+        <v>25</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="F23" s="7">
+        <v>25</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="L23" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U23" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B24" s="7">
+        <v>50</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="F24" s="7">
+        <v>50</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="L24" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="K30" s="10"/>
+      <c r="T30" s="10"/>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="K31" s="10"/>
+      <c r="T31" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MC_code/MC_score_weighting.xlsx
+++ b/MC_code/MC_score_weighting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Dynamic-Linear-Models-for-Heterogenous-Panels\MC_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5B0926-DD61-404E-B7AD-9BCD4C08175E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FF5D5D-B5B0-4076-AF5A-E2646EAB9F84}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="5" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="工作表3" sheetId="7" r:id="rId6"/>
     <sheet name="工作表4" sheetId="8" r:id="rId7"/>
     <sheet name="工作表5" sheetId="9" r:id="rId8"/>
+    <sheet name="工作表6" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="48">
   <si>
     <t>fvl2</t>
   </si>
@@ -194,12 +195,16 @@
     <t>correlated factor loading</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>without_restriation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +245,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -279,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -296,6 +308,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -3906,7 +3919,7 @@
   <dimension ref="B1:AA25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -5827,7 +5840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C68A4D-6105-4F91-AF2E-CC79968D7ED6}">
   <dimension ref="B1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
@@ -6474,7 +6487,7 @@
   <dimension ref="B1:X31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AA31"/>
+      <selection sqref="A1:Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -7007,4 +7020,557 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A97BFE1-79A3-41C2-862C-FD626A36AC23}">
+  <dimension ref="B1:Z29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z12" sqref="Z12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="9"/>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="F4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="O4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7">
+        <v>50</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="7">
+        <v>25</v>
+      </c>
+      <c r="H5" s="7">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="1"/>
+      <c r="Q5" s="4"/>
+      <c r="T5" t="s">
+        <v>44</v>
+      </c>
+      <c r="V5" s="11"/>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B6" s="7">
+        <v>25</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="F6" s="7">
+        <v>25</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="J6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="S6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="4"/>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B7" s="7">
+        <v>50</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="F7" s="7">
+        <v>50</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="K7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="T7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="V7" s="4"/>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="V8" s="4"/>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="F9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="V9" s="4"/>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="7">
+        <v>25</v>
+      </c>
+      <c r="D10" s="7">
+        <v>50</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="7">
+        <v>25</v>
+      </c>
+      <c r="H10" s="7">
+        <v>50</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B11" s="7">
+        <v>25</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="F11" s="7">
+        <v>25</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" s="4"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B12" s="7">
+        <v>50</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="F12" s="7">
+        <v>50</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="L12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="U12" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="L13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="4"/>
+      <c r="U13" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="F15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="O15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="4"/>
+      <c r="X15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z15" s="4"/>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="F16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="K16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="10"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="T16" t="s">
+        <v>44</v>
+      </c>
+      <c r="U16" s="10"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="4"/>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="7">
+        <v>25</v>
+      </c>
+      <c r="D17" s="7">
+        <v>50</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="7">
+        <v>25</v>
+      </c>
+      <c r="H17" s="7">
+        <v>50</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="S17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B18" s="7">
+        <v>25</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="F18" s="7">
+        <v>25</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="K18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="T18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="U18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="V18" s="3"/>
+      <c r="W18" s="4"/>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B19" s="7">
+        <v>50</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="F19" s="7">
+        <v>50</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="V19" s="3"/>
+      <c r="W19" s="4"/>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="F21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="7">
+        <v>25</v>
+      </c>
+      <c r="D22" s="7">
+        <v>50</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="7">
+        <v>25</v>
+      </c>
+      <c r="H22" s="7">
+        <v>50</v>
+      </c>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B23" s="7">
+        <v>25</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="F23" s="7">
+        <v>25</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="L23" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U23" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B24" s="7">
+        <v>50</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="F24" s="7">
+        <v>50</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="L24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="U24" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/MC_code/MC_score_weighting.xlsx
+++ b/MC_code/MC_score_weighting.xlsx
@@ -8,20 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Dynamic-Linear-Models-for-Heterogenous-Panels\MC_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FF5D5D-B5B0-4076-AF5A-E2646EAB9F84}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52D93BB-1A33-451F-8BCD-AD70702F7C5C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="工作表1" sheetId="4" r:id="rId4"/>
-    <sheet name="工作表2" sheetId="6" r:id="rId5"/>
-    <sheet name="工作表3" sheetId="7" r:id="rId6"/>
-    <sheet name="工作表4" sheetId="8" r:id="rId7"/>
-    <sheet name="工作表5" sheetId="9" r:id="rId8"/>
-    <sheet name="工作表6" sheetId="10" r:id="rId9"/>
+    <sheet name="without_fator_phi_0.2" sheetId="5" r:id="rId1"/>
+    <sheet name="without_fator_phi_0.5" sheetId="1" r:id="rId2"/>
+    <sheet name="without_fator_phi_0.8" sheetId="2" r:id="rId3"/>
+    <sheet name="factor_phi_0.5_restriction" sheetId="6" r:id="rId4"/>
+    <sheet name="factor_phi_0.8_restriction" sheetId="7" r:id="rId5"/>
+    <sheet name="factor_phi_0.5_No_restriction" sheetId="8" r:id="rId6"/>
+    <sheet name="factor_phi_0.8_No_restriction" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,19 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="48">
-  <si>
-    <t>fvl2</t>
-  </si>
-  <si>
-    <t>fvl3</t>
-  </si>
-  <si>
-    <t>fvl4</t>
-  </si>
-  <si>
-    <t>fvl5</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="38">
   <si>
     <t>T,N</t>
   </si>
@@ -54,9 +40,6 @@
   </si>
   <si>
     <t>ini_iv</t>
-  </si>
-  <si>
-    <t>rmse</t>
   </si>
   <si>
     <t>beta_3</t>
@@ -83,21 +66,6 @@
     <t>T_50, N_50</t>
   </si>
   <si>
-    <t>X_i</t>
-  </si>
-  <si>
-    <t>X_i,-1</t>
-  </si>
-  <si>
-    <t>X_i,-2</t>
-  </si>
-  <si>
-    <t>X_i,-3</t>
-  </si>
-  <si>
-    <t>X_i,-4</t>
-  </si>
-  <si>
     <t>rep_500</t>
   </si>
   <si>
@@ -107,14 +75,7 @@
     <t>bias_beta</t>
   </si>
   <si>
-    <t>X_i,-5</t>
-  </si>
-  <si>
     <t>phi_0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x_ar1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -196,7 +157,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>without_restriation</t>
+    <t>positive_ weight_matrix [0,1]</t>
+  </si>
+  <si>
+    <t>positive_ weight_matrix [0,1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> No_restriction_weight_matrix [-1,1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -204,7 +172,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,13 +213,6 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -291,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -308,7 +269,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -592,7 +552,7 @@
   <dimension ref="B1:AB41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:Z27"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -613,13 +573,13 @@
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.3">
       <c r="I1" s="9" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
@@ -628,35 +588,35 @@
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="F4" s="8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="O4" s="9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X4" s="9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="F5" s="8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="K5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="M5" s="1">
         <v>2.8886981686796199E-5</v>
@@ -672,7 +632,7 @@
       </c>
       <c r="Q5" s="4"/>
       <c r="T5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="V5" s="1">
         <v>2.5443180065933901E-5</v>
@@ -689,7 +649,7 @@
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6" s="7">
         <v>25</v>
@@ -698,7 +658,7 @@
         <v>50</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G6" s="7">
         <v>25</v>
@@ -707,10 +667,10 @@
         <v>50</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.3">
@@ -733,10 +693,10 @@
         <v>6.2480785394969395E-4</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M7">
         <v>0.95411218679572996</v>
@@ -752,10 +712,10 @@
       </c>
       <c r="Q7" s="4"/>
       <c r="T7" s="10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="V7">
         <v>0.95378776101556195</v>
@@ -792,7 +752,7 @@
       </c>
       <c r="K8" s="10"/>
       <c r="L8" s="10" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M8">
         <v>4.5887813204270003E-2</v>
@@ -809,7 +769,7 @@
       <c r="Q8" s="4"/>
       <c r="T8" s="10"/>
       <c r="U8" s="10" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="V8">
         <v>4.6212238984437402E-2</v>
@@ -834,7 +794,7 @@
       <c r="H9" s="7"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N9">
         <v>1.01435146673239E-2</v>
@@ -848,7 +808,7 @@
       <c r="Q9" s="4"/>
       <c r="T9" s="10"/>
       <c r="U9" s="10" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="W9">
         <v>1.05145572294758E-2</v>
@@ -863,18 +823,18 @@
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="F10" s="8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="O10">
         <v>8.8050634810249908E-3</v>
@@ -885,7 +845,7 @@
       <c r="Q10" s="4"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="X10">
         <v>9.1016834158790007E-3</v>
@@ -897,7 +857,7 @@
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C11" s="7">
         <v>25</v>
@@ -906,7 +866,7 @@
         <v>50</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G11" s="7">
         <v>25</v>
@@ -916,7 +876,7 @@
       </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="P11" s="3">
         <v>7.8607818932095192E-3</v>
@@ -924,7 +884,7 @@
       <c r="Q11" s="4"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="Y11" s="3">
         <v>7.9170055958373599E-3</v>
@@ -996,26 +956,26 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="O15" s="9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Q15" s="4"/>
       <c r="X15" s="9" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="F16" s="8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="K16" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="11">
@@ -1031,7 +991,7 @@
         <v>-4.3132968816526203E-5</v>
       </c>
       <c r="T16" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="V16" s="11">
         <v>3.7083713950527798E-5</v>
@@ -1048,25 +1008,25 @@
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="F17" s="8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="J17" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="S17" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C18" s="7">
         <v>25</v>
@@ -1075,7 +1035,7 @@
         <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G18" s="7">
         <v>25</v>
@@ -1084,10 +1044,10 @@
         <v>50</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M18" s="4">
         <v>0.94258712257937405</v>
@@ -1102,10 +1062,10 @@
         <v>0.93250233907901003</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="V18" s="4">
         <v>0.94302420048177205</v>
@@ -1141,7 +1101,7 @@
       </c>
       <c r="K19" s="10"/>
       <c r="L19" s="10" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M19" s="4">
         <v>5.7412877420625799E-2</v>
@@ -1157,7 +1117,7 @@
       </c>
       <c r="T19" s="10"/>
       <c r="U19" s="10" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="V19" s="4">
         <v>5.6975799518227802E-2</v>
@@ -1193,7 +1153,7 @@
       </c>
       <c r="K20" s="10"/>
       <c r="L20" s="10" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N20">
         <v>1.3339412824582101E-2</v>
@@ -1206,7 +1166,7 @@
       </c>
       <c r="T20" s="10"/>
       <c r="U20" s="10" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="W20">
         <v>1.3424357901819801E-2</v>
@@ -1227,7 +1187,7 @@
       <c r="H21" s="7"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="O21">
         <v>1.10771849128159E-2</v>
@@ -1237,7 +1197,7 @@
       </c>
       <c r="T21" s="10"/>
       <c r="U21" s="10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="X21">
         <v>1.09296256346755E-2</v>
@@ -1248,25 +1208,25 @@
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="F22" s="8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="P22" s="3">
         <v>9.5457733281449492E-3</v>
       </c>
       <c r="T22" s="10"/>
       <c r="U22" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="Y22" s="3">
         <v>9.5611806564671695E-3</v>
@@ -1274,7 +1234,7 @@
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C23" s="7">
         <v>25</v>
@@ -1283,7 +1243,7 @@
         <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G23" s="7">
         <v>25</v>
@@ -1431,20 +1391,20 @@
   <dimension ref="B1:AI36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:Y25"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.3">
       <c r="I1" s="9" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
@@ -1453,12 +1413,12 @@
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="F4" s="8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -1466,26 +1426,26 @@
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="F5" s="8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="O5" s="9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X5" s="9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Z5" s="4"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6" s="7">
         <v>25</v>
@@ -1494,7 +1454,7 @@
         <v>50</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G6" s="7">
         <v>25</v>
@@ -1503,7 +1463,7 @@
         <v>50</v>
       </c>
       <c r="K6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="M6" s="1">
         <v>8.2994617756007995E-4</v>
@@ -1519,7 +1479,7 @@
       </c>
       <c r="Q6" s="4"/>
       <c r="T6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="V6">
         <v>8.3025726266712995E-4</v>
@@ -1555,10 +1515,10 @@
         <v>9.9862630443947609E-4</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.3">
@@ -1581,10 +1541,10 @@
         <v>4.3841097565633402E-4</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M8">
         <v>0.84907517232310303</v>
@@ -1600,10 +1560,10 @@
       </c>
       <c r="Q8" s="4"/>
       <c r="T8" s="10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="V8">
         <v>0.84902079471501102</v>
@@ -1627,7 +1587,7 @@
       <c r="H9" s="7"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M9">
         <v>0.15092482767689699</v>
@@ -1644,7 +1604,7 @@
       <c r="Q9" s="4"/>
       <c r="T9" s="10"/>
       <c r="U9" s="10" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="V9">
         <v>0.15097920528498901</v>
@@ -1661,18 +1621,18 @@
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="F10" s="8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N10">
         <v>1.07407954489845E-2</v>
@@ -1686,7 +1646,7 @@
       <c r="Q10" s="4"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="W10">
         <v>1.0808605946844199E-2</v>
@@ -1700,7 +1660,7 @@
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C11" s="7">
         <v>25</v>
@@ -1709,7 +1669,7 @@
         <v>50</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G11" s="7">
         <v>25</v>
@@ -1719,7 +1679,7 @@
       </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="O11">
         <v>6.4004849617453801E-3</v>
@@ -1730,7 +1690,7 @@
       <c r="Q11" s="4"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="X11">
         <v>6.4035892957715196E-3</v>
@@ -1760,7 +1720,7 @@
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="P12" s="3">
         <v>5.5762232617798798E-3</v>
@@ -1768,7 +1728,7 @@
       <c r="Q12" s="4"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="Y12" s="3">
         <v>5.3263845736633902E-3</v>
@@ -1819,36 +1779,36 @@
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="F16" s="8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="O16" s="9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Q16" s="4"/>
       <c r="X16" s="9" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="F17" s="8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="K17" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="3">
@@ -1864,7 +1824,7 @@
         <v>2.9853344021866802E-4</v>
       </c>
       <c r="T17" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="V17" s="2">
         <v>2.3108663377947999E-4</v>
@@ -1882,7 +1842,7 @@
     </row>
     <row r="18" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C18" s="7">
         <v>25</v>
@@ -1891,7 +1851,7 @@
         <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G18" s="7">
         <v>25</v>
@@ -1900,10 +1860,10 @@
         <v>50</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AI18" s="4"/>
     </row>
@@ -1927,10 +1887,10 @@
         <v>1.7796135305561101E-3</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M19" s="3">
         <v>0.83575101551750597</v>
@@ -1946,10 +1906,10 @@
       </c>
       <c r="Q19" s="4"/>
       <c r="T19" s="10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="V19" s="3">
         <v>0.83616592628823105</v>
@@ -1986,7 +1946,7 @@
       </c>
       <c r="K20" s="10"/>
       <c r="L20" s="10" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M20" s="3">
         <v>0.164248984482495</v>
@@ -2003,7 +1963,7 @@
       <c r="Q20" s="4"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="V20" s="3">
         <v>0.16383407371177</v>
@@ -2028,7 +1988,7 @@
       <c r="H21" s="7"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N21">
         <v>9.7296495682600397E-3</v>
@@ -2042,7 +2002,7 @@
       <c r="Q21" s="4"/>
       <c r="T21" s="10"/>
       <c r="U21" s="10" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="W21">
         <v>9.6671950617010106E-3</v>
@@ -2057,18 +2017,18 @@
     </row>
     <row r="22" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="F22" s="8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="O22">
         <v>6.3982822909645302E-3</v>
@@ -2079,7 +2039,7 @@
       <c r="Q22" s="4"/>
       <c r="T22" s="10"/>
       <c r="U22" s="10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="X22">
         <v>6.27587974308792E-3</v>
@@ -2091,7 +2051,7 @@
     </row>
     <row r="23" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C23" s="7">
         <v>25</v>
@@ -2100,7 +2060,7 @@
         <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G23" s="7">
         <v>25</v>
@@ -2110,7 +2070,7 @@
       </c>
       <c r="K23" s="10"/>
       <c r="L23" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="P23">
         <v>5.71980300322515E-3</v>
@@ -2118,7 +2078,7 @@
       <c r="Q23" s="4"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="Y23">
         <v>5.6874546079029196E-3</v>
@@ -2243,7 +2203,7 @@
   <dimension ref="B1:AH37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -2263,13 +2223,13 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="J1" s="9" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="2:34" x14ac:dyDescent="0.3">
@@ -2282,12 +2242,12 @@
     </row>
     <row r="4" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="F4" s="6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -2296,27 +2256,27 @@
     </row>
     <row r="5" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="F5" s="6" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="O5" s="9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X5" s="9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
     </row>
     <row r="6" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6" s="5">
         <v>25</v>
@@ -2325,7 +2285,7 @@
         <v>50</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G6" s="5">
         <v>25</v>
@@ -2334,7 +2294,7 @@
         <v>50</v>
       </c>
       <c r="K6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="M6" s="1">
         <v>-16.991161244800502</v>
@@ -2350,7 +2310,7 @@
       </c>
       <c r="Q6" s="4"/>
       <c r="T6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="V6">
         <v>-0.22694851086784601</v>
@@ -2387,14 +2347,14 @@
         <v>-1.6889748279282801E-2</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="S7" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
@@ -2423,10 +2383,10 @@
         <v>4.5997845199119398E-4</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M8">
         <v>0.68697224837859505</v>
@@ -2442,10 +2402,10 @@
       </c>
       <c r="Q8" s="4"/>
       <c r="T8" s="10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="V8">
         <v>0.686378065835343</v>
@@ -2471,7 +2431,7 @@
       <c r="H9" s="5"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M9">
         <v>0.313027751629052</v>
@@ -2488,7 +2448,7 @@
       <c r="Q9" s="4"/>
       <c r="T9" s="10"/>
       <c r="U9" s="10" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="V9">
         <v>0.31362193416462403</v>
@@ -2507,18 +2467,18 @@
     </row>
     <row r="10" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10">
@@ -2533,7 +2493,7 @@
       <c r="Q10" s="4"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="V10" s="4"/>
       <c r="W10">
@@ -2550,7 +2510,7 @@
     </row>
     <row r="11" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C11" s="5">
         <v>25</v>
@@ -2559,7 +2519,7 @@
         <v>50</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G11" s="5">
         <v>25</v>
@@ -2569,7 +2529,7 @@
       </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -2582,7 +2542,7 @@
       <c r="Q11" s="4"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
@@ -2614,7 +2574,7 @@
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -2625,7 +2585,7 @@
       <c r="Q12" s="4"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
@@ -2689,37 +2649,37 @@
     </row>
     <row r="16" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="F16" s="6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="O16" s="9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Q16" s="4"/>
       <c r="X16" s="9" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="AH16" s="4"/>
     </row>
     <row r="17" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="F17" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="K17" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="L17" s="10"/>
       <c r="M17">
@@ -2735,7 +2695,7 @@
         <v>-9.8113695778844594E-3</v>
       </c>
       <c r="T17" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="V17" s="1">
         <v>-8.4378625272419107E-3</v>
@@ -2753,7 +2713,7 @@
     </row>
     <row r="18" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C18" s="5">
         <v>25</v>
@@ -2762,7 +2722,7 @@
         <v>50</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G18" s="5">
         <v>25</v>
@@ -2771,14 +2731,14 @@
         <v>50</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="S18" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
@@ -2806,10 +2766,10 @@
         <v>-3.9480545700578198E-2</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M19">
         <v>0.67201315528255601</v>
@@ -2825,10 +2785,10 @@
       </c>
       <c r="Q19" s="4"/>
       <c r="T19" s="10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="V19">
         <v>0.67196856685539497</v>
@@ -2865,7 +2825,7 @@
       </c>
       <c r="K20" s="10"/>
       <c r="L20" s="10" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M20">
         <v>0.32798684471744399</v>
@@ -2882,7 +2842,7 @@
       <c r="Q20" s="4"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="V20">
         <v>0.32803143314460498</v>
@@ -2907,7 +2867,7 @@
       <c r="H21" s="5"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21">
@@ -2922,7 +2882,7 @@
       <c r="Q21" s="4"/>
       <c r="T21" s="10"/>
       <c r="U21" s="10" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="V21" s="4"/>
       <c r="W21">
@@ -2938,18 +2898,18 @@
     </row>
     <row r="22" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="F22" s="8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -2962,7 +2922,7 @@
       <c r="Q22" s="4"/>
       <c r="T22" s="10"/>
       <c r="U22" s="10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
@@ -2976,7 +2936,7 @@
     </row>
     <row r="23" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C23" s="5">
         <v>25</v>
@@ -2985,7 +2945,7 @@
         <v>50</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G23" s="5">
         <v>25</v>
@@ -2995,7 +2955,7 @@
       </c>
       <c r="K23" s="10"/>
       <c r="L23" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -3006,7 +2966,7 @@
       <c r="Q23" s="4"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
@@ -3187,739 +3147,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B365F34-0125-44E0-9637-C9A0AE4D0DDF}">
-  <dimension ref="A1:AA35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB347C27-138E-4008-A689-B4333822E80F}">
+  <dimension ref="B1:AA37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>25</v>
-      </c>
-      <c r="C4">
-        <v>50</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>25</v>
-      </c>
-      <c r="G4">
-        <v>50</v>
-      </c>
-      <c r="I4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4">
-        <v>25</v>
-      </c>
-      <c r="K4">
-        <v>50</v>
-      </c>
-      <c r="M4" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4">
-        <v>25</v>
-      </c>
-      <c r="O4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>25</v>
-      </c>
-      <c r="B5" s="2">
-        <v>3.8993595207348E-4</v>
-      </c>
-      <c r="C5">
-        <v>1.02721938572914E-4</v>
-      </c>
-      <c r="E5">
-        <v>25</v>
-      </c>
-      <c r="F5" s="1">
-        <v>6.2677254047394701E-4</v>
-      </c>
-      <c r="G5">
-        <v>1.84654322215604E-4</v>
-      </c>
-      <c r="I5">
-        <v>25</v>
-      </c>
-      <c r="J5">
-        <v>6.1711920736803698E-4</v>
-      </c>
-      <c r="K5">
-        <v>2.0694367067578901E-4</v>
-      </c>
-      <c r="M5">
-        <v>25</v>
-      </c>
-      <c r="N5">
-        <v>5.0508972216272796E-4</v>
-      </c>
-      <c r="O5">
-        <v>2.0370626736187201E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>50</v>
-      </c>
-      <c r="B6" s="3">
-        <v>3.8504865899030902E-4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.00426552304555E-4</v>
-      </c>
-      <c r="E6">
-        <v>50</v>
-      </c>
-      <c r="F6">
-        <v>6.1292009929675895E-4</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1.7918101429208999E-4</v>
-      </c>
-      <c r="I6">
-        <v>50</v>
-      </c>
-      <c r="J6">
-        <v>5.9512441157269697E-4</v>
-      </c>
-      <c r="K6" s="1">
-        <v>2.0015546006031001E-4</v>
-      </c>
-      <c r="M6">
-        <v>50</v>
-      </c>
-      <c r="N6">
-        <v>4.8064471469458402E-4</v>
-      </c>
-      <c r="O6">
-        <v>1.9690595531722399E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.72722879325545098</v>
-      </c>
-      <c r="G13">
-        <v>0.71504055497601404</v>
-      </c>
-      <c r="H13">
-        <v>0.71202704023326702</v>
-      </c>
-      <c r="I13">
-        <v>0.71055880152206896</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0.27277120674454902</v>
-      </c>
-      <c r="G14">
-        <v>0.23919174798173901</v>
-      </c>
-      <c r="H14">
-        <v>0.237370837601207</v>
-      </c>
-      <c r="I14">
-        <v>0.236118145322115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15">
-        <v>4.5767697042247001E-2</v>
-      </c>
-      <c r="H15">
-        <v>4.0512135583252402E-2</v>
-      </c>
-      <c r="I15">
-        <v>3.9711537390122301E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16">
-        <v>1.00899865822743E-2</v>
-      </c>
-      <c r="I16">
-        <v>9.0745626576275908E-3</v>
-      </c>
-      <c r="K16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="E17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17">
-        <v>4.5369531080667802E-3</v>
-      </c>
-      <c r="K17" t="s">
-        <v>9</v>
-      </c>
-      <c r="L17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" t="s">
-        <v>6</v>
-      </c>
-      <c r="U18" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19">
-        <v>0.727615882149523</v>
-      </c>
-      <c r="G19">
-        <v>0.71543738331928797</v>
-      </c>
-      <c r="H19">
-        <v>0.71257910278028902</v>
-      </c>
-      <c r="I19">
-        <v>0.71091264619338301</v>
-      </c>
-      <c r="K19" t="s">
-        <v>22</v>
-      </c>
-      <c r="O19" t="s">
-        <v>22</v>
-      </c>
-      <c r="U19" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="E20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20">
-        <v>0.272384117850477</v>
-      </c>
-      <c r="G20">
-        <v>0.23907867279895101</v>
-      </c>
-      <c r="H20">
-        <v>0.237121358587635</v>
-      </c>
-      <c r="I20">
-        <v>0.23585590310091401</v>
-      </c>
-      <c r="K20" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20">
-        <v>25</v>
-      </c>
-      <c r="M20">
-        <v>50</v>
-      </c>
-      <c r="O20" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20">
-        <v>25</v>
-      </c>
-      <c r="Q20">
-        <v>50</v>
-      </c>
-      <c r="U20" t="s">
-        <v>4</v>
-      </c>
-      <c r="V20">
-        <v>25</v>
-      </c>
-      <c r="W20">
-        <v>50</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z20">
-        <v>25</v>
-      </c>
-      <c r="AA20">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="E21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21">
-        <v>4.5483943881761198E-2</v>
-      </c>
-      <c r="H21">
-        <v>4.0428743148390699E-2</v>
-      </c>
-      <c r="I21">
-        <v>3.9717944356641097E-2</v>
-      </c>
-      <c r="K21">
-        <v>25</v>
-      </c>
-      <c r="L21">
-        <v>7.7515046670884101E-4</v>
-      </c>
-      <c r="M21" s="1">
-        <v>8.9839414323389404E-5</v>
-      </c>
-      <c r="O21">
-        <v>25</v>
-      </c>
-      <c r="P21">
-        <v>2.4487788521932998E-3</v>
-      </c>
-      <c r="Q21">
-        <v>6.64497712456802E-4</v>
-      </c>
-      <c r="U21">
-        <v>25</v>
-      </c>
-      <c r="V21">
-        <v>-1.13804511903126E-4</v>
-      </c>
-      <c r="W21">
-        <v>2.0306573207884399E-4</v>
-      </c>
-      <c r="Y21">
-        <v>25</v>
-      </c>
-      <c r="Z21">
-        <v>-1.59045234558075E-3</v>
-      </c>
-      <c r="AA21">
-        <v>-3.89985526430436E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="E22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22">
-        <v>9.8707954836849791E-3</v>
-      </c>
-      <c r="I22">
-        <v>9.0542096399142697E-3</v>
-      </c>
-      <c r="K22">
-        <v>50</v>
-      </c>
-      <c r="L22">
-        <v>-1.1596088113577901E-3</v>
-      </c>
-      <c r="M22">
-        <v>-5.5345077626872696E-4</v>
-      </c>
-      <c r="O22">
-        <v>50</v>
-      </c>
-      <c r="P22">
-        <v>5.0866256835302404E-4</v>
-      </c>
-      <c r="Q22">
-        <v>2.1240190939442199E-4</v>
-      </c>
-      <c r="U22">
-        <v>50</v>
-      </c>
-      <c r="V22">
-        <v>2.9363771061183801E-3</v>
-      </c>
-      <c r="W22">
-        <v>1.0890992324315001E-3</v>
-      </c>
-      <c r="Y22">
-        <v>50</v>
-      </c>
-      <c r="Z22">
-        <v>1.4129876929720501E-3</v>
-      </c>
-      <c r="AA22">
-        <v>3.5598029183381302E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="E23" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23">
-        <v>4.4592967091475599E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="K24" t="s">
-        <v>7</v>
-      </c>
-      <c r="O24" t="s">
-        <v>7</v>
-      </c>
-      <c r="U24" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25">
-        <v>0.71131887525802895</v>
-      </c>
-      <c r="G25">
-        <v>0.69809274784689102</v>
-      </c>
-      <c r="H25">
-        <v>0.69476236847426198</v>
-      </c>
-      <c r="I25">
-        <v>0.69209512723739097</v>
-      </c>
-      <c r="K25" t="s">
-        <v>4</v>
-      </c>
-      <c r="L25">
-        <v>25</v>
-      </c>
-      <c r="M25">
-        <v>50</v>
-      </c>
-      <c r="O25" t="s">
-        <v>4</v>
-      </c>
-      <c r="P25">
-        <v>25</v>
-      </c>
-      <c r="Q25">
-        <v>50</v>
-      </c>
-      <c r="U25" t="s">
-        <v>4</v>
-      </c>
-      <c r="V25">
-        <v>25</v>
-      </c>
-      <c r="W25">
-        <v>50</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z25">
-        <v>25</v>
-      </c>
-      <c r="AA25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="E26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26">
-        <v>0.288681124741972</v>
-      </c>
-      <c r="G26">
-        <v>0.24997495830324701</v>
-      </c>
-      <c r="H26">
-        <v>0.24780499288928301</v>
-      </c>
-      <c r="I26">
-        <v>0.24550288345792901</v>
-      </c>
-      <c r="K26">
-        <v>25</v>
-      </c>
-      <c r="L26">
-        <v>2.5534214641487901E-2</v>
-      </c>
-      <c r="M26">
-        <v>2.4163672529047601E-2</v>
-      </c>
-      <c r="O26">
-        <v>25</v>
-      </c>
-      <c r="P26">
-        <v>2.6107010119818301E-2</v>
-      </c>
-      <c r="Q26">
-        <v>2.44785887383565E-2</v>
-      </c>
-      <c r="U26">
-        <v>25</v>
-      </c>
-      <c r="V26">
-        <v>4.7559953134249898E-2</v>
-      </c>
-      <c r="W26">
-        <v>3.4893222130181603E-2</v>
-      </c>
-      <c r="Y26">
-        <v>25</v>
-      </c>
-      <c r="Z26">
-        <v>4.7848905078034201E-2</v>
-      </c>
-      <c r="AA26">
-        <v>3.4932376933034498E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="E27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27">
-        <v>5.1932293849862601E-2</v>
-      </c>
-      <c r="H27">
-        <v>4.5671707742077398E-2</v>
-      </c>
-      <c r="I27">
-        <v>4.4692046283987E-2</v>
-      </c>
-      <c r="K27">
-        <v>50</v>
-      </c>
-      <c r="L27">
-        <v>1.8949981552050299E-2</v>
-      </c>
-      <c r="M27">
-        <v>1.6607175271445E-2</v>
-      </c>
-      <c r="O27">
-        <v>50</v>
-      </c>
-      <c r="P27">
-        <v>1.9144736336741901E-2</v>
-      </c>
-      <c r="Q27">
-        <v>1.66926470000823E-2</v>
-      </c>
-      <c r="U27">
-        <v>50</v>
-      </c>
-      <c r="V27">
-        <v>3.2664161218744402E-2</v>
-      </c>
-      <c r="W27">
-        <v>2.41742657131182E-2</v>
-      </c>
-      <c r="Y27">
-        <v>50</v>
-      </c>
-      <c r="Z27">
-        <v>3.2540474433827501E-2</v>
-      </c>
-      <c r="AA27">
-        <v>2.4342789261361499E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="E28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28">
-        <v>1.1760930894378E-2</v>
-      </c>
-      <c r="I28">
-        <v>1.0752260560400901E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="E29" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29">
-        <v>6.9576824602917602E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="F30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="D31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31">
-        <v>0.71217744057392196</v>
-      </c>
-      <c r="G31">
-        <v>0.69910794301993795</v>
-      </c>
-      <c r="H31">
-        <v>0.69594080973908601</v>
-      </c>
-      <c r="I31">
-        <v>0.69312405571125402</v>
-      </c>
-    </row>
-    <row r="32" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="E32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32">
-        <v>0.28782255942607798</v>
-      </c>
-      <c r="G32">
-        <v>0.249512519056245</v>
-      </c>
-      <c r="H32">
-        <v>0.24691906713528899</v>
-      </c>
-      <c r="I32">
-        <v>0.24486361388146199</v>
-      </c>
-    </row>
-    <row r="33" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33">
-        <v>5.1379537923816901E-2</v>
-      </c>
-      <c r="H33">
-        <v>4.5524543603036302E-2</v>
-      </c>
-      <c r="I33">
-        <v>4.4252787735825701E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E34" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34">
-        <v>1.16155795225886E-2</v>
-      </c>
-      <c r="I34">
-        <v>1.0702360460992001E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E35" t="s">
-        <v>24</v>
-      </c>
-      <c r="I35">
-        <v>7.05718221046549E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB347C27-138E-4008-A689-B4333822E80F}">
-  <dimension ref="B1:AA25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="I33" sqref="I33:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -3932,59 +3164,62 @@
   <sheetData>
     <row r="1" spans="2:27" x14ac:dyDescent="0.3">
       <c r="G1" s="9" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="M1" s="9"/>
       <c r="N1" s="9" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="O1" s="9"/>
+      <c r="R1" s="9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="F4" s="8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="F5" s="8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="O5" s="9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X5" s="9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6" s="7">
         <v>25</v>
@@ -3993,7 +3228,7 @@
         <v>50</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G6" s="7">
         <v>25</v>
@@ -4002,7 +3237,7 @@
         <v>50</v>
       </c>
       <c r="K6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="M6" s="3">
         <v>25560.999339779599</v>
@@ -4023,7 +3258,7 @@
         <v>3017565.2225717399</v>
       </c>
       <c r="T6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="V6">
         <v>1987.5665820669501</v>
@@ -4052,7 +3287,7 @@
         <v>1.1303830418208901E-2</v>
       </c>
       <c r="D7" s="7">
-        <v>1.54241111057275E-2</v>
+        <v>1.3792649143704301E-2</v>
       </c>
       <c r="F7" s="7">
         <v>25</v>
@@ -4061,13 +3296,13 @@
         <v>1.3544761828131699E-2</v>
       </c>
       <c r="H7" s="7">
-        <v>1.6171475290782202E-2</v>
+        <v>1.74311521549795E-2</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:27" x14ac:dyDescent="0.3">
@@ -4075,7 +3310,7 @@
         <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>1.3792649143704301E-2</v>
+        <v>1.54241111057275E-2</v>
       </c>
       <c r="D8" s="7">
         <v>1.4802740955865999E-2</v>
@@ -4084,16 +3319,16 @@
         <v>50</v>
       </c>
       <c r="G8" s="7">
-        <v>1.74311521549795E-2</v>
+        <v>1.6171475290782202E-2</v>
       </c>
       <c r="H8" s="7">
         <v>1.6478210032198602E-2</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M8" s="3">
         <v>0.69300382929612603</v>
@@ -4114,10 +3349,10 @@
         <v>0.31809724621621099</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="V8" s="3">
         <v>0.68577142419344905</v>
@@ -4147,7 +3382,7 @@
       <c r="H9" s="7"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M9" s="3">
         <v>0.30699617070387403</v>
@@ -4169,7 +3404,7 @@
       </c>
       <c r="T9" s="10"/>
       <c r="U9" s="10" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="V9" s="3">
         <v>0.31422857581713898</v>
@@ -4192,18 +3427,18 @@
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="F10" s="8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N10">
         <v>0.21034368707919901</v>
@@ -4222,7 +3457,7 @@
       </c>
       <c r="T10" s="10"/>
       <c r="U10" s="10" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="W10">
         <v>0.21824181727216399</v>
@@ -4242,7 +3477,7 @@
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C11" s="7">
         <v>25</v>
@@ -4251,7 +3486,7 @@
         <v>50</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G11" s="7">
         <v>25</v>
@@ -4261,7 +3496,7 @@
       </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="O11">
         <v>0.17812570039095299</v>
@@ -4277,7 +3512,7 @@
       </c>
       <c r="T11" s="10"/>
       <c r="U11" s="10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="X11">
         <v>0.186462453019581</v>
@@ -4300,7 +3535,7 @@
         <v>3.9964272937986003E-2</v>
       </c>
       <c r="D12" s="7">
-        <v>3.1477526738376102E-2</v>
+        <v>3.2193963266873099E-2</v>
       </c>
       <c r="F12" s="7">
         <v>25</v>
@@ -4309,11 +3544,11 @@
         <v>4.8729698091837803E-2</v>
       </c>
       <c r="H12" s="7">
-        <v>3.2711114878900001E-2</v>
+        <v>3.87000311880486E-2</v>
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="P12">
         <v>0.16575920172594699</v>
@@ -4326,7 +3561,7 @@
       </c>
       <c r="T12" s="10"/>
       <c r="U12" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="Y12">
         <v>0.16965227497551399</v>
@@ -4343,7 +3578,7 @@
         <v>50</v>
       </c>
       <c r="C13" s="7">
-        <v>3.2193963266873099E-2</v>
+        <v>3.1477526738376102E-2</v>
       </c>
       <c r="D13" s="7">
         <v>2.4383688210624099E-2</v>
@@ -4352,13 +3587,13 @@
         <v>50</v>
       </c>
       <c r="G13" s="7">
-        <v>3.87000311880486E-2</v>
+        <v>3.2711114878900001E-2</v>
       </c>
       <c r="H13" s="7">
         <v>2.7467541958555799E-2</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="Q13" s="4">
         <v>0.15400475864029201</v>
@@ -4367,7 +3602,7 @@
         <v>0.101626722003876</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="Z13">
         <v>0.156989167372831</v>
@@ -4384,14 +3619,14 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="L14" s="10" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="Q14" s="4"/>
       <c r="R14">
         <v>0.14602386130141501</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="AA14">
         <v>0.14596821826827899</v>
@@ -4408,36 +3643,36 @@
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="F16" s="8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="O16" s="9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Q16" s="4"/>
       <c r="X16" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="F17" s="8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="K17" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="3">
@@ -4459,7 +3694,7 @@
         <v>2825713.8577118102</v>
       </c>
       <c r="T17" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="V17" s="3">
         <v>1937.910163389</v>
@@ -4482,7 +3717,7 @@
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C18" s="7">
         <v>25</v>
@@ -4491,7 +3726,7 @@
         <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G18" s="7">
         <v>25</v>
@@ -4500,10 +3735,10 @@
         <v>50</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
@@ -4516,7 +3751,7 @@
         <v>7.64353378539009E-2</v>
       </c>
       <c r="D19" s="7">
-        <v>8.1577160185628994E-2</v>
+        <v>7.8928234268477795E-2</v>
       </c>
       <c r="F19" s="7">
         <v>25</v>
@@ -4525,13 +3760,13 @@
         <v>6.9824173187870403E-2</v>
       </c>
       <c r="H19" s="7">
-        <v>7.8519306172606801E-2</v>
+        <v>7.0866114214717807E-2</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M19" s="3">
         <v>0.73750514394871403</v>
@@ -4552,10 +3787,10 @@
         <v>0.572384628935939</v>
       </c>
       <c r="T19" s="10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="V19" s="3">
         <v>0.73882580513793605</v>
@@ -4581,7 +3816,7 @@
         <v>50</v>
       </c>
       <c r="C20" s="7">
-        <v>7.8928234268477795E-2</v>
+        <v>8.1577160185628994E-2</v>
       </c>
       <c r="D20" s="7">
         <v>7.1143176637996394E-2</v>
@@ -4590,14 +3825,14 @@
         <v>50</v>
       </c>
       <c r="G20" s="7">
-        <v>7.0866114214717807E-2</v>
+        <v>7.8519306172606801E-2</v>
       </c>
       <c r="H20" s="7">
         <v>6.6144859882688603E-2</v>
       </c>
       <c r="K20" s="10"/>
       <c r="L20" s="10" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M20" s="3">
         <v>0.26249485605128597</v>
@@ -4619,7 +3854,7 @@
       </c>
       <c r="T20" s="10"/>
       <c r="U20" s="10" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="V20" s="3">
         <v>0.261174194862065</v>
@@ -4649,7 +3884,7 @@
       <c r="H21" s="7"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N21">
         <v>0.134519204524675</v>
@@ -4668,7 +3903,7 @@
       </c>
       <c r="T21" s="10"/>
       <c r="U21" s="10" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="W21">
         <v>0.136147282711893</v>
@@ -4688,18 +3923,18 @@
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="F22" s="8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="O22">
         <v>9.2475348544959493E-2</v>
@@ -4715,7 +3950,7 @@
       </c>
       <c r="T22" s="10"/>
       <c r="U22" s="10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="X22">
         <v>9.4971133878600206E-2</v>
@@ -4732,7 +3967,7 @@
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C23" s="7">
         <v>25</v>
@@ -4741,7 +3976,7 @@
         <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G23" s="7">
         <v>25</v>
@@ -4751,7 +3986,7 @@
       </c>
       <c r="K23" s="10"/>
       <c r="L23" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="P23">
         <v>7.8337169683666996E-2</v>
@@ -4764,7 +3999,7 @@
       </c>
       <c r="T23" s="10"/>
       <c r="U23" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="Y23">
         <v>8.01838492773288E-2</v>
@@ -4784,7 +4019,7 @@
         <v>0.23740413984259101</v>
       </c>
       <c r="D24" s="7">
-        <v>0.21276238440564199</v>
+        <v>0.179654401987872</v>
       </c>
       <c r="F24" s="7">
         <v>25</v>
@@ -4793,10 +4028,10 @@
         <v>0.239482179316378</v>
       </c>
       <c r="H24" s="7">
-        <v>0.21241882930636799</v>
+        <v>0.18180770292040799</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="Q24">
         <v>7.2697986061761699E-2</v>
@@ -4805,7 +4040,7 @@
         <v>4.4803158992900702E-2</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="Z24">
         <v>7.62932660805445E-2</v>
@@ -4819,7 +4054,7 @@
         <v>50</v>
       </c>
       <c r="C25" s="7">
-        <v>0.179654401987872</v>
+        <v>0.21276238440564199</v>
       </c>
       <c r="D25" s="7">
         <v>0.15533067622823399</v>
@@ -4828,23 +4063,100 @@
         <v>50</v>
       </c>
       <c r="G25" s="7">
-        <v>0.18180770292040799</v>
+        <v>0.21241882930636799</v>
       </c>
       <c r="H25" s="7">
         <v>0.160356133437172</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="R25">
         <v>7.2718662206779097E-2</v>
       </c>
       <c r="U25" s="10" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="AA25">
         <v>7.32605572718385E-2</v>
       </c>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4853,12 +4165,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B714EA-9BF9-4AE6-891D-770953E2ED59}">
   <dimension ref="B1:AA31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="G23" sqref="G23:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -4871,59 +4183,62 @@
   <sheetData>
     <row r="1" spans="2:27" x14ac:dyDescent="0.3">
       <c r="G1" s="9" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="M1" s="9"/>
       <c r="N1" s="9" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="O1" s="9"/>
+      <c r="R1" s="9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="F3" s="8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="F4" s="8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="O4" s="9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X4" s="9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C5" s="7">
         <v>25</v>
@@ -4932,7 +4247,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G5" s="7">
         <v>25</v>
@@ -4941,7 +4256,7 @@
         <v>50</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="M5" s="3">
         <v>164915.08486819599</v>
@@ -4962,7 +4277,7 @@
         <v>20937732.980170202</v>
       </c>
       <c r="T5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="V5" s="4">
         <v>786114.70196730399</v>
@@ -5003,12 +4318,12 @@
         <v>1.14068098758604E-2</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="S6" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="V6" s="4"/>
     </row>
@@ -5032,10 +4347,10 @@
         <v>1.04921136932419E-2</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M7" s="3">
         <v>0.58086941960717997</v>
@@ -5056,10 +4371,10 @@
         <v>0.20203110636444599</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="V7" s="4">
         <v>0.57500711954089401</v>
@@ -5089,7 +4404,7 @@
       <c r="H8" s="7"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M8" s="3">
         <v>0.41913058034216899</v>
@@ -5111,7 +4426,7 @@
       </c>
       <c r="T8" s="10"/>
       <c r="U8" s="10" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="V8" s="4">
         <v>0.42499288042692301</v>
@@ -5134,18 +4449,18 @@
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="F9" s="8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4">
@@ -5165,7 +4480,7 @@
       </c>
       <c r="T9" s="10"/>
       <c r="U9" s="10" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="V9" s="4"/>
       <c r="W9">
@@ -5186,7 +4501,7 @@
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C10" s="7">
         <v>25</v>
@@ -5195,7 +4510,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G10" s="7">
         <v>25</v>
@@ -5205,7 +4520,7 @@
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -5223,7 +4538,7 @@
       </c>
       <c r="T10" s="10"/>
       <c r="U10" s="10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="X10">
         <v>0.27541565672774898</v>
@@ -5259,7 +4574,7 @@
       </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="P11">
         <v>0.229053512791771</v>
@@ -5272,7 +4587,7 @@
       </c>
       <c r="T11" s="10"/>
       <c r="U11" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="Y11">
         <v>0.23344322500182499</v>
@@ -5304,7 +4619,7 @@
         <v>2.0814292323567001E-2</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="Q12" s="4">
         <v>0.19862522843767</v>
@@ -5313,7 +4628,7 @@
         <v>0.121898960384888</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="Z12">
         <v>0.203880583295899</v>
@@ -5330,14 +4645,14 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="L13" s="10" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="Q13" s="4"/>
       <c r="R13">
         <v>0.18057957570025801</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="AA13">
         <v>0.181337769176489</v>
@@ -5354,36 +4669,36 @@
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="F15" s="8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="O15" s="9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Q15" s="4"/>
       <c r="X15" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="F16" s="8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="K16" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="3">
@@ -5405,7 +4720,7 @@
         <v>3094105.0402377299</v>
       </c>
       <c r="T16" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="U16" s="10"/>
       <c r="V16" s="3">
@@ -5429,7 +4744,7 @@
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C17" s="7">
         <v>25</v>
@@ -5438,7 +4753,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G17" s="7">
         <v>25</v>
@@ -5447,12 +4762,12 @@
         <v>50</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="S17" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.3">
@@ -5475,10 +4790,10 @@
         <v>5.3247895268300698E-2</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M18" s="3">
         <v>0.60895803759423295</v>
@@ -5499,10 +4814,10 @@
         <v>0.35594434774863198</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="V18" s="3">
         <v>0.61034853759226704</v>
@@ -5544,7 +4859,7 @@
       </c>
       <c r="K19" s="10"/>
       <c r="L19" s="10" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M19" s="3">
         <v>0.391041962405768</v>
@@ -5566,7 +4881,7 @@
       </c>
       <c r="T19" s="10"/>
       <c r="U19" s="10" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="V19" s="3">
         <v>0.38965146240772403</v>
@@ -5596,7 +4911,7 @@
       <c r="H20" s="7"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4">
@@ -5616,7 +4931,7 @@
       </c>
       <c r="T20" s="10"/>
       <c r="U20" s="10" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="W20">
         <v>0.28939923196373002</v>
@@ -5636,18 +4951,18 @@
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="F21" s="8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -5665,7 +4980,7 @@
       </c>
       <c r="T21" s="10"/>
       <c r="U21" s="10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="X21">
         <v>0.213318082587236</v>
@@ -5682,7 +4997,7 @@
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C22" s="7">
         <v>25</v>
@@ -5691,7 +5006,7 @@
         <v>50</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G22" s="7">
         <v>25</v>
@@ -5701,7 +5016,7 @@
       </c>
       <c r="K22" s="10"/>
       <c r="L22" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="P22">
         <v>0.16858909454823501</v>
@@ -5714,7 +5029,7 @@
       </c>
       <c r="T22" s="10"/>
       <c r="U22" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="Y22">
         <v>0.169350670353239</v>
@@ -5746,7 +5061,7 @@
         <v>0.17881677954752101</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="Q23">
         <v>0.14335751503014299</v>
@@ -5755,7 +5070,7 @@
         <v>8.2941567122361504E-2</v>
       </c>
       <c r="U23" s="10" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="Z23">
         <v>0.14657049664337099</v>
@@ -5784,13 +5099,13 @@
         <v>0.14893118881032999</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="R24">
         <v>0.12840631110589201</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="AA24">
         <v>0.129978950569058</v>
@@ -5836,12 +5151,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C68A4D-6105-4F91-AF2E-CC79968D7ED6}">
-  <dimension ref="B1:X31"/>
+  <dimension ref="B1:AA31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+      <selection activeCell="G23" sqref="G23:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -5850,61 +5165,64 @@
     <col min="15" max="15" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:27" x14ac:dyDescent="0.3">
       <c r="G1" s="9" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="M1" s="9"/>
       <c r="N1" s="9" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="O1" s="9"/>
-    </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="Q1" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="F3" s="8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="F4" s="8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="O4" s="9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X4" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C5" s="7">
         <v>25</v>
@@ -5913,7 +5231,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G5" s="7">
         <v>25</v>
@@ -5922,100 +5240,146 @@
         <v>50</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" s="4">
-        <v>17557.167171880399</v>
+        <v>32</v>
+      </c>
+      <c r="M5" s="3">
+        <v>364431.62577485997</v>
       </c>
       <c r="N5" s="11">
-        <v>60622.495540566502</v>
+        <v>437197.18673554697</v>
       </c>
       <c r="O5" s="1">
-        <v>158547.34231516</v>
+        <v>592090.44387825194</v>
       </c>
       <c r="P5">
-        <v>356422.482876989</v>
+        <v>891910.58573204698</v>
       </c>
       <c r="Q5" s="4">
-        <v>774033.76032690704</v>
+        <v>1311293.6221942999</v>
       </c>
       <c r="R5">
-        <v>1899774.3359147201</v>
+        <v>3091220.70960702</v>
       </c>
       <c r="T5" t="s">
-        <v>44</v>
-      </c>
-      <c r="V5" s="4"/>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="V5" s="3">
+        <v>217507.55590817699</v>
+      </c>
+      <c r="W5">
+        <v>268931.63837221003</v>
+      </c>
+      <c r="X5">
+        <v>356946.90414822497</v>
+      </c>
+      <c r="Y5">
+        <v>556594.14959904598</v>
+      </c>
+      <c r="Z5">
+        <v>1281293.97103285</v>
+      </c>
+      <c r="AA5">
+        <v>2766154.42595872</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B6" s="7">
         <v>25</v>
       </c>
       <c r="C6" s="7">
-        <v>1.0600052240974701E-2</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>1.1003195344655299E-2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1.4343558500867999E-2</v>
+      </c>
       <c r="F6" s="7">
         <v>25</v>
       </c>
       <c r="G6" s="7">
-        <v>1.23734498385862E-2</v>
-      </c>
-      <c r="H6" s="7"/>
+        <v>1.3544761828131699E-2</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1.74311521549795E-2</v>
+      </c>
       <c r="J6" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="S6" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="V6" s="4"/>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B7" s="7">
         <v>50</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="C7" s="7">
+        <v>1.54048310491123E-2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1.5201711309161601E-2</v>
+      </c>
       <c r="F7" s="7">
         <v>50</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="G7" s="7">
+        <v>1.6171475290782202E-2</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1.6478210032198602E-2</v>
+      </c>
       <c r="K7" s="10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0.69431635675585401</v>
+        <v>15</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.74421697396706998</v>
       </c>
       <c r="N7" s="4">
-        <v>0.59353259606101005</v>
+        <v>0.69661730745286898</v>
       </c>
       <c r="O7">
-        <v>0.51420926627030605</v>
+        <v>0.66149346771264095</v>
       </c>
       <c r="P7">
-        <v>0.44527392554113099</v>
+        <v>0.62801297322944005</v>
       </c>
       <c r="Q7" s="4">
-        <v>0.380802189966433</v>
+        <v>0.58552467692046295</v>
       </c>
       <c r="R7">
-        <v>0.31779148085570802</v>
+        <v>0.53181583448413305</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="V7" s="4"/>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0.73817378763852803</v>
+      </c>
+      <c r="W7">
+        <v>0.68611678275214505</v>
+      </c>
+      <c r="X7">
+        <v>0.64447487709094697</v>
+      </c>
+      <c r="Y7">
+        <v>0.60622302389050498</v>
+      </c>
+      <c r="Z7">
+        <v>0.56275507053963802</v>
+      </c>
+      <c r="AA7">
+        <v>0.50982033829541695</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -6024,72 +5388,104 @@
       <c r="H8" s="7"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" s="4">
-        <v>0.30568364324414599</v>
+        <v>17</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.25578302603293002</v>
       </c>
       <c r="N8" s="4">
-        <v>0.19718611110279999</v>
+        <v>0.18004802695170399</v>
       </c>
       <c r="O8">
-        <v>0.172394634622173</v>
+        <v>0.172179456332784</v>
       </c>
       <c r="P8">
-        <v>0.15561512679592299</v>
+        <v>0.17050242475469499</v>
       </c>
       <c r="Q8" s="4">
-        <v>0.14307023373022501</v>
+        <v>0.17237489519504201</v>
       </c>
       <c r="R8">
-        <v>0.13397126150725</v>
+        <v>0.170942583961737</v>
       </c>
       <c r="T8" s="10"/>
       <c r="U8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="V8" s="4"/>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0.26182621236147202</v>
+      </c>
+      <c r="W8">
+        <v>0.183537860062923</v>
+      </c>
+      <c r="X8">
+        <v>0.17356346385670399</v>
+      </c>
+      <c r="Y8">
+        <v>0.16501638511320199</v>
+      </c>
+      <c r="Z8">
+        <v>0.16328654113674701</v>
+      </c>
+      <c r="AA8">
+        <v>0.16435740130417401</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="F9" s="8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4">
-        <v>0.20928129287613001</v>
+        <v>0.123334665594136</v>
       </c>
       <c r="O9">
-        <v>0.134222884615149</v>
+        <v>0.101153803567147</v>
       </c>
       <c r="P9">
-        <v>0.118985373760707</v>
+        <v>9.8444334219778107E-2</v>
       </c>
       <c r="Q9" s="4">
-        <v>0.111306297880824</v>
+        <v>9.2777709811485101E-2</v>
       </c>
       <c r="R9">
-        <v>0.106399362907013</v>
+        <v>9.5288320848258695E-2</v>
       </c>
       <c r="T9" s="10"/>
       <c r="U9" s="10" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="V9" s="4"/>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="W9">
+        <v>0.13034535718114501</v>
+      </c>
+      <c r="X9">
+        <v>0.104175674178851</v>
+      </c>
+      <c r="Y9">
+        <v>0.102755677541923</v>
+      </c>
+      <c r="Z9">
+        <v>9.4515348063491295E-2</v>
+      </c>
+      <c r="AA9">
+        <v>9.3602597497565596E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C10" s="7">
         <v>25</v>
@@ -6098,7 +5494,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G10" s="7">
         <v>25</v>
@@ -6108,85 +5504,124 @@
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10">
-        <v>0.17917321485559301</v>
+        <v>6.51732724104854E-2</v>
       </c>
       <c r="P10">
-        <v>0.11478129724920599</v>
+        <v>5.5522822014983403E-2</v>
       </c>
       <c r="Q10" s="4">
-        <v>0.102855431326642</v>
+        <v>5.9759877064738898E-2</v>
       </c>
       <c r="R10">
-        <v>9.5829496809163306E-2</v>
+        <v>6.16171088462645E-2</v>
       </c>
       <c r="T10" s="10"/>
       <c r="U10" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="X10">
+        <v>7.7785984884936807E-2</v>
+      </c>
+      <c r="Y10">
+        <v>7.29025165752651E-2</v>
+      </c>
+      <c r="Z10">
+        <v>7.7926386280381801E-2</v>
+      </c>
+      <c r="AA10">
+        <v>8.13880933634092E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B11" s="7">
         <v>25</v>
       </c>
       <c r="C11" s="7">
-        <v>3.9244563947654798E-2</v>
-      </c>
-      <c r="D11" s="7"/>
+        <v>4.0894778993574701E-2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3.3660459197800599E-2</v>
+      </c>
       <c r="F11" s="7">
         <v>25</v>
       </c>
       <c r="G11" s="7">
-        <v>4.6451390256832398E-2</v>
-      </c>
-      <c r="H11" s="7"/>
+        <v>4.8729698091837803E-2</v>
+      </c>
+      <c r="H11" s="7">
+        <v>3.87000311880486E-2</v>
+      </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="P11">
-        <v>0.165344278038103</v>
+        <v>4.7517445814730802E-2</v>
       </c>
       <c r="Q11" s="4">
-        <v>0.10877024619303099</v>
+        <v>3.8390613214269301E-2</v>
       </c>
       <c r="R11">
-        <v>9.7619644804852398E-2</v>
+        <v>4.6786367673583802E-2</v>
       </c>
       <c r="T11" s="10"/>
       <c r="U11" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="Y11">
+        <v>5.3102397050497803E-2</v>
+      </c>
+      <c r="Z11">
+        <v>4.91263919773305E-2</v>
+      </c>
+      <c r="AA11">
+        <v>5.7299491266153503E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B12" s="7">
         <v>50</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="C12" s="7">
+        <v>3.1542826704027499E-2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2.5746256417740698E-2</v>
+      </c>
       <c r="F12" s="7">
         <v>50</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="G12" s="7">
+        <v>3.2711114878900001E-2</v>
+      </c>
+      <c r="H12" s="7">
+        <v>2.7467541958555799E-2</v>
+      </c>
       <c r="L12" s="10" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="Q12" s="4">
-        <v>0.153195605517778</v>
+        <v>5.1172227927750898E-2</v>
       </c>
       <c r="R12">
-        <v>0.101555985967587</v>
+        <v>4.5598232181419597E-2</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="Z12">
+        <v>5.2390262122041099E-2</v>
+      </c>
+      <c r="AA12">
+        <v>5.2817818258225603E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -6194,17 +5629,20 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="L13" s="10" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="Q13" s="4"/>
       <c r="R13">
-        <v>0.146832777285021</v>
+        <v>4.7951552989729203E-2</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="AA13">
+        <v>4.0714260687297402E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -6213,50 +5651,84 @@
       <c r="H14" s="7"/>
       <c r="Q14" s="4"/>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="F15" s="8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="O15" s="9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Q15" s="4"/>
       <c r="X15" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="F16" s="8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="K16" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="L16" s="10"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
+      <c r="M16" s="3">
+        <v>-313.02406798034701</v>
+      </c>
+      <c r="N16" s="4">
+        <v>2470.1597506737398</v>
+      </c>
+      <c r="O16">
+        <v>5149.68548702525</v>
+      </c>
+      <c r="P16">
+        <v>7770.6008373335599</v>
+      </c>
+      <c r="Q16">
+        <v>10465.863386163801</v>
+      </c>
+      <c r="R16">
+        <v>13794.207045936701</v>
+      </c>
       <c r="T16" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="U16" s="10"/>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="V16">
+        <v>73566.393018224</v>
+      </c>
+      <c r="W16">
+        <v>76213.890646010303</v>
+      </c>
+      <c r="X16">
+        <v>78617.305090129797</v>
+      </c>
+      <c r="Y16">
+        <v>80942.3870821983</v>
+      </c>
+      <c r="Z16">
+        <v>83515.466528567704</v>
+      </c>
+      <c r="AA16">
+        <v>86455.066648954205</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C17" s="7">
         <v>25</v>
@@ -6265,7 +5737,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G17" s="7">
         <v>25</v>
@@ -6274,67 +5746,147 @@
         <v>50</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="S17" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B18" s="7">
         <v>25</v>
       </c>
       <c r="C18" s="7">
-        <v>7.4041730214676499E-2</v>
-      </c>
-      <c r="D18" s="7"/>
+        <v>7.4464741823797795E-2</v>
+      </c>
+      <c r="D18" s="7">
+        <v>7.6900391553526695E-2</v>
+      </c>
       <c r="F18" s="7">
         <v>25</v>
       </c>
       <c r="G18" s="7">
-        <v>7.1470116917839097E-2</v>
-      </c>
-      <c r="H18" s="7"/>
+        <v>6.9824173187870403E-2</v>
+      </c>
+      <c r="H18" s="7">
+        <v>7.0866114214717807E-2</v>
+      </c>
       <c r="K18" s="10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0.76572857772198799</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0.74183631150129103</v>
+      </c>
+      <c r="O18">
+        <v>0.73488562931906698</v>
+      </c>
+      <c r="P18">
+        <v>0.73152054897142404</v>
+      </c>
+      <c r="Q18">
+        <v>0.72715424143312002</v>
+      </c>
+      <c r="R18">
+        <v>0.720804659464238</v>
+      </c>
       <c r="T18" s="10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="V18">
+        <v>0.76733272119959395</v>
+      </c>
+      <c r="W18">
+        <v>0.74381048178874798</v>
+      </c>
+      <c r="X18">
+        <v>0.73662442392081195</v>
+      </c>
+      <c r="Y18">
+        <v>0.73296765447387702</v>
+      </c>
+      <c r="Z18">
+        <v>0.72797900456709796</v>
+      </c>
+      <c r="AA18">
+        <v>0.72189378074261801</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B19" s="7">
         <v>50</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="C19" s="7">
+        <v>8.1365083561453694E-2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>6.9170017614492305E-2</v>
+      </c>
       <c r="F19" s="7">
         <v>50</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="G19" s="7">
+        <v>7.8519306172606801E-2</v>
+      </c>
+      <c r="H19" s="7">
+        <v>6.6144859882688603E-2</v>
+      </c>
       <c r="K19" s="10"/>
       <c r="L19" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0.23427142227801201</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0.179300728516844</v>
+      </c>
+      <c r="O19">
+        <v>0.17840201714572801</v>
+      </c>
+      <c r="P19">
+        <v>0.17984242465053801</v>
+      </c>
+      <c r="Q19">
+        <v>0.18111204785524701</v>
+      </c>
+      <c r="R19">
+        <v>0.18269865885547901</v>
+      </c>
       <c r="T19" s="10"/>
       <c r="U19" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="V19">
+        <v>0.232667278800407</v>
+      </c>
+      <c r="W19">
+        <v>0.17481851336236801</v>
+      </c>
+      <c r="X19">
+        <v>0.17434089944612899</v>
+      </c>
+      <c r="Y19">
+        <v>0.17639043100523299</v>
+      </c>
+      <c r="Z19">
+        <v>0.178130624398396</v>
+      </c>
+      <c r="AA19">
+        <v>0.179893739300311</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -6343,40 +5895,93 @@
       <c r="H20" s="7"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
+      <c r="N20" s="4">
+        <v>7.8862959981865197E-2</v>
+      </c>
+      <c r="O20">
+        <v>8.3782315229611007E-2</v>
+      </c>
+      <c r="P20">
+        <v>8.6121962446972997E-2</v>
+      </c>
+      <c r="Q20">
+        <v>8.7700399217055997E-2</v>
+      </c>
+      <c r="R20">
+        <v>8.7965823841722399E-2</v>
+      </c>
       <c r="T20" s="10"/>
       <c r="U20" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="W20">
+        <v>8.1371004848884099E-2</v>
+      </c>
+      <c r="X20">
+        <v>8.4962260232122E-2</v>
+      </c>
+      <c r="Y20">
+        <v>8.5524777864492002E-2</v>
+      </c>
+      <c r="Z20">
+        <v>8.6856904661680695E-2</v>
+      </c>
+      <c r="AA20">
+        <v>8.7644797481218895E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="F21" s="8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
+      <c r="O21">
+        <v>2.9300383055941401E-3</v>
+      </c>
+      <c r="P21">
+        <v>2.1348911600400401E-2</v>
+      </c>
+      <c r="Q21">
+        <v>2.45781079140753E-2</v>
+      </c>
+      <c r="R21">
+        <v>2.5427653653123699E-2</v>
+      </c>
       <c r="T21" s="10"/>
       <c r="U21" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="X21">
+        <v>4.0724164009367202E-3</v>
+      </c>
+      <c r="Y21">
+        <v>2.25997200857397E-2</v>
+      </c>
+      <c r="Z21">
+        <v>2.6276780599955599E-2</v>
+      </c>
+      <c r="AA21">
+        <v>2.8576054723673399E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C22" s="7">
         <v>25</v>
@@ -6385,7 +5990,7 @@
         <v>50</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G22" s="7">
         <v>25</v>
@@ -6395,54 +6000,102 @@
       </c>
       <c r="K22" s="10"/>
       <c r="L22" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
+      </c>
+      <c r="P22">
+        <v>-1.8833847669335699E-2</v>
+      </c>
+      <c r="Q22">
+        <v>-3.6837208406054899E-3</v>
+      </c>
+      <c r="R22">
+        <v>8.6209062369130198E-4</v>
       </c>
       <c r="T22" s="10"/>
       <c r="U22" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="Y22">
+        <v>-1.74825834293422E-2</v>
+      </c>
+      <c r="Z22">
+        <v>-6.4865238168963597E-3</v>
+      </c>
+      <c r="AA22">
+        <v>-2.0688545474609101E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B23" s="7">
         <v>25</v>
       </c>
       <c r="C23" s="7">
-        <v>0.236643211849001</v>
-      </c>
-      <c r="D23" s="7"/>
+        <v>0.23474347143723201</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.17738244512799101</v>
+      </c>
       <c r="F23" s="7">
         <v>25</v>
       </c>
       <c r="G23" s="7">
-        <v>0.23882638182337501</v>
-      </c>
-      <c r="H23" s="7"/>
+        <v>0.239482179316378</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.18180770292040799</v>
+      </c>
       <c r="L23" s="10" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="Q23">
+        <v>-1.6861075578892E-2</v>
+      </c>
+      <c r="R23">
+        <v>-1.1589772684081401E-2</v>
       </c>
       <c r="U23" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="Z23">
+        <v>-1.27567904102337E-2</v>
+      </c>
+      <c r="AA23">
+        <v>-8.6291236179614692E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B24" s="7">
         <v>50</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="C24" s="7">
+        <v>0.21261869229724201</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.159012596987054</v>
+      </c>
       <c r="F24" s="7">
         <v>50</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="G24" s="7">
+        <v>0.21241882930636799</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.160356133437172</v>
+      </c>
       <c r="L24" s="10" t="s">
-        <v>37</v>
+        <v>25</v>
+      </c>
+      <c r="R24">
+        <v>-6.1691137541732997E-3</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="AA24">
+        <v>-7.3103940816280797E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="P26" s="4"/>
@@ -6450,29 +6103,29 @@
       <c r="S26" s="10"/>
       <c r="T26" s="10"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.3">
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="S27" s="10"/>
       <c r="T27" s="10"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="S28" s="10"/>
       <c r="T28" s="10"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
       <c r="S29" s="10"/>
       <c r="T29" s="10"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K30" s="10"/>
       <c r="T30" s="10"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K31" s="10"/>
       <c r="T31" s="10"/>
     </row>
@@ -6482,71 +6135,78 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370CE195-D5E9-415C-9BC6-2CFF4B1A6917}">
-  <dimension ref="B1:X31"/>
+  <dimension ref="B1:AA31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Z29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="14" max="14" width="9.59765625" customWidth="1"/>
+    <col min="15" max="15" width="9.8984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:27" x14ac:dyDescent="0.3">
       <c r="G1" s="9" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="M1" s="9"/>
       <c r="N1" s="9" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="O1" s="9"/>
-    </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="R1" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="F3" s="8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="F4" s="8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="O4" s="9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X4" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C5" s="7">
         <v>25</v>
@@ -6555,7 +6215,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G5" s="7">
         <v>25</v>
@@ -6564,67 +6224,146 @@
         <v>50</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="1"/>
-      <c r="Q5" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="M5" s="3">
+        <v>362032037.90599</v>
+      </c>
+      <c r="N5" s="11">
+        <v>362378851.50701499</v>
+      </c>
+      <c r="O5" s="1">
+        <v>363019483.15477198</v>
+      </c>
+      <c r="P5">
+        <v>364730454.73166299</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>369042460.290645</v>
+      </c>
+      <c r="R5">
+        <v>379896823.78029299</v>
+      </c>
       <c r="T5" t="s">
-        <v>44</v>
-      </c>
-      <c r="V5" s="4"/>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="V5" s="3">
+        <v>-153007.93644830599</v>
+      </c>
+      <c r="W5">
+        <v>1377272.0577467601</v>
+      </c>
+      <c r="X5">
+        <v>4105930.1686715302</v>
+      </c>
+      <c r="Y5">
+        <v>8938698.1926525608</v>
+      </c>
+      <c r="Z5">
+        <v>18245149.018418599</v>
+      </c>
+      <c r="AA5">
+        <v>58912135.816483498</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B6" s="7">
         <v>25</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="7">
+        <v>2.1233618244974601E-3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>9.3589643131175605E-3</v>
+      </c>
       <c r="F6" s="7">
         <v>25</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="G6" s="7">
+        <v>2.0946344951891E-3</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1.14068098758604E-2</v>
+      </c>
       <c r="J6" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="S6" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="V6" s="4"/>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B7" s="7">
         <v>50</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="C7" s="7">
+        <v>9.4783045628361595E-3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>9.4904875972277002E-3</v>
+      </c>
       <c r="F7" s="7">
         <v>50</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="G7" s="7">
+        <v>1.0409250209266E-2</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1.04921136932419E-2</v>
+      </c>
       <c r="K7" s="10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="Q7" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.63293690375440104</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.52882063473327301</v>
+      </c>
+      <c r="O7">
+        <v>0.452837083101922</v>
+      </c>
+      <c r="P7">
+        <v>0.394958583693714</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0.33870807039349099</v>
+      </c>
+      <c r="R7">
+        <v>0.27764006997573398</v>
+      </c>
       <c r="T7" s="10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="V7" s="4"/>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0.62751065027215802</v>
+      </c>
+      <c r="W7">
+        <v>0.51812079251825605</v>
+      </c>
+      <c r="X7">
+        <v>0.434259827928692</v>
+      </c>
+      <c r="Y7">
+        <v>0.36974804694773</v>
+      </c>
+      <c r="Z7">
+        <v>0.30889130758170702</v>
+      </c>
+      <c r="AA7">
+        <v>0.24823979936364399</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -6633,44 +6372,104 @@
       <c r="H8" s="7"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="Q8" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.36706309624559902</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.20382979340316801</v>
+      </c>
+      <c r="O8">
+        <v>0.17919153137381799</v>
+      </c>
+      <c r="P8">
+        <v>0.15570145712435399</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0.14085553033210199</v>
+      </c>
+      <c r="R8">
+        <v>0.12710192605447401</v>
+      </c>
       <c r="T8" s="10"/>
       <c r="U8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="V8" s="4"/>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0.37248934972784198</v>
+      </c>
+      <c r="W8">
+        <v>0.208413138124626</v>
+      </c>
+      <c r="X8">
+        <v>0.18009389305404699</v>
+      </c>
+      <c r="Y8">
+        <v>0.15166810636156999</v>
+      </c>
+      <c r="Z8">
+        <v>0.13183353086083399</v>
+      </c>
+      <c r="AA8">
+        <v>0.1181820858381</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="F9" s="8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="Q9" s="4"/>
+      <c r="N9" s="4">
+        <v>0.26734957185711999</v>
+      </c>
+      <c r="O9">
+        <v>0.19027783945468499</v>
+      </c>
+      <c r="P9">
+        <v>0.18386472082310901</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0.16611240076730299</v>
+      </c>
+      <c r="R9">
+        <v>0.15186842569461301</v>
+      </c>
       <c r="T9" s="10"/>
       <c r="U9" s="10" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="V9" s="4"/>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="W9">
+        <v>0.27346606935949902</v>
+      </c>
+      <c r="X9">
+        <v>0.19206796233576301</v>
+      </c>
+      <c r="Y9">
+        <v>0.183135266659156</v>
+      </c>
+      <c r="Z9">
+        <v>0.162670227810921</v>
+      </c>
+      <c r="AA9">
+        <v>0.14909978021435499</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C10" s="7">
         <v>25</v>
@@ -6679,7 +6478,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G10" s="7">
         <v>25</v>
@@ -6689,57 +6488,124 @@
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="Q10" s="4"/>
+      <c r="O10">
+        <v>0.17769354609233501</v>
+      </c>
+      <c r="P10">
+        <v>0.13788962175703201</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0.14280875397676099</v>
+      </c>
+      <c r="R10">
+        <v>0.14317000382706499</v>
+      </c>
       <c r="T10" s="10"/>
       <c r="U10" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="X10">
+        <v>0.193578316710072</v>
+      </c>
+      <c r="Y10">
+        <v>0.15853618055087501</v>
+      </c>
+      <c r="Z10">
+        <v>0.16278883667510299</v>
+      </c>
+      <c r="AA10">
+        <v>0.16215183691236301</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B11" s="7">
         <v>25</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="C11" s="7">
+        <v>0.104480184656717</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2.5964467436166899E-2</v>
+      </c>
       <c r="F11" s="7">
         <v>25</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="G11" s="7">
+        <v>0.14097699171865699</v>
+      </c>
+      <c r="H11" s="7">
+        <v>3.0012756355278902E-2</v>
+      </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q11" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="P11">
+        <v>0.127585616875066</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0.106629347785232</v>
+      </c>
+      <c r="R11">
+        <v>0.115139958931378</v>
+      </c>
       <c r="T11" s="10"/>
       <c r="U11" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="Y11">
+        <v>0.13691239955929299</v>
+      </c>
+      <c r="Z11">
+        <v>0.12110923445633601</v>
+      </c>
+      <c r="AA11">
+        <v>0.12861186793936</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B12" s="7">
         <v>50</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="C12" s="7">
+        <v>2.6272103592757799E-2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2.99984907359001E-2</v>
+      </c>
       <c r="F12" s="7">
         <v>50</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="G12" s="7">
+        <v>2.7305482152806902E-2</v>
+      </c>
+      <c r="H12" s="7">
+        <v>2.0814292323567001E-2</v>
+      </c>
       <c r="L12" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q12" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0.10488589696746201</v>
+      </c>
+      <c r="R12">
+        <v>0.10012193122703</v>
+      </c>
       <c r="U12" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="Z12">
+        <v>0.112706862799238</v>
+      </c>
+      <c r="AA12">
+        <v>0.105268039263452</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -6747,14 +6613,20 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="L13" s="10" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="Q13" s="4"/>
+      <c r="R13">
+        <v>8.4957685231372607E-2</v>
+      </c>
       <c r="U13" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="AA13">
+        <v>8.8446591540998695E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -6763,51 +6635,83 @@
       <c r="H14" s="7"/>
       <c r="Q14" s="4"/>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="F15" s="8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="O15" s="9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Q15" s="4"/>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="X15" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="F16" s="8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="K16" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="L16" s="10"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="S16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="X16" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="M16" s="3">
+        <v>-575482.01942718599</v>
+      </c>
+      <c r="N16" s="4">
+        <v>-250701.30470266801</v>
+      </c>
+      <c r="O16">
+        <v>576428.855361355</v>
+      </c>
+      <c r="P16">
+        <v>2032172.33838847</v>
+      </c>
+      <c r="Q16">
+        <v>2605090.9432586599</v>
+      </c>
+      <c r="R16">
+        <v>3368029.3954221699</v>
+      </c>
+      <c r="T16" t="s">
+        <v>32</v>
+      </c>
+      <c r="V16" s="3">
+        <v>8090.5473111945703</v>
+      </c>
+      <c r="W16">
+        <v>47286.060200857399</v>
+      </c>
+      <c r="X16">
+        <v>96972.539377686393</v>
+      </c>
+      <c r="Y16">
+        <v>153966.89367584701</v>
+      </c>
+      <c r="Z16">
+        <v>222690.05407889601</v>
+      </c>
+      <c r="AA16">
+        <v>289624.20667453099</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C17" s="7">
         <v>25</v>
@@ -6816,7 +6720,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G17" s="7">
         <v>25</v>
@@ -6825,64 +6729,149 @@
         <v>50</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
-      <c r="T17" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="U17" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="S17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B18" s="7">
         <v>25</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="C18" s="7">
+        <v>4.4254215193021598E-2</v>
+      </c>
+      <c r="D18" s="7">
+        <v>5.8471465068230997E-2</v>
+      </c>
       <c r="F18" s="7">
         <v>25</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="G18" s="7">
+        <v>3.4227148509080603E-2</v>
+      </c>
+      <c r="H18" s="7">
+        <v>5.3247895268300698E-2</v>
+      </c>
       <c r="K18" s="10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="T18" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0.63755518592824401</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0.56030641032069295</v>
+      </c>
+      <c r="O18">
+        <v>0.51506838552256995</v>
+      </c>
+      <c r="P18">
+        <v>0.48865351134565099</v>
+      </c>
+      <c r="Q18">
+        <v>0.468547904942479</v>
+      </c>
+      <c r="R18">
+        <v>0.45220926528291899</v>
+      </c>
+      <c r="T18" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U18" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0.63947871176673399</v>
+      </c>
+      <c r="W18">
+        <v>0.56298639536778206</v>
+      </c>
+      <c r="X18">
+        <v>0.51822234138463996</v>
+      </c>
+      <c r="Y18">
+        <v>0.49129743471658799</v>
+      </c>
+      <c r="Z18">
+        <v>0.47019977528928902</v>
+      </c>
+      <c r="AA18">
+        <v>0.45362118198186002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B19" s="7">
         <v>50</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="C19" s="7">
+        <v>6.6890847156499497E-2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>5.4843336906627502E-2</v>
+      </c>
       <c r="F19" s="7">
         <v>50</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="G19" s="7">
+        <v>5.7849804498515803E-2</v>
+      </c>
+      <c r="H19" s="7">
+        <v>5.0530221449383003E-2</v>
+      </c>
       <c r="K19" s="10"/>
       <c r="L19" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0.36244481407175699</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0.18613799159723299</v>
+      </c>
+      <c r="O19">
+        <v>0.16794873123835199</v>
+      </c>
+      <c r="P19">
+        <v>0.15436502805521099</v>
+      </c>
+      <c r="Q19">
+        <v>0.14810338533070899</v>
+      </c>
+      <c r="R19">
+        <v>0.142096904440357</v>
+      </c>
       <c r="T19" s="10"/>
       <c r="U19" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="V19" s="3">
+        <v>0.36052128823326601</v>
+      </c>
+      <c r="W19">
+        <v>0.181146911659505</v>
+      </c>
+      <c r="X19">
+        <v>0.16345349305828699</v>
+      </c>
+      <c r="Y19">
+        <v>0.151125113640978</v>
+      </c>
+      <c r="Z19">
+        <v>0.14444401188967301</v>
+      </c>
+      <c r="AA19">
+        <v>0.13799357163511999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -6891,40 +6880,93 @@
       <c r="H20" s="7"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
+      <c r="N20" s="4">
+        <v>0.25355559808207401</v>
+      </c>
+      <c r="O20">
+        <v>0.16446801628402699</v>
+      </c>
+      <c r="P20">
+        <v>0.157670359788496</v>
+      </c>
+      <c r="Q20">
+        <v>0.15124595115287501</v>
+      </c>
+      <c r="R20">
+        <v>0.14682768120165299</v>
+      </c>
       <c r="T20" s="10"/>
       <c r="U20" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="W20">
+        <v>0.25586669297271097</v>
+      </c>
+      <c r="X20">
+        <v>0.16756618404753101</v>
+      </c>
+      <c r="Y20">
+        <v>0.160579933323376</v>
+      </c>
+      <c r="Z20">
+        <v>0.15307612430576101</v>
+      </c>
+      <c r="AA20">
+        <v>0.148599214518569</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="F21" s="8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
+      <c r="O21">
+        <v>0.15251486695505101</v>
+      </c>
+      <c r="P21">
+        <v>0.114165784639929</v>
+      </c>
+      <c r="Q21">
+        <v>0.11417878066189401</v>
+      </c>
+      <c r="R21">
+        <v>0.111259310021028</v>
+      </c>
       <c r="T21" s="10"/>
       <c r="U21" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="X21">
+        <v>0.15075798150954201</v>
+      </c>
+      <c r="Y21">
+        <v>0.113435560630906</v>
+      </c>
+      <c r="Z21">
+        <v>0.11329888082646</v>
+      </c>
+      <c r="AA21">
+        <v>0.11067748769034</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C22" s="7">
         <v>25</v>
@@ -6933,7 +6975,7 @@
         <v>50</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G22" s="7">
         <v>25</v>
@@ -6943,76 +6985,130 @@
       </c>
       <c r="K22" s="10"/>
       <c r="L22" s="10" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="P22">
+        <v>8.51453161707134E-2</v>
+      </c>
+      <c r="Q22">
+        <v>7.2089383627808201E-2</v>
+      </c>
+      <c r="R22">
+        <v>7.6873755060500398E-2</v>
+      </c>
+      <c r="T22" s="10"/>
       <c r="U22" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="Y22">
+        <v>8.3561957689310504E-2</v>
+      </c>
+      <c r="Z22">
+        <v>6.6249791903989705E-2</v>
+      </c>
+      <c r="AA22">
+        <v>7.0467083057205102E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B23" s="7">
         <v>25</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+      <c r="C23" s="7">
+        <v>0.34722711148778601</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.176905080707743</v>
+      </c>
       <c r="F23" s="7">
         <v>25</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="G23" s="7">
+        <v>0.41839125357317603</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.17881677954752101</v>
+      </c>
       <c r="L23" s="10" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="Q23">
+        <v>4.5834594284234399E-2</v>
+      </c>
+      <c r="R23">
+        <v>4.51195755868724E-2</v>
       </c>
       <c r="U23" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="Z23">
+        <v>5.27314157850838E-2</v>
+      </c>
+      <c r="AA23">
+        <v>4.6596800140447502E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B24" s="7">
         <v>50</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="C24" s="7">
+        <v>0.212097746127591</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.148385845508405</v>
+      </c>
       <c r="F24" s="7">
         <v>50</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="G24" s="7">
+        <v>0.2252971434271</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.14893118881032999</v>
+      </c>
       <c r="L24" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="R24">
+        <v>2.5613508407201301E-2</v>
+      </c>
+      <c r="U24" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA24">
+        <v>3.2044660978269197E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.3">
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="S27" s="10"/>
       <c r="T27" s="10"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="S28" s="10"/>
       <c r="T28" s="10"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
       <c r="S29" s="10"/>
       <c r="T29" s="10"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K30" s="10"/>
       <c r="T30" s="10"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K31" s="10"/>
       <c r="T31" s="10"/>
     </row>
@@ -7020,557 +7116,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A97BFE1-79A3-41C2-862C-FD626A36AC23}">
-  <dimension ref="B1:Z29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z12" sqref="Z12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D1" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" s="9"/>
-    </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="F3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="F4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="O4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="7">
-        <v>25</v>
-      </c>
-      <c r="D5" s="7">
-        <v>50</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="7">
-        <v>25</v>
-      </c>
-      <c r="H5" s="7">
-        <v>50</v>
-      </c>
-      <c r="K5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="1"/>
-      <c r="Q5" s="4"/>
-      <c r="T5" t="s">
-        <v>44</v>
-      </c>
-      <c r="V5" s="11"/>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B6" s="7">
-        <v>25</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="F6" s="7">
-        <v>25</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="J6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="S6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="V6" s="4"/>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B7" s="7">
-        <v>50</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="F7" s="7">
-        <v>50</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="K7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="T7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="U7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="V7" s="4"/>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="V8" s="4"/>
-    </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="F9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="V9" s="4"/>
-    </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="7">
-        <v>25</v>
-      </c>
-      <c r="D10" s="7">
-        <v>50</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="7">
-        <v>25</v>
-      </c>
-      <c r="H10" s="7">
-        <v>50</v>
-      </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B11" s="7">
-        <v>25</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="F11" s="7">
-        <v>25</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q11" s="4"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B12" s="7">
-        <v>50</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="F12" s="7">
-        <v>50</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="L12" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q12" s="4"/>
-      <c r="U12" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="L13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q13" s="4"/>
-      <c r="U13" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="Q14" s="4"/>
-    </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B15" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="F15" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="O15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q15" s="4"/>
-      <c r="X15" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z15" s="4"/>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="F16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="K16" t="s">
-        <v>44</v>
-      </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="T16" t="s">
-        <v>44</v>
-      </c>
-      <c r="U16" s="10"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="4"/>
-    </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B17" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="7">
-        <v>25</v>
-      </c>
-      <c r="D17" s="7">
-        <v>50</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="7">
-        <v>25</v>
-      </c>
-      <c r="H17" s="7">
-        <v>50</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="S17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-    </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B18" s="7">
-        <v>25</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="F18" s="7">
-        <v>25</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="K18" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="T18" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="U18" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="V18" s="3"/>
-      <c r="W18" s="4"/>
-    </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B19" s="7">
-        <v>50</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="F19" s="7">
-        <v>50</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="V19" s="3"/>
-      <c r="W19" s="4"/>
-    </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-    </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="F21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-    </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B22" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="7">
-        <v>25</v>
-      </c>
-      <c r="D22" s="7">
-        <v>50</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="7">
-        <v>25</v>
-      </c>
-      <c r="H22" s="7">
-        <v>50</v>
-      </c>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B23" s="7">
-        <v>25</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="F23" s="7">
-        <v>25</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="L23" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="U23" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B24" s="7">
-        <v>50</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="F24" s="7">
-        <v>50</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="L24" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="U24" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-    </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-    </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-    </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/MC_code/MC_score_weighting.xlsx
+++ b/MC_code/MC_score_weighting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Dynamic-Linear-Models-for-Heterogenous-Panels\MC_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52D93BB-1A33-451F-8BCD-AD70702F7C5C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40079B02-0323-4EFC-8C6D-A1003A48BD36}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="without_fator_phi_0.2" sheetId="5" r:id="rId1"/>
@@ -552,7 +552,7 @@
   <dimension ref="B1:AB41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -3150,8 +3150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB347C27-138E-4008-A689-B4333822E80F}">
   <dimension ref="B1:AA37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33:J33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -5156,7 +5156,7 @@
   <dimension ref="B1:AA31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23:H24"/>
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -6139,7 +6139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370CE195-D5E9-415C-9BC6-2CFF4B1A6917}">
   <dimension ref="B1:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>

--- a/MC_code/MC_score_weighting.xlsx
+++ b/MC_code/MC_score_weighting.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="without_fator_phi_0.2" sheetId="5" r:id="rId1"/>
@@ -1517,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AI53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1738,7 +1738,9 @@
       <c r="D7" s="5">
         <v>-3.1822817304705302E-4</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5">
+        <v>-1.5357256792064599E-3</v>
+      </c>
       <c r="F7" s="5">
         <v>50</v>
       </c>
@@ -1748,7 +1750,9 @@
       <c r="H7" s="5">
         <v>4.5867662593701602E-4</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="5">
+        <v>-7.7414903106010101E-4</v>
+      </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8" t="s">
         <v>17</v>
@@ -2000,7 +2004,9 @@
       <c r="D12" s="5">
         <v>1.7117850082068401E-2</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5">
+        <v>1.2754356430421601E-2</v>
+      </c>
       <c r="F12" s="5">
         <v>50</v>
       </c>
@@ -2010,7 +2016,9 @@
       <c r="H12" s="5">
         <v>1.7190256963273799E-2</v>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="5">
+        <v>1.27646914528338E-2</v>
+      </c>
       <c r="L12" s="8" t="s">
         <v>38</v>
       </c>
@@ -2332,7 +2340,9 @@
       <c r="D19" s="5">
         <v>2.64141146309349E-3</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="5">
+        <v>3.30121136175698E-4</v>
+      </c>
       <c r="F19" s="5">
         <v>50</v>
       </c>
@@ -2342,7 +2352,9 @@
       <c r="H19" s="5">
         <v>2.6717835539931101E-3</v>
       </c>
-      <c r="I19" s="5"/>
+      <c r="I19" s="5">
+        <v>1.8364249551672401E-2</v>
+      </c>
       <c r="K19" s="8"/>
       <c r="L19" s="8" t="s">
         <v>19</v>
@@ -2529,7 +2541,9 @@
       <c r="D24" s="5">
         <v>2.4863549792107101E-2</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="5">
+        <v>1.8337618299404002E-2</v>
+      </c>
       <c r="F24" s="5">
         <v>50</v>
       </c>
@@ -2539,7 +2553,9 @@
       <c r="H24" s="5">
         <v>2.4843157782779599E-2</v>
       </c>
-      <c r="I24" s="5"/>
+      <c r="I24" s="5">
+        <v>3.7527418071103802E-4</v>
+      </c>
       <c r="O24" s="7" t="s">
         <v>10</v>
       </c>
@@ -2588,10 +2604,24 @@
       <c r="T25" t="s">
         <v>32</v>
       </c>
-      <c r="V25" s="9"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="9"/>
+      <c r="V25" s="9">
+        <v>0.61102213176866105</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0.84199245171690895</v>
+      </c>
+      <c r="X25" s="1">
+        <v>0.90801089761522902</v>
+      </c>
+      <c r="Y25" s="9">
+        <v>0.91802094827236302</v>
+      </c>
+      <c r="Z25">
+        <v>0.90728188332148096</v>
+      </c>
+      <c r="AA25">
+        <v>0.88858912821410396</v>
+      </c>
     </row>
     <row r="26" spans="2:35">
       <c r="J26" s="7" t="s">
@@ -2634,8 +2664,24 @@
       <c r="U27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="V27" s="4"/>
-      <c r="Y27" s="4"/>
+      <c r="V27" s="4">
+        <v>0.84924280860799295</v>
+      </c>
+      <c r="W27">
+        <v>0.84860401752007397</v>
+      </c>
+      <c r="X27">
+        <v>0.84848357420717002</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>0.84839497155323695</v>
+      </c>
+      <c r="Z27">
+        <v>0.84831495844539495</v>
+      </c>
+      <c r="AA27">
+        <v>0.84823663877209698</v>
+      </c>
     </row>
     <row r="28" spans="2:35">
       <c r="K28" s="8"/>
@@ -2664,8 +2710,24 @@
       <c r="U28" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="V28" s="4"/>
-      <c r="Y28" s="4"/>
+      <c r="V28" s="4">
+        <v>0.150757191392007</v>
+      </c>
+      <c r="W28">
+        <v>0.14980808658800199</v>
+      </c>
+      <c r="X28">
+        <v>0.149676173847828</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>0.14960171876456699</v>
+      </c>
+      <c r="Z28">
+        <v>0.14952648336645699</v>
+      </c>
+      <c r="AA28">
+        <v>0.14945815641802301</v>
+      </c>
     </row>
     <row r="29" spans="2:35">
       <c r="K29" s="8"/>
@@ -2691,7 +2753,21 @@
       <c r="U29" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Y29" s="4"/>
+      <c r="W29">
+        <v>1.5878958919241901E-3</v>
+      </c>
+      <c r="X29">
+        <v>1.54514866878455E-3</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>1.5282276881425599E-3</v>
+      </c>
+      <c r="Z29">
+        <v>1.5167407248760699E-3</v>
+      </c>
+      <c r="AA29">
+        <v>1.5054132552709499E-3</v>
+      </c>
     </row>
     <row r="30" spans="2:35">
       <c r="K30" s="8"/>
@@ -2714,7 +2790,18 @@
       <c r="U30" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Y30" s="4"/>
+      <c r="X30">
+        <v>2.9510327621754798E-4</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>2.7530917704340397E-4</v>
+      </c>
+      <c r="Z30">
+        <v>2.6408231910495899E-4</v>
+      </c>
+      <c r="AA30">
+        <v>2.5480615564798501E-4</v>
+      </c>
     </row>
     <row r="31" spans="2:35">
       <c r="K31" s="8"/>
@@ -2734,7 +2821,15 @@
       <c r="U31" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Y31" s="4"/>
+      <c r="Y31" s="4">
+        <v>1.99772817009789E-4</v>
+      </c>
+      <c r="Z31">
+        <v>1.84325472929743E-4</v>
+      </c>
+      <c r="AA31">
+        <v>1.7398403371763499E-4</v>
+      </c>
     </row>
     <row r="32" spans="2:35">
       <c r="L32" s="8" t="s">
@@ -2751,8 +2846,14 @@
         <v>37</v>
       </c>
       <c r="Y32" s="4"/>
-    </row>
-    <row r="33" spans="10:25">
+      <c r="Z32">
+        <v>1.93409671237602E-4</v>
+      </c>
+      <c r="AA32">
+        <v>1.7773985699309501E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="10:27">
       <c r="L33" s="8" t="s">
         <v>38</v>
       </c>
@@ -2764,8 +2865,11 @@
         <v>38</v>
       </c>
       <c r="Y33" s="4"/>
-    </row>
-    <row r="34" spans="10:25">
+      <c r="AA33">
+        <v>1.93261508249966E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="10:27">
       <c r="O34" s="7" t="s">
         <v>41</v>
       </c>
@@ -2776,7 +2880,7 @@
       </c>
       <c r="Y34" s="4"/>
     </row>
-    <row r="35" spans="10:25">
+    <row r="35" spans="10:27">
       <c r="K35" t="s">
         <v>32</v>
       </c>
@@ -2793,7 +2897,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="9"/>
     </row>
-    <row r="36" spans="10:25">
+    <row r="36" spans="10:27">
       <c r="J36" s="7" t="s">
         <v>7</v>
       </c>
@@ -2803,7 +2907,7 @@
       </c>
       <c r="Y36" s="4"/>
     </row>
-    <row r="37" spans="10:25">
+    <row r="37" spans="10:27">
       <c r="K37" s="8" t="s">
         <v>16</v>
       </c>
@@ -2821,7 +2925,7 @@
       <c r="V37" s="4"/>
       <c r="Y37" s="4"/>
     </row>
-    <row r="38" spans="10:25">
+    <row r="38" spans="10:27">
       <c r="K38" s="8"/>
       <c r="L38" s="8" t="s">
         <v>17</v>
@@ -2835,7 +2939,7 @@
       <c r="V38" s="4"/>
       <c r="Y38" s="4"/>
     </row>
-    <row r="39" spans="10:25">
+    <row r="39" spans="10:27">
       <c r="K39" s="8"/>
       <c r="L39" s="8" t="s">
         <v>18</v>
@@ -2847,7 +2951,7 @@
       </c>
       <c r="Y39" s="4"/>
     </row>
-    <row r="40" spans="10:25">
+    <row r="40" spans="10:27">
       <c r="K40" s="8"/>
       <c r="L40" s="8" t="s">
         <v>19</v>
@@ -2859,7 +2963,7 @@
       </c>
       <c r="Y40" s="4"/>
     </row>
-    <row r="41" spans="10:25">
+    <row r="41" spans="10:27">
       <c r="K41" s="8"/>
       <c r="L41" s="8" t="s">
         <v>20</v>
@@ -2871,7 +2975,7 @@
       </c>
       <c r="Y41" s="4"/>
     </row>
-    <row r="42" spans="10:25">
+    <row r="42" spans="10:27">
       <c r="L42" s="8" t="s">
         <v>37</v>
       </c>
@@ -2881,7 +2985,7 @@
       </c>
       <c r="Y42" s="4"/>
     </row>
-    <row r="43" spans="10:25">
+    <row r="43" spans="10:27">
       <c r="L43" s="8" t="s">
         <v>38</v>
       </c>
@@ -2891,14 +2995,14 @@
       </c>
       <c r="Y43" s="4"/>
     </row>
-    <row r="44" spans="10:25">
+    <row r="44" spans="10:27">
       <c r="O44" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P44" s="4"/>
       <c r="Y44" s="4"/>
     </row>
-    <row r="45" spans="10:25">
+    <row r="45" spans="10:27">
       <c r="K45" t="s">
         <v>32</v>
       </c>
@@ -2908,13 +3012,13 @@
       <c r="P45" s="9"/>
       <c r="Y45" s="4"/>
     </row>
-    <row r="46" spans="10:25">
+    <row r="46" spans="10:27">
       <c r="J46" s="7" t="s">
         <v>7</v>
       </c>
       <c r="P46" s="4"/>
     </row>
-    <row r="47" spans="10:25">
+    <row r="47" spans="10:27">
       <c r="K47" s="8" t="s">
         <v>16</v>
       </c>
@@ -2924,7 +3028,7 @@
       <c r="M47" s="4"/>
       <c r="P47" s="4"/>
     </row>
-    <row r="48" spans="10:25">
+    <row r="48" spans="10:27">
       <c r="K48" s="8"/>
       <c r="L48" s="8" t="s">
         <v>17</v>

--- a/MC_code/MC_score_weighting.xlsx
+++ b/MC_code/MC_score_weighting.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\userfs\yc1489\w2k\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Dynamic-Linear-Models-for-Heterogenous-Panels\MC_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A034B4BB-A539-4FDA-B720-26F0A263EAE3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="without_fator_phi_0.2" sheetId="5" r:id="rId1"/>
@@ -187,18 +188,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -207,7 +208,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -216,7 +217,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -224,7 +225,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -277,7 +278,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -554,30 +555,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AB54"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" customWidth="1"/>
-    <col min="21" max="21" width="9.5703125" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" customWidth="1"/>
-    <col min="23" max="23" width="9.85546875" customWidth="1"/>
-    <col min="24" max="24" width="10.5703125" customWidth="1"/>
-    <col min="25" max="25" width="10.85546875" customWidth="1"/>
-    <col min="26" max="26" width="9.85546875" customWidth="1"/>
+    <col min="14" max="14" width="10.69921875" customWidth="1"/>
+    <col min="15" max="15" width="10.296875" customWidth="1"/>
+    <col min="16" max="16" width="10.8984375" customWidth="1"/>
+    <col min="17" max="17" width="10.296875" customWidth="1"/>
+    <col min="20" max="20" width="6.3984375" customWidth="1"/>
+    <col min="21" max="21" width="9.59765625" customWidth="1"/>
+    <col min="22" max="22" width="10.09765625" customWidth="1"/>
+    <col min="23" max="23" width="9.8984375" customWidth="1"/>
+    <col min="24" max="24" width="10.59765625" customWidth="1"/>
+    <col min="25" max="25" width="10.8984375" customWidth="1"/>
+    <col min="26" max="26" width="9.8984375" customWidth="1"/>
     <col min="32" max="33" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26">
+    <row r="1" spans="2:26" x14ac:dyDescent="0.3">
       <c r="I1" s="7" t="s">
         <v>11</v>
       </c>
@@ -592,14 +593,14 @@
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
     </row>
-    <row r="2" spans="2:26">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.3">
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="2:26">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.3">
       <c r="P3" s="4"/>
       <c r="Y3" s="4"/>
     </row>
-    <row r="4" spans="2:26">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
@@ -621,7 +622,7 @@
       </c>
       <c r="Y4" s="4"/>
     </row>
-    <row r="5" spans="2:26">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
@@ -648,7 +649,7 @@
       <c r="V5" s="1"/>
       <c r="Y5" s="4"/>
     </row>
-    <row r="6" spans="2:26">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -682,7 +683,7 @@
       </c>
       <c r="Y6" s="4"/>
     </row>
-    <row r="7" spans="2:26">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>25</v>
       </c>
@@ -712,7 +713,7 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
     </row>
-    <row r="8" spans="2:26">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>50</v>
       </c>
@@ -738,7 +739,7 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
     </row>
-    <row r="9" spans="2:26">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>100</v>
       </c>
@@ -764,7 +765,7 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
     </row>
-    <row r="10" spans="2:26">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>21</v>
       </c>
@@ -790,7 +791,7 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="9"/>
     </row>
-    <row r="11" spans="2:26">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>0</v>
       </c>
@@ -828,7 +829,7 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
     </row>
-    <row r="12" spans="2:26">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>25</v>
       </c>
@@ -852,7 +853,7 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
     </row>
-    <row r="13" spans="2:26">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>50</v>
       </c>
@@ -876,7 +877,7 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
     </row>
-    <row r="14" spans="2:26">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <v>100</v>
       </c>
@@ -899,7 +900,7 @@
       </c>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="2:26">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -919,7 +920,7 @@
       <c r="V15" s="1"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="2:26">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>1</v>
       </c>
@@ -941,7 +942,7 @@
       </c>
       <c r="Y16" s="4"/>
     </row>
-    <row r="17" spans="2:25">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>13</v>
       </c>
@@ -969,7 +970,7 @@
       </c>
       <c r="Y17" s="4"/>
     </row>
-    <row r="18" spans="2:25">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>0</v>
       </c>
@@ -1005,7 +1006,7 @@
       </c>
       <c r="Y18" s="4"/>
     </row>
-    <row r="19" spans="2:25">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>25</v>
       </c>
@@ -1029,7 +1030,7 @@
       </c>
       <c r="Y19" s="4"/>
     </row>
-    <row r="20" spans="2:25">
+    <row r="20" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>50</v>
       </c>
@@ -1053,7 +1054,7 @@
       </c>
       <c r="Y20" s="4"/>
     </row>
-    <row r="21" spans="2:25">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>100</v>
       </c>
@@ -1077,7 +1078,7 @@
       </c>
       <c r="Y21" s="4"/>
     </row>
-    <row r="22" spans="2:25">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
         <v>23</v>
       </c>
@@ -1099,7 +1100,7 @@
       </c>
       <c r="Y22" s="4"/>
     </row>
-    <row r="23" spans="2:25">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
         <v>0</v>
       </c>
@@ -1133,7 +1134,7 @@
       </c>
       <c r="Y23" s="4"/>
     </row>
-    <row r="24" spans="2:25">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <v>25</v>
       </c>
@@ -1147,7 +1148,7 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="2:25">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
         <v>50</v>
       </c>
@@ -1170,7 +1171,7 @@
       </c>
       <c r="Y25" s="4"/>
     </row>
-    <row r="26" spans="2:25">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
         <v>100</v>
       </c>
@@ -1199,7 +1200,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="9"/>
     </row>
-    <row r="27" spans="2:25">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.3">
       <c r="J27" s="7" t="s">
         <v>7</v>
       </c>
@@ -1209,7 +1210,7 @@
       </c>
       <c r="Y27" s="4"/>
     </row>
-    <row r="28" spans="2:25">
+    <row r="28" spans="2:25" x14ac:dyDescent="0.3">
       <c r="K28" s="8" t="s">
         <v>16</v>
       </c>
@@ -1227,7 +1228,7 @@
       <c r="V28" s="4"/>
       <c r="Y28" s="4"/>
     </row>
-    <row r="29" spans="2:25">
+    <row r="29" spans="2:25" x14ac:dyDescent="0.3">
       <c r="K29" s="8"/>
       <c r="L29" s="8" t="s">
         <v>17</v>
@@ -1241,7 +1242,7 @@
       <c r="V29" s="4"/>
       <c r="Y29" s="4"/>
     </row>
-    <row r="30" spans="2:25">
+    <row r="30" spans="2:25" x14ac:dyDescent="0.3">
       <c r="K30" s="8"/>
       <c r="L30" s="8" t="s">
         <v>18</v>
@@ -1253,7 +1254,7 @@
       </c>
       <c r="Y30" s="4"/>
     </row>
-    <row r="31" spans="2:25">
+    <row r="31" spans="2:25" x14ac:dyDescent="0.3">
       <c r="K31" s="8"/>
       <c r="L31" s="8" t="s">
         <v>19</v>
@@ -1265,7 +1266,7 @@
       </c>
       <c r="Y31" s="4"/>
     </row>
-    <row r="32" spans="2:25">
+    <row r="32" spans="2:25" x14ac:dyDescent="0.3">
       <c r="K32" s="8"/>
       <c r="L32" s="8" t="s">
         <v>20</v>
@@ -1277,7 +1278,7 @@
       </c>
       <c r="Y32" s="4"/>
     </row>
-    <row r="33" spans="10:28">
+    <row r="33" spans="10:28" x14ac:dyDescent="0.3">
       <c r="L33" s="8" t="s">
         <v>37</v>
       </c>
@@ -1287,7 +1288,7 @@
       </c>
       <c r="Y33" s="4"/>
     </row>
-    <row r="34" spans="10:28">
+    <row r="34" spans="10:28" x14ac:dyDescent="0.3">
       <c r="L34" s="8" t="s">
         <v>38</v>
       </c>
@@ -1297,7 +1298,7 @@
       </c>
       <c r="Y34" s="4"/>
     </row>
-    <row r="35" spans="10:28">
+    <row r="35" spans="10:28" x14ac:dyDescent="0.3">
       <c r="O35" s="7" t="s">
         <v>41</v>
       </c>
@@ -1308,7 +1309,7 @@
       </c>
       <c r="Y35" s="4"/>
     </row>
-    <row r="36" spans="10:28">
+    <row r="36" spans="10:28" x14ac:dyDescent="0.3">
       <c r="K36" t="s">
         <v>32</v>
       </c>
@@ -1327,7 +1328,7 @@
       <c r="AA36" s="8"/>
       <c r="AB36" s="8"/>
     </row>
-    <row r="37" spans="10:28">
+    <row r="37" spans="10:28" x14ac:dyDescent="0.3">
       <c r="J37" s="7" t="s">
         <v>7</v>
       </c>
@@ -1339,7 +1340,7 @@
       <c r="AA37" s="8"/>
       <c r="AB37" s="8"/>
     </row>
-    <row r="38" spans="10:28">
+    <row r="38" spans="10:28" x14ac:dyDescent="0.3">
       <c r="K38" s="8" t="s">
         <v>16</v>
       </c>
@@ -1359,7 +1360,7 @@
       <c r="AA38" s="8"/>
       <c r="AB38" s="8"/>
     </row>
-    <row r="39" spans="10:28">
+    <row r="39" spans="10:28" x14ac:dyDescent="0.3">
       <c r="K39" s="8"/>
       <c r="L39" s="8" t="s">
         <v>17</v>
@@ -1375,7 +1376,7 @@
       <c r="AA39" s="8"/>
       <c r="AB39" s="8"/>
     </row>
-    <row r="40" spans="10:28">
+    <row r="40" spans="10:28" x14ac:dyDescent="0.3">
       <c r="K40" s="8"/>
       <c r="L40" s="8" t="s">
         <v>18</v>
@@ -1388,7 +1389,7 @@
       <c r="Y40" s="4"/>
       <c r="AB40" s="8"/>
     </row>
-    <row r="41" spans="10:28">
+    <row r="41" spans="10:28" x14ac:dyDescent="0.3">
       <c r="K41" s="8"/>
       <c r="L41" s="8" t="s">
         <v>19</v>
@@ -1401,7 +1402,7 @@
       <c r="Y41" s="4"/>
       <c r="AB41" s="8"/>
     </row>
-    <row r="42" spans="10:28">
+    <row r="42" spans="10:28" x14ac:dyDescent="0.3">
       <c r="K42" s="8"/>
       <c r="L42" s="8" t="s">
         <v>20</v>
@@ -1413,7 +1414,7 @@
       </c>
       <c r="Y42" s="4"/>
     </row>
-    <row r="43" spans="10:28">
+    <row r="43" spans="10:28" x14ac:dyDescent="0.3">
       <c r="L43" s="8" t="s">
         <v>37</v>
       </c>
@@ -1423,7 +1424,7 @@
       </c>
       <c r="Y43" s="4"/>
     </row>
-    <row r="44" spans="10:28">
+    <row r="44" spans="10:28" x14ac:dyDescent="0.3">
       <c r="L44" s="8" t="s">
         <v>38</v>
       </c>
@@ -1433,14 +1434,14 @@
       </c>
       <c r="Y44" s="4"/>
     </row>
-    <row r="45" spans="10:28">
+    <row r="45" spans="10:28" x14ac:dyDescent="0.3">
       <c r="O45" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P45" s="4"/>
       <c r="Y45" s="4"/>
     </row>
-    <row r="46" spans="10:28">
+    <row r="46" spans="10:28" x14ac:dyDescent="0.3">
       <c r="K46" t="s">
         <v>32</v>
       </c>
@@ -1450,13 +1451,13 @@
       <c r="P46" s="9"/>
       <c r="Y46" s="4"/>
     </row>
-    <row r="47" spans="10:28">
+    <row r="47" spans="10:28" x14ac:dyDescent="0.3">
       <c r="J47" s="7" t="s">
         <v>7</v>
       </c>
       <c r="P47" s="4"/>
     </row>
-    <row r="48" spans="10:28">
+    <row r="48" spans="10:28" x14ac:dyDescent="0.3">
       <c r="K48" s="8" t="s">
         <v>16</v>
       </c>
@@ -1466,7 +1467,7 @@
       <c r="M48" s="4"/>
       <c r="P48" s="4"/>
     </row>
-    <row r="49" spans="11:16">
+    <row r="49" spans="11:16" x14ac:dyDescent="0.3">
       <c r="K49" s="8"/>
       <c r="L49" s="8" t="s">
         <v>17</v>
@@ -1474,34 +1475,34 @@
       <c r="M49" s="4"/>
       <c r="P49" s="4"/>
     </row>
-    <row r="50" spans="11:16">
+    <row r="50" spans="11:16" x14ac:dyDescent="0.3">
       <c r="K50" s="8"/>
       <c r="L50" s="8" t="s">
         <v>18</v>
       </c>
       <c r="P50" s="4"/>
     </row>
-    <row r="51" spans="11:16">
+    <row r="51" spans="11:16" x14ac:dyDescent="0.3">
       <c r="K51" s="8"/>
       <c r="L51" s="8" t="s">
         <v>19</v>
       </c>
       <c r="P51" s="4"/>
     </row>
-    <row r="52" spans="11:16">
+    <row r="52" spans="11:16" x14ac:dyDescent="0.3">
       <c r="K52" s="8"/>
       <c r="L52" s="8" t="s">
         <v>20</v>
       </c>
       <c r="P52" s="4"/>
     </row>
-    <row r="53" spans="11:16">
+    <row r="53" spans="11:16" x14ac:dyDescent="0.3">
       <c r="L53" s="8" t="s">
         <v>37</v>
       </c>
       <c r="P53" s="4"/>
     </row>
-    <row r="54" spans="11:16">
+    <row r="54" spans="11:16" x14ac:dyDescent="0.3">
       <c r="L54" s="8" t="s">
         <v>38</v>
       </c>
@@ -1514,16 +1515,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:AI53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="9.69921875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:27">
+    <row r="1" spans="2:27" x14ac:dyDescent="0.3">
       <c r="I1" s="7" t="s">
         <v>11</v>
       </c>
@@ -1538,11 +1542,11 @@
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
     </row>
-    <row r="2" spans="2:27">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.3">
       <c r="P2" s="4"/>
       <c r="Y2" s="4"/>
     </row>
-    <row r="3" spans="2:27">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
@@ -1564,7 +1568,7 @@
       </c>
       <c r="Y3" s="4"/>
     </row>
-    <row r="4" spans="2:27">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
@@ -1620,7 +1624,7 @@
         <v>0.75476181584674895</v>
       </c>
     </row>
-    <row r="5" spans="2:27">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -1654,7 +1658,7 @@
       </c>
       <c r="Y5" s="4"/>
     </row>
-    <row r="6" spans="2:27">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>25</v>
       </c>
@@ -1728,7 +1732,7 @@
         <v>0.84957481696848902</v>
       </c>
     </row>
-    <row r="7" spans="2:27">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>50</v>
       </c>
@@ -1798,7 +1802,7 @@
         <v>0.13545738407272101</v>
       </c>
     </row>
-    <row r="8" spans="2:27">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>100</v>
       </c>
@@ -1850,7 +1854,7 @@
         <v>5.7174620020343401E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:27">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>21</v>
       </c>
@@ -1896,7 +1900,7 @@
         <v>2.4589142691913098E-3</v>
       </c>
     </row>
-    <row r="10" spans="2:27">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>0</v>
       </c>
@@ -1948,7 +1952,7 @@
         <v>1.9504475753293199E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:27">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>25</v>
       </c>
@@ -1994,7 +1998,7 @@
         <v>2.3233274547331101E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:27">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>50</v>
       </c>
@@ -2035,7 +2039,7 @@
         <v>2.5176476575017098E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:27">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>100</v>
       </c>
@@ -2058,7 +2062,7 @@
       </c>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="2:27">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -2110,7 +2114,7 @@
         <v>0.87904352379318695</v>
       </c>
     </row>
-    <row r="15" spans="2:27">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>1</v>
       </c>
@@ -2132,7 +2136,7 @@
       </c>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="2:27">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
@@ -2194,7 +2198,7 @@
         <v>0.84795485096169998</v>
       </c>
     </row>
-    <row r="17" spans="2:35">
+    <row r="17" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>0</v>
       </c>
@@ -2265,7 +2269,7 @@
       </c>
       <c r="AI17" s="4"/>
     </row>
-    <row r="18" spans="2:35">
+    <row r="18" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>25</v>
       </c>
@@ -2330,7 +2334,7 @@
       </c>
       <c r="AI18" s="4"/>
     </row>
-    <row r="19" spans="2:35">
+    <row r="19" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>50</v>
       </c>
@@ -2389,7 +2393,7 @@
       </c>
       <c r="AI19" s="4"/>
     </row>
-    <row r="20" spans="2:35">
+    <row r="20" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>100</v>
       </c>
@@ -2430,7 +2434,7 @@
       </c>
       <c r="AI20" s="9"/>
     </row>
-    <row r="21" spans="2:35">
+    <row r="21" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
         <v>23</v>
       </c>
@@ -2464,7 +2468,7 @@
       </c>
       <c r="AI21" s="4"/>
     </row>
-    <row r="22" spans="2:35">
+    <row r="22" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
         <v>0</v>
       </c>
@@ -2504,7 +2508,7 @@
       </c>
       <c r="AI22" s="4"/>
     </row>
-    <row r="23" spans="2:35">
+    <row r="23" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <v>25</v>
       </c>
@@ -2531,7 +2535,7 @@
       </c>
       <c r="AI23" s="4"/>
     </row>
-    <row r="24" spans="2:35">
+    <row r="24" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <v>50</v>
       </c>
@@ -2566,7 +2570,7 @@
       </c>
       <c r="Y24" s="4"/>
     </row>
-    <row r="25" spans="2:35">
+    <row r="25" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
         <v>100</v>
       </c>
@@ -2623,7 +2627,7 @@
         <v>0.88858912821410396</v>
       </c>
     </row>
-    <row r="26" spans="2:35">
+    <row r="26" spans="2:35" x14ac:dyDescent="0.3">
       <c r="J26" s="7" t="s">
         <v>7</v>
       </c>
@@ -2633,7 +2637,7 @@
       </c>
       <c r="Y26" s="4"/>
     </row>
-    <row r="27" spans="2:35">
+    <row r="27" spans="2:35" x14ac:dyDescent="0.3">
       <c r="K27" s="8" t="s">
         <v>16</v>
       </c>
@@ -2683,7 +2687,7 @@
         <v>0.84823663877209698</v>
       </c>
     </row>
-    <row r="28" spans="2:35">
+    <row r="28" spans="2:35" x14ac:dyDescent="0.3">
       <c r="K28" s="8"/>
       <c r="L28" s="8" t="s">
         <v>17</v>
@@ -2729,7 +2733,7 @@
         <v>0.14945815641802301</v>
       </c>
     </row>
-    <row r="29" spans="2:35">
+    <row r="29" spans="2:35" x14ac:dyDescent="0.3">
       <c r="K29" s="8"/>
       <c r="L29" s="8" t="s">
         <v>18</v>
@@ -2769,7 +2773,7 @@
         <v>1.5054132552709499E-3</v>
       </c>
     </row>
-    <row r="30" spans="2:35">
+    <row r="30" spans="2:35" x14ac:dyDescent="0.3">
       <c r="K30" s="8"/>
       <c r="L30" s="8" t="s">
         <v>19</v>
@@ -2803,7 +2807,7 @@
         <v>2.5480615564798501E-4</v>
       </c>
     </row>
-    <row r="31" spans="2:35">
+    <row r="31" spans="2:35" x14ac:dyDescent="0.3">
       <c r="K31" s="8"/>
       <c r="L31" s="8" t="s">
         <v>20</v>
@@ -2831,7 +2835,7 @@
         <v>1.7398403371763499E-4</v>
       </c>
     </row>
-    <row r="32" spans="2:35">
+    <row r="32" spans="2:35" x14ac:dyDescent="0.3">
       <c r="L32" s="8" t="s">
         <v>37</v>
       </c>
@@ -2853,7 +2857,7 @@
         <v>1.7773985699309501E-4</v>
       </c>
     </row>
-    <row r="33" spans="10:27">
+    <row r="33" spans="10:27" x14ac:dyDescent="0.3">
       <c r="L33" s="8" t="s">
         <v>38</v>
       </c>
@@ -2869,7 +2873,7 @@
         <v>1.93261508249966E-4</v>
       </c>
     </row>
-    <row r="34" spans="10:27">
+    <row r="34" spans="10:27" x14ac:dyDescent="0.3">
       <c r="O34" s="7" t="s">
         <v>41</v>
       </c>
@@ -2880,7 +2884,7 @@
       </c>
       <c r="Y34" s="4"/>
     </row>
-    <row r="35" spans="10:27">
+    <row r="35" spans="10:27" x14ac:dyDescent="0.3">
       <c r="K35" t="s">
         <v>32</v>
       </c>
@@ -2897,7 +2901,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="9"/>
     </row>
-    <row r="36" spans="10:27">
+    <row r="36" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J36" s="7" t="s">
         <v>7</v>
       </c>
@@ -2907,7 +2911,7 @@
       </c>
       <c r="Y36" s="4"/>
     </row>
-    <row r="37" spans="10:27">
+    <row r="37" spans="10:27" x14ac:dyDescent="0.3">
       <c r="K37" s="8" t="s">
         <v>16</v>
       </c>
@@ -2925,7 +2929,7 @@
       <c r="V37" s="4"/>
       <c r="Y37" s="4"/>
     </row>
-    <row r="38" spans="10:27">
+    <row r="38" spans="10:27" x14ac:dyDescent="0.3">
       <c r="K38" s="8"/>
       <c r="L38" s="8" t="s">
         <v>17</v>
@@ -2939,7 +2943,7 @@
       <c r="V38" s="4"/>
       <c r="Y38" s="4"/>
     </row>
-    <row r="39" spans="10:27">
+    <row r="39" spans="10:27" x14ac:dyDescent="0.3">
       <c r="K39" s="8"/>
       <c r="L39" s="8" t="s">
         <v>18</v>
@@ -2951,7 +2955,7 @@
       </c>
       <c r="Y39" s="4"/>
     </row>
-    <row r="40" spans="10:27">
+    <row r="40" spans="10:27" x14ac:dyDescent="0.3">
       <c r="K40" s="8"/>
       <c r="L40" s="8" t="s">
         <v>19</v>
@@ -2963,7 +2967,7 @@
       </c>
       <c r="Y40" s="4"/>
     </row>
-    <row r="41" spans="10:27">
+    <row r="41" spans="10:27" x14ac:dyDescent="0.3">
       <c r="K41" s="8"/>
       <c r="L41" s="8" t="s">
         <v>20</v>
@@ -2975,7 +2979,7 @@
       </c>
       <c r="Y41" s="4"/>
     </row>
-    <row r="42" spans="10:27">
+    <row r="42" spans="10:27" x14ac:dyDescent="0.3">
       <c r="L42" s="8" t="s">
         <v>37</v>
       </c>
@@ -2985,7 +2989,7 @@
       </c>
       <c r="Y42" s="4"/>
     </row>
-    <row r="43" spans="10:27">
+    <row r="43" spans="10:27" x14ac:dyDescent="0.3">
       <c r="L43" s="8" t="s">
         <v>38</v>
       </c>
@@ -2995,14 +2999,14 @@
       </c>
       <c r="Y43" s="4"/>
     </row>
-    <row r="44" spans="10:27">
+    <row r="44" spans="10:27" x14ac:dyDescent="0.3">
       <c r="O44" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P44" s="4"/>
       <c r="Y44" s="4"/>
     </row>
-    <row r="45" spans="10:27">
+    <row r="45" spans="10:27" x14ac:dyDescent="0.3">
       <c r="K45" t="s">
         <v>32</v>
       </c>
@@ -3012,13 +3016,13 @@
       <c r="P45" s="9"/>
       <c r="Y45" s="4"/>
     </row>
-    <row r="46" spans="10:27">
+    <row r="46" spans="10:27" x14ac:dyDescent="0.3">
       <c r="J46" s="7" t="s">
         <v>7</v>
       </c>
       <c r="P46" s="4"/>
     </row>
-    <row r="47" spans="10:27">
+    <row r="47" spans="10:27" x14ac:dyDescent="0.3">
       <c r="K47" s="8" t="s">
         <v>16</v>
       </c>
@@ -3028,7 +3032,7 @@
       <c r="M47" s="4"/>
       <c r="P47" s="4"/>
     </row>
-    <row r="48" spans="10:27">
+    <row r="48" spans="10:27" x14ac:dyDescent="0.3">
       <c r="K48" s="8"/>
       <c r="L48" s="8" t="s">
         <v>17</v>
@@ -3036,34 +3040,34 @@
       <c r="M48" s="4"/>
       <c r="P48" s="4"/>
     </row>
-    <row r="49" spans="11:16">
+    <row r="49" spans="11:16" x14ac:dyDescent="0.3">
       <c r="K49" s="8"/>
       <c r="L49" s="8" t="s">
         <v>18</v>
       </c>
       <c r="P49" s="4"/>
     </row>
-    <row r="50" spans="11:16">
+    <row r="50" spans="11:16" x14ac:dyDescent="0.3">
       <c r="K50" s="8"/>
       <c r="L50" s="8" t="s">
         <v>19</v>
       </c>
       <c r="P50" s="4"/>
     </row>
-    <row r="51" spans="11:16">
+    <row r="51" spans="11:16" x14ac:dyDescent="0.3">
       <c r="K51" s="8"/>
       <c r="L51" s="8" t="s">
         <v>20</v>
       </c>
       <c r="P51" s="4"/>
     </row>
-    <row r="52" spans="11:16">
+    <row r="52" spans="11:16" x14ac:dyDescent="0.3">
       <c r="L52" s="8" t="s">
         <v>37</v>
       </c>
       <c r="P52" s="4"/>
     </row>
-    <row r="53" spans="11:16">
+    <row r="53" spans="11:16" x14ac:dyDescent="0.3">
       <c r="L53" s="8" t="s">
         <v>38</v>
       </c>
@@ -3077,26 +3081,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AH53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.09765625" customWidth="1"/>
+    <col min="13" max="13" width="12.09765625" customWidth="1"/>
+    <col min="14" max="14" width="10.8984375" customWidth="1"/>
     <col min="17" max="17" width="10" customWidth="1"/>
-    <col min="18" max="18" width="10.5703125" customWidth="1"/>
+    <col min="18" max="18" width="10.59765625" customWidth="1"/>
     <col min="21" max="21" width="10" customWidth="1"/>
-    <col min="22" max="22" width="10.28515625" customWidth="1"/>
+    <col min="22" max="22" width="10.296875" customWidth="1"/>
     <col min="26" max="26" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:34">
+    <row r="1" spans="2:34" x14ac:dyDescent="0.3">
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -3110,11 +3114,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:34">
+    <row r="2" spans="2:34" x14ac:dyDescent="0.3">
       <c r="P2" s="4"/>
       <c r="Y2" s="4"/>
     </row>
-    <row r="3" spans="2:34">
+    <row r="3" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
@@ -3136,7 +3140,7 @@
       </c>
       <c r="Y3" s="4"/>
     </row>
-    <row r="4" spans="2:34">
+    <row r="4" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
@@ -3164,7 +3168,7 @@
       <c r="Y4" s="4"/>
       <c r="AA4" s="4"/>
     </row>
-    <row r="5" spans="2:34">
+    <row r="5" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -3199,7 +3203,7 @@
       <c r="Y5" s="4"/>
       <c r="AA5" s="4"/>
     </row>
-    <row r="6" spans="2:34">
+    <row r="6" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>25</v>
       </c>
@@ -3230,7 +3234,7 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
     </row>
-    <row r="7" spans="2:34">
+    <row r="7" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>50</v>
       </c>
@@ -3257,7 +3261,7 @@
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
     </row>
-    <row r="8" spans="2:34">
+    <row r="8" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>100</v>
       </c>
@@ -3284,7 +3288,7 @@
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
     </row>
-    <row r="9" spans="2:34">
+    <row r="9" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>21</v>
       </c>
@@ -3311,7 +3315,7 @@
       <c r="Z9" s="9"/>
       <c r="AA9" s="4"/>
     </row>
-    <row r="10" spans="2:34">
+    <row r="10" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>0</v>
       </c>
@@ -3350,7 +3354,7 @@
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
     </row>
-    <row r="11" spans="2:34">
+    <row r="11" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>25</v>
       </c>
@@ -3374,7 +3378,7 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
     </row>
-    <row r="12" spans="2:34">
+    <row r="12" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>50</v>
       </c>
@@ -3398,7 +3402,7 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
     </row>
-    <row r="13" spans="2:34">
+    <row r="13" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>100</v>
       </c>
@@ -3421,7 +3425,7 @@
       </c>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="2:34">
+    <row r="14" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -3442,7 +3446,7 @@
       <c r="Y14" s="4"/>
       <c r="AH14" s="4"/>
     </row>
-    <row r="15" spans="2:34">
+    <row r="15" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>1</v>
       </c>
@@ -3465,7 +3469,7 @@
       <c r="Y15" s="4"/>
       <c r="AH15" s="4"/>
     </row>
-    <row r="16" spans="2:34">
+    <row r="16" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
@@ -3494,7 +3498,7 @@
       <c r="Y16" s="4"/>
       <c r="AH16" s="4"/>
     </row>
-    <row r="17" spans="2:34">
+    <row r="17" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>0</v>
       </c>
@@ -3531,7 +3535,7 @@
       <c r="Y17" s="4"/>
       <c r="AH17" s="4"/>
     </row>
-    <row r="18" spans="2:34">
+    <row r="18" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>25</v>
       </c>
@@ -3556,7 +3560,7 @@
       <c r="Y18" s="4"/>
       <c r="AH18" s="4"/>
     </row>
-    <row r="19" spans="2:34">
+    <row r="19" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>50</v>
       </c>
@@ -3581,7 +3585,7 @@
       <c r="Y19" s="4"/>
       <c r="AH19" s="4"/>
     </row>
-    <row r="20" spans="2:34">
+    <row r="20" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>100</v>
       </c>
@@ -3606,7 +3610,7 @@
       <c r="Y20" s="4"/>
       <c r="AH20" s="4"/>
     </row>
-    <row r="21" spans="2:34">
+    <row r="21" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
         <v>23</v>
       </c>
@@ -3629,7 +3633,7 @@
       <c r="Y21" s="4"/>
       <c r="AH21" s="4"/>
     </row>
-    <row r="22" spans="2:34">
+    <row r="22" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
         <v>0</v>
       </c>
@@ -3664,7 +3668,7 @@
       <c r="Y22" s="4"/>
       <c r="AH22" s="4"/>
     </row>
-    <row r="23" spans="2:34">
+    <row r="23" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <v>25</v>
       </c>
@@ -3678,7 +3682,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="2:34">
+    <row r="24" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <v>50</v>
       </c>
@@ -3701,7 +3705,7 @@
       </c>
       <c r="Y24" s="4"/>
     </row>
-    <row r="25" spans="2:34">
+    <row r="25" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
         <v>100</v>
       </c>
@@ -3730,7 +3734,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="9"/>
     </row>
-    <row r="26" spans="2:34">
+    <row r="26" spans="2:34" x14ac:dyDescent="0.3">
       <c r="J26" s="7" t="s">
         <v>7</v>
       </c>
@@ -3740,7 +3744,7 @@
       </c>
       <c r="Y26" s="4"/>
     </row>
-    <row r="27" spans="2:34">
+    <row r="27" spans="2:34" x14ac:dyDescent="0.3">
       <c r="K27" s="8" t="s">
         <v>16</v>
       </c>
@@ -3758,7 +3762,7 @@
       <c r="V27" s="4"/>
       <c r="Y27" s="4"/>
     </row>
-    <row r="28" spans="2:34">
+    <row r="28" spans="2:34" x14ac:dyDescent="0.3">
       <c r="K28" s="8"/>
       <c r="L28" s="8" t="s">
         <v>17</v>
@@ -3772,7 +3776,7 @@
       <c r="V28" s="4"/>
       <c r="Y28" s="4"/>
     </row>
-    <row r="29" spans="2:34">
+    <row r="29" spans="2:34" x14ac:dyDescent="0.3">
       <c r="K29" s="8"/>
       <c r="L29" s="8" t="s">
         <v>18</v>
@@ -3784,7 +3788,7 @@
       </c>
       <c r="Y29" s="4"/>
     </row>
-    <row r="30" spans="2:34">
+    <row r="30" spans="2:34" x14ac:dyDescent="0.3">
       <c r="K30" s="8"/>
       <c r="L30" s="8" t="s">
         <v>19</v>
@@ -3796,7 +3800,7 @@
       </c>
       <c r="Y30" s="4"/>
     </row>
-    <row r="31" spans="2:34">
+    <row r="31" spans="2:34" x14ac:dyDescent="0.3">
       <c r="K31" s="8"/>
       <c r="L31" s="8" t="s">
         <v>20</v>
@@ -3808,7 +3812,7 @@
       </c>
       <c r="Y31" s="4"/>
     </row>
-    <row r="32" spans="2:34">
+    <row r="32" spans="2:34" x14ac:dyDescent="0.3">
       <c r="L32" s="8" t="s">
         <v>37</v>
       </c>
@@ -3818,7 +3822,7 @@
       </c>
       <c r="Y32" s="4"/>
     </row>
-    <row r="33" spans="10:25">
+    <row r="33" spans="10:25" x14ac:dyDescent="0.3">
       <c r="L33" s="8" t="s">
         <v>38</v>
       </c>
@@ -3828,7 +3832,7 @@
       </c>
       <c r="Y33" s="4"/>
     </row>
-    <row r="34" spans="10:25">
+    <row r="34" spans="10:25" x14ac:dyDescent="0.3">
       <c r="O34" s="7" t="s">
         <v>41</v>
       </c>
@@ -3839,7 +3843,7 @@
       </c>
       <c r="Y34" s="4"/>
     </row>
-    <row r="35" spans="10:25">
+    <row r="35" spans="10:25" x14ac:dyDescent="0.3">
       <c r="K35" t="s">
         <v>32</v>
       </c>
@@ -3856,7 +3860,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="9"/>
     </row>
-    <row r="36" spans="10:25">
+    <row r="36" spans="10:25" x14ac:dyDescent="0.3">
       <c r="J36" s="7" t="s">
         <v>7</v>
       </c>
@@ -3866,7 +3870,7 @@
       </c>
       <c r="Y36" s="4"/>
     </row>
-    <row r="37" spans="10:25">
+    <row r="37" spans="10:25" x14ac:dyDescent="0.3">
       <c r="K37" s="8" t="s">
         <v>16</v>
       </c>
@@ -3884,7 +3888,7 @@
       <c r="V37" s="4"/>
       <c r="Y37" s="4"/>
     </row>
-    <row r="38" spans="10:25">
+    <row r="38" spans="10:25" x14ac:dyDescent="0.3">
       <c r="K38" s="8"/>
       <c r="L38" s="8" t="s">
         <v>17</v>
@@ -3898,7 +3902,7 @@
       <c r="V38" s="4"/>
       <c r="Y38" s="4"/>
     </row>
-    <row r="39" spans="10:25">
+    <row r="39" spans="10:25" x14ac:dyDescent="0.3">
       <c r="K39" s="8"/>
       <c r="L39" s="8" t="s">
         <v>18</v>
@@ -3910,7 +3914,7 @@
       </c>
       <c r="Y39" s="4"/>
     </row>
-    <row r="40" spans="10:25">
+    <row r="40" spans="10:25" x14ac:dyDescent="0.3">
       <c r="K40" s="8"/>
       <c r="L40" s="8" t="s">
         <v>19</v>
@@ -3922,7 +3926,7 @@
       </c>
       <c r="Y40" s="4"/>
     </row>
-    <row r="41" spans="10:25">
+    <row r="41" spans="10:25" x14ac:dyDescent="0.3">
       <c r="K41" s="8"/>
       <c r="L41" s="8" t="s">
         <v>20</v>
@@ -3934,7 +3938,7 @@
       </c>
       <c r="Y41" s="4"/>
     </row>
-    <row r="42" spans="10:25">
+    <row r="42" spans="10:25" x14ac:dyDescent="0.3">
       <c r="L42" s="8" t="s">
         <v>37</v>
       </c>
@@ -3944,7 +3948,7 @@
       </c>
       <c r="Y42" s="4"/>
     </row>
-    <row r="43" spans="10:25">
+    <row r="43" spans="10:25" x14ac:dyDescent="0.3">
       <c r="L43" s="8" t="s">
         <v>38</v>
       </c>
@@ -3954,14 +3958,14 @@
       </c>
       <c r="Y43" s="4"/>
     </row>
-    <row r="44" spans="10:25">
+    <row r="44" spans="10:25" x14ac:dyDescent="0.3">
       <c r="O44" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P44" s="4"/>
       <c r="Y44" s="4"/>
     </row>
-    <row r="45" spans="10:25">
+    <row r="45" spans="10:25" x14ac:dyDescent="0.3">
       <c r="K45" t="s">
         <v>32</v>
       </c>
@@ -3971,13 +3975,13 @@
       <c r="P45" s="9"/>
       <c r="Y45" s="4"/>
     </row>
-    <row r="46" spans="10:25">
+    <row r="46" spans="10:25" x14ac:dyDescent="0.3">
       <c r="J46" s="7" t="s">
         <v>7</v>
       </c>
       <c r="P46" s="4"/>
     </row>
-    <row r="47" spans="10:25">
+    <row r="47" spans="10:25" x14ac:dyDescent="0.3">
       <c r="K47" s="8" t="s">
         <v>16</v>
       </c>
@@ -3987,7 +3991,7 @@
       <c r="M47" s="4"/>
       <c r="P47" s="4"/>
     </row>
-    <row r="48" spans="10:25">
+    <row r="48" spans="10:25" x14ac:dyDescent="0.3">
       <c r="K48" s="8"/>
       <c r="L48" s="8" t="s">
         <v>17</v>
@@ -3995,34 +3999,34 @@
       <c r="M48" s="4"/>
       <c r="P48" s="4"/>
     </row>
-    <row r="49" spans="11:16">
+    <row r="49" spans="11:16" x14ac:dyDescent="0.3">
       <c r="K49" s="8"/>
       <c r="L49" s="8" t="s">
         <v>18</v>
       </c>
       <c r="P49" s="4"/>
     </row>
-    <row r="50" spans="11:16">
+    <row r="50" spans="11:16" x14ac:dyDescent="0.3">
       <c r="K50" s="8"/>
       <c r="L50" s="8" t="s">
         <v>19</v>
       </c>
       <c r="P50" s="4"/>
     </row>
-    <row r="51" spans="11:16">
+    <row r="51" spans="11:16" x14ac:dyDescent="0.3">
       <c r="K51" s="8"/>
       <c r="L51" s="8" t="s">
         <v>20</v>
       </c>
       <c r="P51" s="4"/>
     </row>
-    <row r="52" spans="11:16">
+    <row r="52" spans="11:16" x14ac:dyDescent="0.3">
       <c r="L52" s="8" t="s">
         <v>37</v>
       </c>
       <c r="P52" s="4"/>
     </row>
-    <row r="53" spans="11:16">
+    <row r="53" spans="11:16" x14ac:dyDescent="0.3">
       <c r="L53" s="8" t="s">
         <v>38</v>
       </c>
@@ -4035,21 +4039,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AA37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="13" max="13" width="9.5703125" customWidth="1"/>
-    <col min="14" max="15" width="10.140625" customWidth="1"/>
-    <col min="19" max="19" width="9.85546875" customWidth="1"/>
+    <col min="13" max="13" width="9.59765625" customWidth="1"/>
+    <col min="14" max="15" width="10.09765625" customWidth="1"/>
+    <col min="19" max="19" width="9.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27">
+    <row r="1" spans="2:27" x14ac:dyDescent="0.3">
       <c r="G1" s="7" t="s">
         <v>31</v>
       </c>
@@ -4074,7 +4078,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="2:27">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
@@ -4086,7 +4090,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="2:27">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
@@ -4104,7 +4108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:27">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -4166,7 +4170,7 @@
         <v>20570.641522094</v>
       </c>
     </row>
-    <row r="7" spans="2:27">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>25</v>
       </c>
@@ -4192,7 +4196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:27">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>50</v>
       </c>
@@ -4260,7 +4264,7 @@
         <v>0.30815257968458698</v>
       </c>
     </row>
-    <row r="9" spans="2:27">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -4312,7 +4316,7 @@
         <v>0.134223115674938</v>
       </c>
     </row>
-    <row r="10" spans="2:27">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>21</v>
       </c>
@@ -4362,7 +4366,7 @@
         <v>0.10801102149543799</v>
       </c>
     </row>
-    <row r="11" spans="2:27">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>0</v>
       </c>
@@ -4414,7 +4418,7 @@
         <v>9.9163019579977002E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:27">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>25</v>
       </c>
@@ -4460,7 +4464,7 @@
         <v>0.10099355778177101</v>
       </c>
     </row>
-    <row r="13" spans="2:27">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>50</v>
       </c>
@@ -4498,7 +4502,7 @@
         <v>0.103488498177887</v>
       </c>
     </row>
-    <row r="14" spans="2:27">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -4519,7 +4523,7 @@
         <v>0.14596821826827899</v>
       </c>
     </row>
-    <row r="15" spans="2:27">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -4528,7 +4532,7 @@
       <c r="H15" s="5"/>
       <c r="Q15" s="4"/>
     </row>
-    <row r="16" spans="2:27">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>1</v>
       </c>
@@ -4547,7 +4551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:27">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>13</v>
       </c>
@@ -4602,7 +4606,7 @@
         <v>19719.016402622299</v>
       </c>
     </row>
-    <row r="18" spans="2:27">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>0</v>
       </c>
@@ -4630,7 +4634,7 @@
       <c r="T18" s="8"/>
       <c r="U18" s="8"/>
     </row>
-    <row r="19" spans="2:27">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>25</v>
       </c>
@@ -4698,7 +4702,7 @@
         <v>0.57106539070801998</v>
       </c>
     </row>
-    <row r="20" spans="2:27">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>50</v>
       </c>
@@ -4762,7 +4766,7 @@
         <v>0.13842348248671699</v>
       </c>
     </row>
-    <row r="21" spans="2:27">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -4808,7 +4812,7 @@
         <v>7.2530104509382895E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:27">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
         <v>23</v>
       </c>
@@ -4852,7 +4856,7 @@
         <v>5.1317158307596498E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:27">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
         <v>0</v>
       </c>
@@ -4898,7 +4902,7 @@
         <v>4.5953439014483302E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:27">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <v>25</v>
       </c>
@@ -4936,7 +4940,7 @@
         <v>4.7449867713252998E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:27">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
         <v>50</v>
       </c>
@@ -4968,77 +4972,77 @@
         <v>7.32605572718385E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:27">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="2:27">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="2:27">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="2:27">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="2:27">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="2:27">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="3:7">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="3:7">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="3:7">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="3:7">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="3:7">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -5053,22 +5057,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:AA31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="14" max="14" width="9.28515625" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" customWidth="1"/>
+    <col min="14" max="14" width="9.296875" customWidth="1"/>
+    <col min="15" max="15" width="10.296875" customWidth="1"/>
+    <col min="17" max="17" width="9.69921875" customWidth="1"/>
+    <col min="18" max="18" width="9.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27">
+    <row r="1" spans="2:27" x14ac:dyDescent="0.3">
       <c r="G1" s="7" t="s">
         <v>31</v>
       </c>
@@ -5093,7 +5097,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:27">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
@@ -5105,7 +5109,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="2:27">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
@@ -5123,7 +5127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:27">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -5185,7 +5189,7 @@
         <v>64370554.747143202</v>
       </c>
     </row>
-    <row r="6" spans="2:27">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>25</v>
       </c>
@@ -5214,7 +5218,7 @@
       </c>
       <c r="V6" s="4"/>
     </row>
-    <row r="7" spans="2:27">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>50</v>
       </c>
@@ -5282,7 +5286,7 @@
         <v>0.19209538135721799</v>
       </c>
     </row>
-    <row r="8" spans="2:27">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -5334,7 +5338,7 @@
         <v>0.13062750615674901</v>
       </c>
     </row>
-    <row r="9" spans="2:27">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>21</v>
       </c>
@@ -5386,7 +5390,7 @@
         <v>0.13046737415207199</v>
       </c>
     </row>
-    <row r="10" spans="2:27">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>0</v>
       </c>
@@ -5440,7 +5444,7 @@
         <v>0.122165488276861</v>
       </c>
     </row>
-    <row r="11" spans="2:27">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>25</v>
       </c>
@@ -5486,7 +5490,7 @@
         <v>0.119558849186155</v>
       </c>
     </row>
-    <row r="12" spans="2:27">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>50</v>
       </c>
@@ -5524,7 +5528,7 @@
         <v>0.123747642802151</v>
       </c>
     </row>
-    <row r="13" spans="2:27">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -5545,7 +5549,7 @@
         <v>0.181337769176489</v>
       </c>
     </row>
-    <row r="14" spans="2:27">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -5554,7 +5558,7 @@
       <c r="H14" s="5"/>
       <c r="Q14" s="4"/>
     </row>
-    <row r="15" spans="2:27">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>1</v>
       </c>
@@ -5573,7 +5577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:27">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
@@ -5629,7 +5633,7 @@
         <v>327641.15295736701</v>
       </c>
     </row>
-    <row r="17" spans="2:27">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>0</v>
       </c>
@@ -5657,7 +5661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:27">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>25</v>
       </c>
@@ -5725,7 +5729,7 @@
         <v>0.35569660781041801</v>
       </c>
     </row>
-    <row r="19" spans="2:27">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>50</v>
       </c>
@@ -5789,7 +5793,7 @@
         <v>0.12995159847350399</v>
       </c>
     </row>
-    <row r="20" spans="2:27">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -5836,7 +5840,7 @@
         <v>0.118257566608411</v>
       </c>
     </row>
-    <row r="21" spans="2:27">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
         <v>23</v>
       </c>
@@ -5882,7 +5886,7 @@
         <v>9.6305651771719195E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:27">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
         <v>0</v>
       </c>
@@ -5928,7 +5932,7 @@
         <v>8.5026333447958194E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:27">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <v>25</v>
       </c>
@@ -5966,7 +5970,7 @@
         <v>8.4783291360046795E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:27">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <v>50</v>
       </c>
@@ -5998,7 +6002,7 @@
         <v>0.129978950569058</v>
       </c>
     </row>
-    <row r="26" spans="2:27">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="P26" s="4"/>
@@ -6006,29 +6010,29 @@
       <c r="S26" s="8"/>
       <c r="T26" s="8"/>
     </row>
-    <row r="27" spans="2:27">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.3">
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="S27" s="8"/>
       <c r="T27" s="8"/>
     </row>
-    <row r="28" spans="2:27">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="S28" s="8"/>
       <c r="T28" s="8"/>
     </row>
-    <row r="29" spans="2:27">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="S29" s="8"/>
       <c r="T29" s="8"/>
     </row>
-    <row r="30" spans="2:27">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K30" s="8"/>
       <c r="T30" s="8"/>
     </row>
-    <row r="31" spans="2:27">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K31" s="8"/>
       <c r="T31" s="8"/>
     </row>
@@ -6039,20 +6043,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:AA31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="14" max="14" width="9.7109375" customWidth="1"/>
+    <col min="14" max="14" width="9.69921875" customWidth="1"/>
     <col min="15" max="15" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27">
+    <row r="1" spans="2:27" x14ac:dyDescent="0.3">
       <c r="G1" s="7" t="s">
         <v>31</v>
       </c>
@@ -6077,7 +6081,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:27">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
@@ -6089,7 +6093,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="2:27">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
@@ -6107,7 +6111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:27">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -6169,7 +6173,7 @@
         <v>2766154.42595872</v>
       </c>
     </row>
-    <row r="6" spans="2:27">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>25</v>
       </c>
@@ -6198,7 +6202,7 @@
       </c>
       <c r="V6" s="4"/>
     </row>
-    <row r="7" spans="2:27">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>50</v>
       </c>
@@ -6266,7 +6270,7 @@
         <v>0.50982033829541695</v>
       </c>
     </row>
-    <row r="8" spans="2:27">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -6318,7 +6322,7 @@
         <v>0.16435740130417401</v>
       </c>
     </row>
-    <row r="9" spans="2:27">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>21</v>
       </c>
@@ -6370,7 +6374,7 @@
         <v>9.3602597497565596E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:27">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>0</v>
       </c>
@@ -6424,7 +6428,7 @@
         <v>8.13880933634092E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:27">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>25</v>
       </c>
@@ -6470,7 +6474,7 @@
         <v>5.7299491266153503E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:27">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>50</v>
       </c>
@@ -6508,7 +6512,7 @@
         <v>5.2817818258225603E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:27">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -6529,7 +6533,7 @@
         <v>4.0714260687297402E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:27">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -6538,7 +6542,7 @@
       <c r="H14" s="5"/>
       <c r="Q14" s="4"/>
     </row>
-    <row r="15" spans="2:27">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>1</v>
       </c>
@@ -6557,7 +6561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:27">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
@@ -6613,7 +6617,7 @@
         <v>86455.066648954205</v>
       </c>
     </row>
-    <row r="17" spans="2:27">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>0</v>
       </c>
@@ -6641,7 +6645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:27">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>25</v>
       </c>
@@ -6709,7 +6713,7 @@
         <v>0.72189378074261801</v>
       </c>
     </row>
-    <row r="19" spans="2:27">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>50</v>
       </c>
@@ -6773,7 +6777,7 @@
         <v>0.179893739300311</v>
       </c>
     </row>
-    <row r="20" spans="2:27">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -6820,7 +6824,7 @@
         <v>8.7644797481218895E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:27">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
         <v>23</v>
       </c>
@@ -6866,7 +6870,7 @@
         <v>2.8576054723673399E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:27">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
         <v>0</v>
       </c>
@@ -6912,7 +6916,7 @@
         <v>-2.0688545474609101E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:27">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <v>25</v>
       </c>
@@ -6950,7 +6954,7 @@
         <v>-8.6291236179614692E-3</v>
       </c>
     </row>
-    <row r="24" spans="2:27">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <v>50</v>
       </c>
@@ -6982,7 +6986,7 @@
         <v>-7.3103940816280797E-3</v>
       </c>
     </row>
-    <row r="26" spans="2:27">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="P26" s="4"/>
@@ -6990,29 +6994,29 @@
       <c r="S26" s="8"/>
       <c r="T26" s="8"/>
     </row>
-    <row r="27" spans="2:27">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.3">
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="S27" s="8"/>
       <c r="T27" s="8"/>
     </row>
-    <row r="28" spans="2:27">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="S28" s="8"/>
       <c r="T28" s="8"/>
     </row>
-    <row r="29" spans="2:27">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="S29" s="8"/>
       <c r="T29" s="8"/>
     </row>
-    <row r="30" spans="2:27">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K30" s="8"/>
       <c r="T30" s="8"/>
     </row>
-    <row r="31" spans="2:27">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K31" s="8"/>
       <c r="T31" s="8"/>
     </row>
@@ -7023,20 +7027,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:AA31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="14" max="14" width="9.5703125" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" customWidth="1"/>
+    <col min="14" max="14" width="9.59765625" customWidth="1"/>
+    <col min="15" max="15" width="9.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27">
+    <row r="1" spans="2:27" x14ac:dyDescent="0.3">
       <c r="G1" s="7" t="s">
         <v>31</v>
       </c>
@@ -7061,7 +7065,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:27">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
@@ -7073,7 +7077,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="2:27">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
@@ -7091,7 +7095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:27">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -7153,7 +7157,7 @@
         <v>58912135.816483498</v>
       </c>
     </row>
-    <row r="6" spans="2:27">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>25</v>
       </c>
@@ -7182,7 +7186,7 @@
       </c>
       <c r="V6" s="4"/>
     </row>
-    <row r="7" spans="2:27">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>50</v>
       </c>
@@ -7250,7 +7254,7 @@
         <v>0.24823979936364399</v>
       </c>
     </row>
-    <row r="8" spans="2:27">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -7302,7 +7306,7 @@
         <v>0.1181820858381</v>
       </c>
     </row>
-    <row r="9" spans="2:27">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>21</v>
       </c>
@@ -7354,7 +7358,7 @@
         <v>0.14909978021435499</v>
       </c>
     </row>
-    <row r="10" spans="2:27">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>0</v>
       </c>
@@ -7408,7 +7412,7 @@
         <v>0.16215183691236301</v>
       </c>
     </row>
-    <row r="11" spans="2:27">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>25</v>
       </c>
@@ -7454,7 +7458,7 @@
         <v>0.12861186793936</v>
       </c>
     </row>
-    <row r="12" spans="2:27">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>50</v>
       </c>
@@ -7492,7 +7496,7 @@
         <v>0.105268039263452</v>
       </c>
     </row>
-    <row r="13" spans="2:27">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -7513,7 +7517,7 @@
         <v>8.8446591540998695E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:27">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -7522,7 +7526,7 @@
       <c r="H14" s="5"/>
       <c r="Q14" s="4"/>
     </row>
-    <row r="15" spans="2:27">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>1</v>
       </c>
@@ -7541,7 +7545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:27">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
@@ -7596,7 +7600,7 @@
         <v>289624.20667453099</v>
       </c>
     </row>
-    <row r="17" spans="2:27">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>0</v>
       </c>
@@ -7626,7 +7630,7 @@
       <c r="T17" s="8"/>
       <c r="U17" s="8"/>
     </row>
-    <row r="18" spans="2:27">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>25</v>
       </c>
@@ -7694,7 +7698,7 @@
         <v>0.45362118198186002</v>
       </c>
     </row>
-    <row r="19" spans="2:27">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>50</v>
       </c>
@@ -7758,7 +7762,7 @@
         <v>0.13799357163511999</v>
       </c>
     </row>
-    <row r="20" spans="2:27">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -7805,7 +7809,7 @@
         <v>0.148599214518569</v>
       </c>
     </row>
-    <row r="21" spans="2:27">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
         <v>23</v>
       </c>
@@ -7851,7 +7855,7 @@
         <v>0.11067748769034</v>
       </c>
     </row>
-    <row r="22" spans="2:27">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
         <v>0</v>
       </c>
@@ -7897,7 +7901,7 @@
         <v>7.0467083057205102E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:27">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <v>25</v>
       </c>
@@ -7935,7 +7939,7 @@
         <v>4.6596800140447502E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:27">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <v>50</v>
       </c>
@@ -7967,35 +7971,35 @@
         <v>3.2044660978269197E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:27">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
     </row>
-    <row r="27" spans="2:27">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.3">
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="S27" s="8"/>
       <c r="T27" s="8"/>
     </row>
-    <row r="28" spans="2:27">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="S28" s="8"/>
       <c r="T28" s="8"/>
     </row>
-    <row r="29" spans="2:27">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="S29" s="8"/>
       <c r="T29" s="8"/>
     </row>
-    <row r="30" spans="2:27">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K30" s="8"/>
       <c r="T30" s="8"/>
     </row>
-    <row r="31" spans="2:27">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
       <c r="K31" s="8"/>
       <c r="T31" s="8"/>
     </row>

--- a/MC_code/MC_score_weighting.xlsx
+++ b/MC_code/MC_score_weighting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Dynamic-Linear-Models-for-Heterogenous-Panels\MC_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A034B4BB-A539-4FDA-B720-26F0A263EAE3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9E3575-F967-4656-834E-9EB951F2DB78}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1519,12 +1519,13 @@
   <dimension ref="B1:AI53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="9.69921875" customWidth="1"/>
+    <col min="7" max="7" width="9.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:27" x14ac:dyDescent="0.3">
@@ -1812,7 +1813,9 @@
       <c r="F8" s="5">
         <v>100</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="5">
+        <v>2.3523639890647998E-3</v>
+      </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="K8" s="8"/>
@@ -2049,7 +2052,9 @@
       <c r="F13" s="5">
         <v>100</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="5">
+        <v>2.34344289306616E-2</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="O13" s="7" t="s">
@@ -2403,7 +2408,9 @@
       <c r="F20" s="5">
         <v>100</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="5">
+        <v>4.82442928862792E-3</v>
+      </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="K20" s="8"/>
@@ -2580,7 +2587,9 @@
       <c r="F25" s="5">
         <v>100</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="5">
+        <v>2.93801164481787E-2</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="K25" t="s">
@@ -2889,10 +2898,24 @@
         <v>32</v>
       </c>
       <c r="L35" s="8"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="9"/>
+      <c r="M35" s="9">
+        <v>0.62686046237177895</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0.87857075967031695</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0.96033715549411303</v>
+      </c>
+      <c r="P35" s="9">
+        <v>0.983800890499682</v>
+      </c>
+      <c r="Q35">
+        <v>0.98604866064859598</v>
+      </c>
+      <c r="R35">
+        <v>-0.211180278308506</v>
+      </c>
       <c r="T35" t="s">
         <v>32</v>
       </c>
